--- a/inst/ext/SeriesTemporais_Emprego.xlsx
+++ b/inst/ext/SeriesTemporais_Emprego.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Estat\DESEMP18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Estat\DESEMP20\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -211,6 +211,8 @@
     <sheetNames>
       <sheetName val="Séries_Site"/>
       <sheetName val="RESULTADO"/>
+      <sheetName val="DIGITADO2020"/>
+      <sheetName val="DIGITADO2019"/>
       <sheetName val="DIGITADO2018"/>
       <sheetName val="DIGITADO2017"/>
       <sheetName val="DIGITADO2016"/>
@@ -4955,23 +4957,287 @@
         </row>
         <row r="436">
           <cell r="B436">
-            <v>0</v>
+            <v>131254</v>
           </cell>
           <cell r="C436">
-            <v>0</v>
+            <v>111721</v>
           </cell>
           <cell r="D436">
-            <v>0</v>
+            <v>19533</v>
           </cell>
         </row>
         <row r="437">
           <cell r="B437">
+            <v>130451</v>
+          </cell>
+          <cell r="C437">
+            <v>111043</v>
+          </cell>
+          <cell r="D437">
+            <v>19408</v>
+          </cell>
+        </row>
+        <row r="438">
+          <cell r="B438">
+            <v>130453</v>
+          </cell>
+          <cell r="C438">
+            <v>111086</v>
+          </cell>
+          <cell r="D438">
+            <v>19367</v>
+          </cell>
+        </row>
+        <row r="439">
+          <cell r="B439">
+            <v>130967</v>
+          </cell>
+          <cell r="C439">
+            <v>111442</v>
+          </cell>
+          <cell r="D439">
+            <v>19525</v>
+          </cell>
+        </row>
+        <row r="440">
+          <cell r="B440">
+            <v>129980</v>
+          </cell>
+          <cell r="C440">
+            <v>110485</v>
+          </cell>
+          <cell r="D440">
+            <v>19495</v>
+          </cell>
+        </row>
+        <row r="441">
+          <cell r="B441">
+            <v>130154</v>
+          </cell>
+          <cell r="C441">
+            <v>110454</v>
+          </cell>
+          <cell r="D441">
+            <v>19700</v>
+          </cell>
+        </row>
+        <row r="442">
+          <cell r="B442">
+            <v>130008</v>
+          </cell>
+          <cell r="C442">
+            <v>110249</v>
+          </cell>
+          <cell r="D442">
+            <v>19759</v>
+          </cell>
+        </row>
+        <row r="443">
+          <cell r="B443">
+            <v>129234</v>
+          </cell>
+          <cell r="C443">
+            <v>109519</v>
+          </cell>
+          <cell r="D443">
+            <v>19715</v>
+          </cell>
+        </row>
+        <row r="444">
+          <cell r="B444">
+            <v>128665</v>
+          </cell>
+          <cell r="C444">
+            <v>108948</v>
+          </cell>
+          <cell r="D444">
+            <v>19717</v>
+          </cell>
+        </row>
+        <row r="445">
+          <cell r="B445">
+            <v>128153</v>
+          </cell>
+          <cell r="C445">
+            <v>108451</v>
+          </cell>
+          <cell r="D445">
+            <v>19702</v>
+          </cell>
+        </row>
+        <row r="446">
+          <cell r="B446">
+            <v>127938</v>
+          </cell>
+          <cell r="C446">
+            <v>108357</v>
+          </cell>
+          <cell r="D446">
+            <v>19581</v>
+          </cell>
+        </row>
+        <row r="447">
+          <cell r="B447">
+            <v>127724</v>
+          </cell>
+          <cell r="C447">
+            <v>108376</v>
+          </cell>
+          <cell r="D447">
+            <v>19348</v>
+          </cell>
+        </row>
+        <row r="448">
+          <cell r="B448">
+            <v>126438</v>
+          </cell>
+          <cell r="C448">
+            <v>107438</v>
+          </cell>
+          <cell r="D448">
+            <v>19000</v>
+          </cell>
+        </row>
+        <row r="449">
+          <cell r="B449">
+            <v>125596</v>
+          </cell>
+          <cell r="C449">
+            <v>106705</v>
+          </cell>
+          <cell r="D449">
+            <v>18891</v>
+          </cell>
+        </row>
+        <row r="450">
+          <cell r="B450">
+            <v>125905</v>
+          </cell>
+          <cell r="C450">
+            <v>107169</v>
+          </cell>
+          <cell r="D450">
+            <v>18736</v>
+          </cell>
+        </row>
+        <row r="451">
+          <cell r="B451">
+            <v>125989</v>
+          </cell>
+          <cell r="C451">
+            <v>107270</v>
+          </cell>
+          <cell r="D451">
+            <v>18719</v>
+          </cell>
+        </row>
+        <row r="452">
+          <cell r="B452">
+            <v>125675</v>
+          </cell>
+          <cell r="C452">
+            <v>106996</v>
+          </cell>
+          <cell r="D452">
+            <v>18679</v>
+          </cell>
+        </row>
+        <row r="453">
+          <cell r="B453">
             <v>0</v>
           </cell>
-          <cell r="C437">
+          <cell r="C453">
             <v>0</v>
           </cell>
-          <cell r="D437">
+          <cell r="D453">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="454">
+          <cell r="B454">
+            <v>0</v>
+          </cell>
+          <cell r="C454">
+            <v>0</v>
+          </cell>
+          <cell r="D454">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="455">
+          <cell r="B455">
+            <v>0</v>
+          </cell>
+          <cell r="C455">
+            <v>0</v>
+          </cell>
+          <cell r="D455">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="456">
+          <cell r="B456">
+            <v>0</v>
+          </cell>
+          <cell r="C456">
+            <v>0</v>
+          </cell>
+          <cell r="D456">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="457">
+          <cell r="B457">
+            <v>0</v>
+          </cell>
+          <cell r="C457">
+            <v>0</v>
+          </cell>
+          <cell r="D457">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="458">
+          <cell r="B458">
+            <v>0</v>
+          </cell>
+          <cell r="C458">
+            <v>0</v>
+          </cell>
+          <cell r="D458">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="459">
+          <cell r="B459">
+            <v>0</v>
+          </cell>
+          <cell r="C459">
+            <v>0</v>
+          </cell>
+          <cell r="D459">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="460">
+          <cell r="B460">
+            <v>0</v>
+          </cell>
+          <cell r="C460">
+            <v>0</v>
+          </cell>
+          <cell r="D460">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="461">
+          <cell r="B461">
+            <v>0</v>
+          </cell>
+          <cell r="C461">
+            <v>0</v>
+          </cell>
+          <cell r="D461">
             <v>0</v>
           </cell>
         </row>
@@ -4986,6 +5252,8 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5254,10 +5522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D434"/>
+  <dimension ref="A1:D458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
-      <selection activeCell="A407" sqref="A407"/>
+    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
+      <selection activeCell="G450" sqref="G450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5294,15 +5562,15 @@
         <v>30317</v>
       </c>
       <c r="B3" s="8">
-        <f>+[1]Séries_Site!B6</f>
+        <f ca="1">+[1]Séries_Site!B6</f>
         <v>122168</v>
       </c>
       <c r="C3" s="9">
-        <f>+[1]Séries_Site!C6</f>
+        <f ca="1">+[1]Séries_Site!C6</f>
         <v>104428</v>
       </c>
       <c r="D3" s="9">
-        <f>+[1]Séries_Site!D6</f>
+        <f ca="1">+[1]Séries_Site!D6</f>
         <v>17740</v>
       </c>
     </row>
@@ -5311,15 +5579,15 @@
         <v>30348</v>
       </c>
       <c r="B4" s="8">
-        <f>+[1]Séries_Site!B7</f>
+        <f ca="1">+[1]Séries_Site!B7</f>
         <v>121449</v>
       </c>
       <c r="C4" s="9">
-        <f>+[1]Séries_Site!C7</f>
+        <f ca="1">+[1]Séries_Site!C7</f>
         <v>103850</v>
       </c>
       <c r="D4" s="9">
-        <f>+[1]Séries_Site!D7</f>
+        <f ca="1">+[1]Séries_Site!D7</f>
         <v>17599</v>
       </c>
     </row>
@@ -5328,15 +5596,15 @@
         <v>30376</v>
       </c>
       <c r="B5" s="8">
-        <f>+[1]Séries_Site!B8</f>
+        <f ca="1">+[1]Séries_Site!B8</f>
         <v>121788</v>
       </c>
       <c r="C5" s="9">
-        <f>+[1]Séries_Site!C8</f>
+        <f ca="1">+[1]Séries_Site!C8</f>
         <v>104249</v>
       </c>
       <c r="D5" s="9">
-        <f>+[1]Séries_Site!D8</f>
+        <f ca="1">+[1]Séries_Site!D8</f>
         <v>17539</v>
       </c>
     </row>
@@ -5345,15 +5613,15 @@
         <v>30407</v>
       </c>
       <c r="B6" s="8">
-        <f>+[1]Séries_Site!B9</f>
+        <f ca="1">+[1]Séries_Site!B9</f>
         <v>122204</v>
       </c>
       <c r="C6" s="9">
-        <f>+[1]Séries_Site!C9</f>
+        <f ca="1">+[1]Séries_Site!C9</f>
         <v>104672</v>
       </c>
       <c r="D6" s="9">
-        <f>+[1]Séries_Site!D9</f>
+        <f ca="1">+[1]Séries_Site!D9</f>
         <v>17532</v>
       </c>
     </row>
@@ -5362,15 +5630,15 @@
         <v>30437</v>
       </c>
       <c r="B7" s="8">
-        <f>+[1]Séries_Site!B10</f>
+        <f ca="1">+[1]Séries_Site!B10</f>
         <v>121946</v>
       </c>
       <c r="C7" s="9">
-        <f>+[1]Séries_Site!C10</f>
+        <f ca="1">+[1]Séries_Site!C10</f>
         <v>104712</v>
       </c>
       <c r="D7" s="9">
-        <f>+[1]Séries_Site!D10</f>
+        <f ca="1">+[1]Séries_Site!D10</f>
         <v>17234</v>
       </c>
     </row>
@@ -5379,15 +5647,15 @@
         <v>30468</v>
       </c>
       <c r="B8" s="8">
-        <f>+[1]Séries_Site!B11</f>
+        <f ca="1">+[1]Séries_Site!B11</f>
         <v>122100</v>
       </c>
       <c r="C8" s="9">
-        <f>+[1]Séries_Site!C11</f>
+        <f ca="1">+[1]Séries_Site!C11</f>
         <v>104864</v>
       </c>
       <c r="D8" s="9">
-        <f>+[1]Séries_Site!D11</f>
+        <f ca="1">+[1]Séries_Site!D11</f>
         <v>17236</v>
       </c>
     </row>
@@ -5396,15 +5664,15 @@
         <v>30498</v>
       </c>
       <c r="B9" s="8">
-        <f>+[1]Séries_Site!B12</f>
+        <f ca="1">+[1]Séries_Site!B12</f>
         <v>122463</v>
       </c>
       <c r="C9" s="9">
-        <f>+[1]Séries_Site!C12</f>
+        <f ca="1">+[1]Séries_Site!C12</f>
         <v>105196</v>
       </c>
       <c r="D9" s="9">
-        <f>+[1]Séries_Site!D12</f>
+        <f ca="1">+[1]Séries_Site!D12</f>
         <v>17267</v>
       </c>
     </row>
@@ -5413,15 +5681,15 @@
         <v>30529</v>
       </c>
       <c r="B10" s="8">
-        <f>+[1]Séries_Site!B13</f>
+        <f ca="1">+[1]Séries_Site!B13</f>
         <v>120656</v>
       </c>
       <c r="C10" s="9">
-        <f>+[1]Séries_Site!C13</f>
+        <f ca="1">+[1]Séries_Site!C13</f>
         <v>103349</v>
       </c>
       <c r="D10" s="9">
-        <f>+[1]Séries_Site!D13</f>
+        <f ca="1">+[1]Séries_Site!D13</f>
         <v>17307</v>
       </c>
     </row>
@@ -5430,15 +5698,15 @@
         <v>30560</v>
       </c>
       <c r="B11" s="8">
-        <f>+[1]Séries_Site!B14</f>
+        <f ca="1">+[1]Séries_Site!B14</f>
         <v>119569</v>
       </c>
       <c r="C11" s="9">
-        <f>+[1]Séries_Site!C14</f>
+        <f ca="1">+[1]Séries_Site!C14</f>
         <v>102183</v>
       </c>
       <c r="D11" s="9">
-        <f>+[1]Séries_Site!D14</f>
+        <f ca="1">+[1]Séries_Site!D14</f>
         <v>17386</v>
       </c>
     </row>
@@ -5447,15 +5715,15 @@
         <v>30590</v>
       </c>
       <c r="B12" s="8">
-        <f>+[1]Séries_Site!B15</f>
+        <f ca="1">+[1]Séries_Site!B15</f>
         <v>119560</v>
       </c>
       <c r="C12" s="9">
-        <f>+[1]Séries_Site!C15</f>
+        <f ca="1">+[1]Séries_Site!C15</f>
         <v>101901</v>
       </c>
       <c r="D12" s="9">
-        <f>+[1]Séries_Site!D15</f>
+        <f ca="1">+[1]Séries_Site!D15</f>
         <v>17659</v>
       </c>
     </row>
@@ -5464,15 +5732,15 @@
         <v>30621</v>
       </c>
       <c r="B13" s="8">
-        <f>+[1]Séries_Site!B16</f>
+        <f ca="1">+[1]Séries_Site!B16</f>
         <v>119553</v>
       </c>
       <c r="C13" s="9">
-        <f>+[1]Séries_Site!C16</f>
+        <f ca="1">+[1]Séries_Site!C16</f>
         <v>101714</v>
       </c>
       <c r="D13" s="9">
-        <f>+[1]Séries_Site!D16</f>
+        <f ca="1">+[1]Séries_Site!D16</f>
         <v>17839</v>
       </c>
     </row>
@@ -5481,15 +5749,15 @@
         <v>30651</v>
       </c>
       <c r="B14" s="8">
-        <f>+[1]Séries_Site!B17</f>
+        <f ca="1">+[1]Séries_Site!B17</f>
         <v>119078</v>
       </c>
       <c r="C14" s="9">
-        <f>+[1]Séries_Site!C17</f>
+        <f ca="1">+[1]Séries_Site!C17</f>
         <v>101087</v>
       </c>
       <c r="D14" s="9">
-        <f>+[1]Séries_Site!D17</f>
+        <f ca="1">+[1]Séries_Site!D17</f>
         <v>17991</v>
       </c>
     </row>
@@ -5498,15 +5766,15 @@
         <v>30682</v>
       </c>
       <c r="B15" s="8">
-        <f>+[1]Séries_Site!B18</f>
+        <f ca="1">+[1]Séries_Site!B18</f>
         <v>119122</v>
       </c>
       <c r="C15" s="9">
-        <f>+[1]Séries_Site!C18</f>
+        <f ca="1">+[1]Séries_Site!C18</f>
         <v>100622</v>
       </c>
       <c r="D15" s="9">
-        <f>+[1]Séries_Site!D18</f>
+        <f ca="1">+[1]Séries_Site!D18</f>
         <v>18500</v>
       </c>
     </row>
@@ -5515,15 +5783,15 @@
         <v>30713</v>
       </c>
       <c r="B16" s="8">
-        <f>+[1]Séries_Site!B19</f>
+        <f ca="1">+[1]Séries_Site!B19</f>
         <v>119365</v>
       </c>
       <c r="C16" s="9">
-        <f>+[1]Séries_Site!C19</f>
+        <f ca="1">+[1]Séries_Site!C19</f>
         <v>100348</v>
       </c>
       <c r="D16" s="9">
-        <f>+[1]Séries_Site!D19</f>
+        <f ca="1">+[1]Séries_Site!D19</f>
         <v>19017</v>
       </c>
     </row>
@@ -5532,15 +5800,15 @@
         <v>30742</v>
       </c>
       <c r="B17" s="8">
-        <f>+[1]Séries_Site!B20</f>
+        <f ca="1">+[1]Séries_Site!B20</f>
         <v>119368</v>
       </c>
       <c r="C17" s="9">
-        <f>+[1]Séries_Site!C20</f>
+        <f ca="1">+[1]Séries_Site!C20</f>
         <v>100203</v>
       </c>
       <c r="D17" s="9">
-        <f>+[1]Séries_Site!D20</f>
+        <f ca="1">+[1]Séries_Site!D20</f>
         <v>19165</v>
       </c>
     </row>
@@ -5549,15 +5817,15 @@
         <v>30773</v>
       </c>
       <c r="B18" s="8">
-        <f>+[1]Séries_Site!B21</f>
+        <f ca="1">+[1]Séries_Site!B21</f>
         <v>119685</v>
       </c>
       <c r="C18" s="9">
-        <f>+[1]Séries_Site!C21</f>
+        <f ca="1">+[1]Séries_Site!C21</f>
         <v>99850</v>
       </c>
       <c r="D18" s="9">
-        <f>+[1]Séries_Site!D21</f>
+        <f ca="1">+[1]Séries_Site!D21</f>
         <v>19835</v>
       </c>
     </row>
@@ -5566,15 +5834,15 @@
         <v>30803</v>
       </c>
       <c r="B19" s="8">
-        <f>+[1]Séries_Site!B22</f>
+        <f ca="1">+[1]Séries_Site!B22</f>
         <v>120906</v>
       </c>
       <c r="C19" s="9">
-        <f>+[1]Séries_Site!C22</f>
+        <f ca="1">+[1]Séries_Site!C22</f>
         <v>100216</v>
       </c>
       <c r="D19" s="9">
-        <f>+[1]Séries_Site!D22</f>
+        <f ca="1">+[1]Séries_Site!D22</f>
         <v>20690</v>
       </c>
     </row>
@@ -5583,15 +5851,15 @@
         <v>30834</v>
       </c>
       <c r="B20" s="8">
-        <f>+[1]Séries_Site!B23</f>
+        <f ca="1">+[1]Séries_Site!B23</f>
         <v>121504</v>
       </c>
       <c r="C20" s="9">
-        <f>+[1]Séries_Site!C23</f>
+        <f ca="1">+[1]Séries_Site!C23</f>
         <v>100550</v>
       </c>
       <c r="D20" s="9">
-        <f>+[1]Séries_Site!D23</f>
+        <f ca="1">+[1]Séries_Site!D23</f>
         <v>20954</v>
       </c>
     </row>
@@ -5600,15 +5868,15 @@
         <v>30864</v>
       </c>
       <c r="B21" s="8">
-        <f>+[1]Séries_Site!B24</f>
+        <f ca="1">+[1]Séries_Site!B24</f>
         <v>122594</v>
       </c>
       <c r="C21" s="9">
-        <f>+[1]Séries_Site!C24</f>
+        <f ca="1">+[1]Séries_Site!C24</f>
         <v>101115</v>
       </c>
       <c r="D21" s="9">
-        <f>+[1]Séries_Site!D24</f>
+        <f ca="1">+[1]Séries_Site!D24</f>
         <v>21479</v>
       </c>
     </row>
@@ -5617,15 +5885,15 @@
         <v>30895</v>
       </c>
       <c r="B22" s="8">
-        <f>+[1]Séries_Site!B25</f>
+        <f ca="1">+[1]Séries_Site!B25</f>
         <v>124089</v>
       </c>
       <c r="C22" s="9">
-        <f>+[1]Séries_Site!C25</f>
+        <f ca="1">+[1]Séries_Site!C25</f>
         <v>102026</v>
       </c>
       <c r="D22" s="9">
-        <f>+[1]Séries_Site!D25</f>
+        <f ca="1">+[1]Séries_Site!D25</f>
         <v>22063</v>
       </c>
     </row>
@@ -5634,15 +5902,15 @@
         <v>30926</v>
       </c>
       <c r="B23" s="8">
-        <f>+[1]Séries_Site!B26</f>
+        <f ca="1">+[1]Séries_Site!B26</f>
         <v>125387</v>
       </c>
       <c r="C23" s="9">
-        <f>+[1]Séries_Site!C26</f>
+        <f ca="1">+[1]Séries_Site!C26</f>
         <v>103122</v>
       </c>
       <c r="D23" s="9">
-        <f>+[1]Séries_Site!D26</f>
+        <f ca="1">+[1]Séries_Site!D26</f>
         <v>22265</v>
       </c>
     </row>
@@ -5651,15 +5919,15 @@
         <v>30956</v>
       </c>
       <c r="B24" s="8">
-        <f>+[1]Séries_Site!B27</f>
+        <f ca="1">+[1]Séries_Site!B27</f>
         <v>127568</v>
       </c>
       <c r="C24" s="9">
-        <f>+[1]Séries_Site!C27</f>
+        <f ca="1">+[1]Séries_Site!C27</f>
         <v>105031</v>
       </c>
       <c r="D24" s="9">
-        <f>+[1]Séries_Site!D27</f>
+        <f ca="1">+[1]Séries_Site!D27</f>
         <v>22537</v>
       </c>
     </row>
@@ -5668,15 +5936,15 @@
         <v>30987</v>
       </c>
       <c r="B25" s="8">
-        <f>+[1]Séries_Site!B28</f>
+        <f ca="1">+[1]Séries_Site!B28</f>
         <v>129354</v>
       </c>
       <c r="C25" s="9">
-        <f>+[1]Séries_Site!C28</f>
+        <f ca="1">+[1]Séries_Site!C28</f>
         <v>106736</v>
       </c>
       <c r="D25" s="9">
-        <f>+[1]Séries_Site!D28</f>
+        <f ca="1">+[1]Séries_Site!D28</f>
         <v>22618</v>
       </c>
     </row>
@@ -5685,15 +5953,15 @@
         <v>31017</v>
       </c>
       <c r="B26" s="8">
-        <f>+[1]Séries_Site!B29</f>
+        <f ca="1">+[1]Séries_Site!B29</f>
         <v>130056</v>
       </c>
       <c r="C26" s="9">
-        <f>+[1]Séries_Site!C29</f>
+        <f ca="1">+[1]Séries_Site!C29</f>
         <v>107447</v>
       </c>
       <c r="D26" s="9">
-        <f>+[1]Séries_Site!D29</f>
+        <f ca="1">+[1]Séries_Site!D29</f>
         <v>22609</v>
       </c>
     </row>
@@ -5702,15 +5970,15 @@
         <v>31048</v>
       </c>
       <c r="B27" s="8">
-        <f>+[1]Séries_Site!B30</f>
+        <f ca="1">+[1]Séries_Site!B30</f>
         <v>131818</v>
       </c>
       <c r="C27" s="9">
-        <f>+[1]Séries_Site!C30</f>
+        <f ca="1">+[1]Séries_Site!C30</f>
         <v>108904</v>
       </c>
       <c r="D27" s="9">
-        <f>+[1]Séries_Site!D30</f>
+        <f ca="1">+[1]Séries_Site!D30</f>
         <v>22914</v>
       </c>
     </row>
@@ -5719,15 +5987,15 @@
         <v>31079</v>
       </c>
       <c r="B28" s="8">
-        <f>+[1]Séries_Site!B31</f>
+        <f ca="1">+[1]Séries_Site!B31</f>
         <v>133316</v>
       </c>
       <c r="C28" s="9">
-        <f>+[1]Séries_Site!C31</f>
+        <f ca="1">+[1]Séries_Site!C31</f>
         <v>110184</v>
       </c>
       <c r="D28" s="9">
-        <f>+[1]Séries_Site!D31</f>
+        <f ca="1">+[1]Séries_Site!D31</f>
         <v>23132</v>
       </c>
     </row>
@@ -5736,15 +6004,15 @@
         <v>31107</v>
       </c>
       <c r="B29" s="8">
-        <f>+[1]Séries_Site!B32</f>
+        <f ca="1">+[1]Séries_Site!B32</f>
         <v>133786</v>
       </c>
       <c r="C29" s="9">
-        <f>+[1]Séries_Site!C32</f>
+        <f ca="1">+[1]Séries_Site!C32</f>
         <v>111733</v>
       </c>
       <c r="D29" s="9">
-        <f>+[1]Séries_Site!D32</f>
+        <f ca="1">+[1]Séries_Site!D32</f>
         <v>22053</v>
       </c>
     </row>
@@ -5753,15 +6021,15 @@
         <v>31138</v>
       </c>
       <c r="B30" s="8">
-        <f>+[1]Séries_Site!B33</f>
+        <f ca="1">+[1]Séries_Site!B33</f>
         <v>133585</v>
       </c>
       <c r="C30" s="9">
-        <f>+[1]Séries_Site!C33</f>
+        <f ca="1">+[1]Séries_Site!C33</f>
         <v>111325</v>
       </c>
       <c r="D30" s="9">
-        <f>+[1]Séries_Site!D33</f>
+        <f ca="1">+[1]Séries_Site!D33</f>
         <v>22260</v>
       </c>
     </row>
@@ -5770,15 +6038,15 @@
         <v>31168</v>
       </c>
       <c r="B31" s="8">
-        <f>+[1]Séries_Site!B34</f>
+        <f ca="1">+[1]Séries_Site!B34</f>
         <v>132029</v>
       </c>
       <c r="C31" s="9">
-        <f>+[1]Séries_Site!C34</f>
+        <f ca="1">+[1]Séries_Site!C34</f>
         <v>110091</v>
       </c>
       <c r="D31" s="9">
-        <f>+[1]Séries_Site!D34</f>
+        <f ca="1">+[1]Séries_Site!D34</f>
         <v>21938</v>
       </c>
     </row>
@@ -5787,15 +6055,15 @@
         <v>31199</v>
       </c>
       <c r="B32" s="8">
-        <f>+[1]Séries_Site!B35</f>
+        <f ca="1">+[1]Séries_Site!B35</f>
         <v>134050</v>
       </c>
       <c r="C32" s="9">
-        <f>+[1]Séries_Site!C35</f>
+        <f ca="1">+[1]Séries_Site!C35</f>
         <v>112190</v>
       </c>
       <c r="D32" s="9">
-        <f>+[1]Séries_Site!D35</f>
+        <f ca="1">+[1]Séries_Site!D35</f>
         <v>21860</v>
       </c>
     </row>
@@ -5804,15 +6072,15 @@
         <v>31229</v>
       </c>
       <c r="B33" s="8">
-        <f>+[1]Séries_Site!B36</f>
+        <f ca="1">+[1]Séries_Site!B36</f>
         <v>136304</v>
       </c>
       <c r="C33" s="9">
-        <f>+[1]Séries_Site!C36</f>
+        <f ca="1">+[1]Séries_Site!C36</f>
         <v>114349</v>
       </c>
       <c r="D33" s="9">
-        <f>+[1]Séries_Site!D36</f>
+        <f ca="1">+[1]Séries_Site!D36</f>
         <v>21955</v>
       </c>
     </row>
@@ -5821,15 +6089,15 @@
         <v>31260</v>
       </c>
       <c r="B34" s="8">
-        <f>+[1]Séries_Site!B37</f>
+        <f ca="1">+[1]Séries_Site!B37</f>
         <v>139651</v>
       </c>
       <c r="C34" s="9">
-        <f>+[1]Séries_Site!C37</f>
+        <f ca="1">+[1]Séries_Site!C37</f>
         <v>117169</v>
       </c>
       <c r="D34" s="9">
-        <f>+[1]Séries_Site!D37</f>
+        <f ca="1">+[1]Séries_Site!D37</f>
         <v>22482</v>
       </c>
     </row>
@@ -5838,15 +6106,15 @@
         <v>31291</v>
       </c>
       <c r="B35" s="8">
-        <f>+[1]Séries_Site!B38</f>
+        <f ca="1">+[1]Séries_Site!B38</f>
         <v>142301</v>
       </c>
       <c r="C35" s="9">
-        <f>+[1]Séries_Site!C38</f>
+        <f ca="1">+[1]Séries_Site!C38</f>
         <v>119356</v>
       </c>
       <c r="D35" s="9">
-        <f>+[1]Séries_Site!D38</f>
+        <f ca="1">+[1]Séries_Site!D38</f>
         <v>22945</v>
       </c>
     </row>
@@ -5855,15 +6123,15 @@
         <v>31321</v>
       </c>
       <c r="B36" s="8">
-        <f>+[1]Séries_Site!B39</f>
+        <f ca="1">+[1]Séries_Site!B39</f>
         <v>144446</v>
       </c>
       <c r="C36" s="9">
-        <f>+[1]Séries_Site!C39</f>
+        <f ca="1">+[1]Séries_Site!C39</f>
         <v>121313</v>
       </c>
       <c r="D36" s="9">
-        <f>+[1]Séries_Site!D39</f>
+        <f ca="1">+[1]Séries_Site!D39</f>
         <v>23133</v>
       </c>
     </row>
@@ -5872,15 +6140,15 @@
         <v>31352</v>
       </c>
       <c r="B37" s="8">
-        <f>+[1]Séries_Site!B40</f>
+        <f ca="1">+[1]Séries_Site!B40</f>
         <v>145469</v>
       </c>
       <c r="C37" s="9">
-        <f>+[1]Séries_Site!C40</f>
+        <f ca="1">+[1]Séries_Site!C40</f>
         <v>122162</v>
       </c>
       <c r="D37" s="9">
-        <f>+[1]Séries_Site!D40</f>
+        <f ca="1">+[1]Séries_Site!D40</f>
         <v>23307</v>
       </c>
     </row>
@@ -5889,15 +6157,15 @@
         <v>31382</v>
       </c>
       <c r="B38" s="8">
-        <f>+[1]Séries_Site!B41</f>
+        <f ca="1">+[1]Séries_Site!B41</f>
         <v>145765</v>
       </c>
       <c r="C38" s="9">
-        <f>+[1]Séries_Site!C41</f>
+        <f ca="1">+[1]Séries_Site!C41</f>
         <v>122217</v>
       </c>
       <c r="D38" s="9">
-        <f>+[1]Séries_Site!D41</f>
+        <f ca="1">+[1]Séries_Site!D41</f>
         <v>23548</v>
       </c>
     </row>
@@ -5906,15 +6174,15 @@
         <v>31413</v>
       </c>
       <c r="B39" s="8">
-        <f>+[1]Séries_Site!B42</f>
+        <f ca="1">+[1]Séries_Site!B42</f>
         <v>147159</v>
       </c>
       <c r="C39" s="9">
-        <f>+[1]Séries_Site!C42</f>
+        <f ca="1">+[1]Séries_Site!C42</f>
         <v>123364</v>
       </c>
       <c r="D39" s="9">
-        <f>+[1]Séries_Site!D42</f>
+        <f ca="1">+[1]Séries_Site!D42</f>
         <v>23795</v>
       </c>
     </row>
@@ -5923,15 +6191,15 @@
         <v>31444</v>
       </c>
       <c r="B40" s="8">
-        <f>+[1]Séries_Site!B43</f>
+        <f ca="1">+[1]Séries_Site!B43</f>
         <v>148769</v>
       </c>
       <c r="C40" s="9">
-        <f>+[1]Séries_Site!C43</f>
+        <f ca="1">+[1]Séries_Site!C43</f>
         <v>124561</v>
       </c>
       <c r="D40" s="9">
-        <f>+[1]Séries_Site!D43</f>
+        <f ca="1">+[1]Séries_Site!D43</f>
         <v>24208</v>
       </c>
     </row>
@@ -5940,15 +6208,15 @@
         <v>31472</v>
       </c>
       <c r="B41" s="8">
-        <f>+[1]Séries_Site!B44</f>
+        <f ca="1">+[1]Séries_Site!B44</f>
         <v>149436</v>
       </c>
       <c r="C41" s="9">
-        <f>+[1]Séries_Site!C44</f>
+        <f ca="1">+[1]Séries_Site!C44</f>
         <v>124722</v>
       </c>
       <c r="D41" s="9">
-        <f>+[1]Séries_Site!D44</f>
+        <f ca="1">+[1]Séries_Site!D44</f>
         <v>24714</v>
       </c>
     </row>
@@ -5957,15 +6225,15 @@
         <v>31503</v>
       </c>
       <c r="B42" s="8">
-        <f>+[1]Séries_Site!B45</f>
+        <f ca="1">+[1]Séries_Site!B45</f>
         <v>150729</v>
       </c>
       <c r="C42" s="9">
-        <f>+[1]Séries_Site!C45</f>
+        <f ca="1">+[1]Séries_Site!C45</f>
         <v>125451</v>
       </c>
       <c r="D42" s="9">
-        <f>+[1]Séries_Site!D45</f>
+        <f ca="1">+[1]Séries_Site!D45</f>
         <v>25278</v>
       </c>
     </row>
@@ -5974,15 +6242,15 @@
         <v>31533</v>
       </c>
       <c r="B43" s="8">
-        <f>+[1]Séries_Site!B46</f>
+        <f ca="1">+[1]Séries_Site!B46</f>
         <v>152095</v>
       </c>
       <c r="C43" s="9">
-        <f>+[1]Séries_Site!C46</f>
+        <f ca="1">+[1]Séries_Site!C46</f>
         <v>126135</v>
       </c>
       <c r="D43" s="9">
-        <f>+[1]Séries_Site!D46</f>
+        <f ca="1">+[1]Séries_Site!D46</f>
         <v>25960</v>
       </c>
     </row>
@@ -5991,15 +6259,15 @@
         <v>31564</v>
       </c>
       <c r="B44" s="8">
-        <f>+[1]Séries_Site!B47</f>
+        <f ca="1">+[1]Séries_Site!B47</f>
         <v>153307</v>
       </c>
       <c r="C44" s="9">
-        <f>+[1]Séries_Site!C47</f>
+        <f ca="1">+[1]Séries_Site!C47</f>
         <v>126676</v>
       </c>
       <c r="D44" s="9">
-        <f>+[1]Séries_Site!D47</f>
+        <f ca="1">+[1]Séries_Site!D47</f>
         <v>26631</v>
       </c>
     </row>
@@ -6008,15 +6276,15 @@
         <v>31594</v>
       </c>
       <c r="B45" s="8">
-        <f>+[1]Séries_Site!B48</f>
+        <f ca="1">+[1]Séries_Site!B48</f>
         <v>154560</v>
       </c>
       <c r="C45" s="9">
-        <f>+[1]Séries_Site!C48</f>
+        <f ca="1">+[1]Séries_Site!C48</f>
         <v>127230</v>
       </c>
       <c r="D45" s="9">
-        <f>+[1]Séries_Site!D48</f>
+        <f ca="1">+[1]Séries_Site!D48</f>
         <v>27330</v>
       </c>
     </row>
@@ -6025,15 +6293,15 @@
         <v>31625</v>
       </c>
       <c r="B46" s="8">
-        <f>+[1]Séries_Site!B49</f>
+        <f ca="1">+[1]Séries_Site!B49</f>
         <v>156128</v>
       </c>
       <c r="C46" s="9">
-        <f>+[1]Séries_Site!C49</f>
+        <f ca="1">+[1]Séries_Site!C49</f>
         <v>127990</v>
       </c>
       <c r="D46" s="9">
-        <f>+[1]Séries_Site!D49</f>
+        <f ca="1">+[1]Séries_Site!D49</f>
         <v>28138</v>
       </c>
     </row>
@@ -6042,15 +6310,15 @@
         <v>31656</v>
       </c>
       <c r="B47" s="8">
-        <f>+[1]Séries_Site!B50</f>
+        <f ca="1">+[1]Séries_Site!B50</f>
         <v>157332</v>
       </c>
       <c r="C47" s="9">
-        <f>+[1]Séries_Site!C50</f>
+        <f ca="1">+[1]Séries_Site!C50</f>
         <v>129816</v>
       </c>
       <c r="D47" s="9">
-        <f>+[1]Séries_Site!D50</f>
+        <f ca="1">+[1]Séries_Site!D50</f>
         <v>27516</v>
       </c>
     </row>
@@ -6059,15 +6327,15 @@
         <v>31686</v>
       </c>
       <c r="B48" s="8">
-        <f>+[1]Séries_Site!B51</f>
+        <f ca="1">+[1]Séries_Site!B51</f>
         <v>157946</v>
       </c>
       <c r="C48" s="9">
-        <f>+[1]Séries_Site!C51</f>
+        <f ca="1">+[1]Séries_Site!C51</f>
         <v>130132</v>
       </c>
       <c r="D48" s="9">
-        <f>+[1]Séries_Site!D51</f>
+        <f ca="1">+[1]Séries_Site!D51</f>
         <v>27814</v>
       </c>
     </row>
@@ -6076,15 +6344,15 @@
         <v>31717</v>
       </c>
       <c r="B49" s="8">
-        <f>+[1]Séries_Site!B52</f>
+        <f ca="1">+[1]Séries_Site!B52</f>
         <v>158562</v>
       </c>
       <c r="C49" s="9">
-        <f>+[1]Séries_Site!C52</f>
+        <f ca="1">+[1]Séries_Site!C52</f>
         <v>130291</v>
       </c>
       <c r="D49" s="9">
-        <f>+[1]Séries_Site!D52</f>
+        <f ca="1">+[1]Séries_Site!D52</f>
         <v>28271</v>
       </c>
     </row>
@@ -6093,15 +6361,15 @@
         <v>31747</v>
       </c>
       <c r="B50" s="8">
-        <f>+[1]Séries_Site!B53</f>
+        <f ca="1">+[1]Séries_Site!B53</f>
         <v>157668</v>
       </c>
       <c r="C50" s="9">
-        <f>+[1]Séries_Site!C53</f>
+        <f ca="1">+[1]Séries_Site!C53</f>
         <v>129232</v>
       </c>
       <c r="D50" s="9">
-        <f>+[1]Séries_Site!D53</f>
+        <f ca="1">+[1]Séries_Site!D53</f>
         <v>28436</v>
       </c>
     </row>
@@ -6110,15 +6378,15 @@
         <v>31778</v>
       </c>
       <c r="B51" s="8">
-        <f>+[1]Séries_Site!B54</f>
+        <f ca="1">+[1]Séries_Site!B54</f>
         <v>156732</v>
       </c>
       <c r="C51" s="9">
-        <f>+[1]Séries_Site!C54</f>
+        <f ca="1">+[1]Séries_Site!C54</f>
         <v>128188</v>
       </c>
       <c r="D51" s="9">
-        <f>+[1]Séries_Site!D54</f>
+        <f ca="1">+[1]Séries_Site!D54</f>
         <v>28544</v>
       </c>
     </row>
@@ -6127,15 +6395,15 @@
         <v>31809</v>
       </c>
       <c r="B52" s="8">
-        <f>+[1]Séries_Site!B55</f>
+        <f ca="1">+[1]Séries_Site!B55</f>
         <v>157217</v>
       </c>
       <c r="C52" s="9">
-        <f>+[1]Séries_Site!C55</f>
+        <f ca="1">+[1]Séries_Site!C55</f>
         <v>128583</v>
       </c>
       <c r="D52" s="9">
-        <f>+[1]Séries_Site!D55</f>
+        <f ca="1">+[1]Séries_Site!D55</f>
         <v>28634</v>
       </c>
     </row>
@@ -6144,15 +6412,15 @@
         <v>31837</v>
       </c>
       <c r="B53" s="8">
-        <f>+[1]Séries_Site!B56</f>
+        <f ca="1">+[1]Séries_Site!B56</f>
         <v>156544</v>
       </c>
       <c r="C53" s="9">
-        <f>+[1]Séries_Site!C56</f>
+        <f ca="1">+[1]Séries_Site!C56</f>
         <v>126626</v>
       </c>
       <c r="D53" s="9">
-        <f>+[1]Séries_Site!D56</f>
+        <f ca="1">+[1]Séries_Site!D56</f>
         <v>29918</v>
       </c>
     </row>
@@ -6161,15 +6429,15 @@
         <v>31868</v>
       </c>
       <c r="B54" s="8">
-        <f>+[1]Séries_Site!B57</f>
+        <f ca="1">+[1]Séries_Site!B57</f>
         <v>155371</v>
       </c>
       <c r="C54" s="9">
-        <f>+[1]Séries_Site!C57</f>
+        <f ca="1">+[1]Séries_Site!C57</f>
         <v>125603</v>
       </c>
       <c r="D54" s="9">
-        <f>+[1]Séries_Site!D57</f>
+        <f ca="1">+[1]Séries_Site!D57</f>
         <v>29768</v>
       </c>
     </row>
@@ -6178,15 +6446,15 @@
         <v>31898</v>
       </c>
       <c r="B55" s="8">
-        <f>+[1]Séries_Site!B58</f>
+        <f ca="1">+[1]Séries_Site!B58</f>
         <v>154290</v>
       </c>
       <c r="C55" s="9">
-        <f>+[1]Séries_Site!C58</f>
+        <f ca="1">+[1]Séries_Site!C58</f>
         <v>124564</v>
       </c>
       <c r="D55" s="9">
-        <f>+[1]Séries_Site!D58</f>
+        <f ca="1">+[1]Séries_Site!D58</f>
         <v>29726</v>
       </c>
     </row>
@@ -6195,15 +6463,15 @@
         <v>31929</v>
       </c>
       <c r="B56" s="8">
-        <f>+[1]Séries_Site!B59</f>
+        <f ca="1">+[1]Séries_Site!B59</f>
         <v>147563</v>
       </c>
       <c r="C56" s="9">
-        <f>+[1]Séries_Site!C59</f>
+        <f ca="1">+[1]Séries_Site!C59</f>
         <v>118731</v>
       </c>
       <c r="D56" s="9">
-        <f>+[1]Séries_Site!D59</f>
+        <f ca="1">+[1]Séries_Site!D59</f>
         <v>28832</v>
       </c>
     </row>
@@ -6212,15 +6480,15 @@
         <v>31959</v>
       </c>
       <c r="B57" s="8">
-        <f>+[1]Séries_Site!B60</f>
+        <f ca="1">+[1]Séries_Site!B60</f>
         <v>145558</v>
       </c>
       <c r="C57" s="9">
-        <f>+[1]Séries_Site!C60</f>
+        <f ca="1">+[1]Séries_Site!C60</f>
         <v>117222</v>
       </c>
       <c r="D57" s="9">
-        <f>+[1]Séries_Site!D60</f>
+        <f ca="1">+[1]Séries_Site!D60</f>
         <v>28336</v>
       </c>
     </row>
@@ -6229,15 +6497,15 @@
         <v>31990</v>
       </c>
       <c r="B58" s="8">
-        <f>+[1]Séries_Site!B61</f>
+        <f ca="1">+[1]Séries_Site!B61</f>
         <v>143762</v>
       </c>
       <c r="C58" s="9">
-        <f>+[1]Séries_Site!C61</f>
+        <f ca="1">+[1]Séries_Site!C61</f>
         <v>115897</v>
       </c>
       <c r="D58" s="9">
-        <f>+[1]Séries_Site!D61</f>
+        <f ca="1">+[1]Séries_Site!D61</f>
         <v>27865</v>
       </c>
     </row>
@@ -6246,15 +6514,15 @@
         <v>32021</v>
       </c>
       <c r="B59" s="8">
-        <f>+[1]Séries_Site!B62</f>
+        <f ca="1">+[1]Séries_Site!B62</f>
         <v>143620</v>
       </c>
       <c r="C59" s="9">
-        <f>+[1]Séries_Site!C62</f>
+        <f ca="1">+[1]Séries_Site!C62</f>
         <v>115553</v>
       </c>
       <c r="D59" s="9">
-        <f>+[1]Séries_Site!D62</f>
+        <f ca="1">+[1]Séries_Site!D62</f>
         <v>28067</v>
       </c>
     </row>
@@ -6263,15 +6531,15 @@
         <v>32051</v>
       </c>
       <c r="B60" s="8">
-        <f>+[1]Séries_Site!B63</f>
+        <f ca="1">+[1]Séries_Site!B63</f>
         <v>141534</v>
       </c>
       <c r="C60" s="9">
-        <f>+[1]Séries_Site!C63</f>
+        <f ca="1">+[1]Séries_Site!C63</f>
         <v>113576</v>
       </c>
       <c r="D60" s="9">
-        <f>+[1]Séries_Site!D63</f>
+        <f ca="1">+[1]Séries_Site!D63</f>
         <v>27958</v>
       </c>
     </row>
@@ -6280,15 +6548,15 @@
         <v>32082</v>
       </c>
       <c r="B61" s="8">
-        <f>+[1]Séries_Site!B64</f>
+        <f ca="1">+[1]Séries_Site!B64</f>
         <v>141492</v>
       </c>
       <c r="C61" s="9">
-        <f>+[1]Séries_Site!C64</f>
+        <f ca="1">+[1]Séries_Site!C64</f>
         <v>113537</v>
       </c>
       <c r="D61" s="9">
-        <f>+[1]Séries_Site!D64</f>
+        <f ca="1">+[1]Séries_Site!D64</f>
         <v>27955</v>
       </c>
     </row>
@@ -6297,15 +6565,15 @@
         <v>32112</v>
       </c>
       <c r="B62" s="8">
-        <f>+[1]Séries_Site!B65</f>
+        <f ca="1">+[1]Séries_Site!B65</f>
         <v>141408</v>
       </c>
       <c r="C62" s="9">
-        <f>+[1]Séries_Site!C65</f>
+        <f ca="1">+[1]Séries_Site!C65</f>
         <v>113474</v>
       </c>
       <c r="D62" s="9">
-        <f>+[1]Séries_Site!D65</f>
+        <f ca="1">+[1]Séries_Site!D65</f>
         <v>27934</v>
       </c>
     </row>
@@ -6314,15 +6582,15 @@
         <v>32143</v>
       </c>
       <c r="B63" s="8">
-        <f>+[1]Séries_Site!B66</f>
+        <f ca="1">+[1]Séries_Site!B66</f>
         <v>141291</v>
       </c>
       <c r="C63" s="9">
-        <f>+[1]Séries_Site!C66</f>
+        <f ca="1">+[1]Séries_Site!C66</f>
         <v>113279</v>
       </c>
       <c r="D63" s="9">
-        <f>+[1]Séries_Site!D66</f>
+        <f ca="1">+[1]Séries_Site!D66</f>
         <v>28012</v>
       </c>
     </row>
@@ -6331,15 +6599,15 @@
         <v>32174</v>
       </c>
       <c r="B64" s="8">
-        <f>+[1]Séries_Site!B67</f>
+        <f ca="1">+[1]Séries_Site!B67</f>
         <v>141239</v>
       </c>
       <c r="C64" s="9">
-        <f>+[1]Séries_Site!C67</f>
+        <f ca="1">+[1]Séries_Site!C67</f>
         <v>113642</v>
       </c>
       <c r="D64" s="9">
-        <f>+[1]Séries_Site!D67</f>
+        <f ca="1">+[1]Séries_Site!D67</f>
         <v>27597</v>
       </c>
     </row>
@@ -6348,15 +6616,15 @@
         <v>32203</v>
       </c>
       <c r="B65" s="8">
-        <f>+[1]Séries_Site!B68</f>
+        <f ca="1">+[1]Séries_Site!B68</f>
         <v>141261</v>
       </c>
       <c r="C65" s="9">
-        <f>+[1]Séries_Site!C68</f>
+        <f ca="1">+[1]Séries_Site!C68</f>
         <v>113935</v>
       </c>
       <c r="D65" s="9">
-        <f>+[1]Séries_Site!D68</f>
+        <f ca="1">+[1]Séries_Site!D68</f>
         <v>27326</v>
       </c>
     </row>
@@ -6365,15 +6633,15 @@
         <v>32234</v>
       </c>
       <c r="B66" s="8">
-        <f>+[1]Séries_Site!B69</f>
+        <f ca="1">+[1]Séries_Site!B69</f>
         <v>140815</v>
       </c>
       <c r="C66" s="9">
-        <f>+[1]Séries_Site!C69</f>
+        <f ca="1">+[1]Séries_Site!C69</f>
         <v>113848</v>
       </c>
       <c r="D66" s="9">
-        <f>+[1]Séries_Site!D69</f>
+        <f ca="1">+[1]Séries_Site!D69</f>
         <v>26967</v>
       </c>
     </row>
@@ -6382,15 +6650,15 @@
         <v>32264</v>
       </c>
       <c r="B67" s="8">
-        <f>+[1]Séries_Site!B70</f>
+        <f ca="1">+[1]Séries_Site!B70</f>
         <v>140885</v>
       </c>
       <c r="C67" s="9">
-        <f>+[1]Séries_Site!C70</f>
+        <f ca="1">+[1]Séries_Site!C70</f>
         <v>113992</v>
       </c>
       <c r="D67" s="9">
-        <f>+[1]Séries_Site!D70</f>
+        <f ca="1">+[1]Séries_Site!D70</f>
         <v>26893</v>
       </c>
     </row>
@@ -6399,15 +6667,15 @@
         <v>32295</v>
       </c>
       <c r="B68" s="8">
-        <f>+[1]Séries_Site!B71</f>
+        <f ca="1">+[1]Séries_Site!B71</f>
         <v>141559</v>
       </c>
       <c r="C68" s="9">
-        <f>+[1]Séries_Site!C71</f>
+        <f ca="1">+[1]Séries_Site!C71</f>
         <v>114787</v>
       </c>
       <c r="D68" s="9">
-        <f>+[1]Séries_Site!D71</f>
+        <f ca="1">+[1]Séries_Site!D71</f>
         <v>26772</v>
       </c>
     </row>
@@ -6416,15 +6684,15 @@
         <v>32325</v>
       </c>
       <c r="B69" s="8">
-        <f>+[1]Séries_Site!B72</f>
+        <f ca="1">+[1]Séries_Site!B72</f>
         <v>141406</v>
       </c>
       <c r="C69" s="9">
-        <f>+[1]Séries_Site!C72</f>
+        <f ca="1">+[1]Séries_Site!C72</f>
         <v>115178</v>
       </c>
       <c r="D69" s="9">
-        <f>+[1]Séries_Site!D72</f>
+        <f ca="1">+[1]Séries_Site!D72</f>
         <v>26228</v>
       </c>
     </row>
@@ -6433,15 +6701,15 @@
         <v>32356</v>
       </c>
       <c r="B70" s="8">
-        <f>+[1]Séries_Site!B73</f>
+        <f ca="1">+[1]Séries_Site!B73</f>
         <v>140850</v>
       </c>
       <c r="C70" s="9">
-        <f>+[1]Séries_Site!C73</f>
+        <f ca="1">+[1]Séries_Site!C73</f>
         <v>114670</v>
       </c>
       <c r="D70" s="9">
-        <f>+[1]Séries_Site!D73</f>
+        <f ca="1">+[1]Séries_Site!D73</f>
         <v>26180</v>
       </c>
     </row>
@@ -6450,15 +6718,15 @@
         <v>32387</v>
       </c>
       <c r="B71" s="8">
-        <f>+[1]Séries_Site!B74</f>
+        <f ca="1">+[1]Séries_Site!B74</f>
         <v>140242</v>
       </c>
       <c r="C71" s="9">
-        <f>+[1]Séries_Site!C74</f>
+        <f ca="1">+[1]Séries_Site!C74</f>
         <v>114167</v>
       </c>
       <c r="D71" s="9">
-        <f>+[1]Séries_Site!D74</f>
+        <f ca="1">+[1]Séries_Site!D74</f>
         <v>26075</v>
       </c>
     </row>
@@ -6467,15 +6735,15 @@
         <v>32417</v>
       </c>
       <c r="B72" s="8">
-        <f>+[1]Séries_Site!B75</f>
+        <f ca="1">+[1]Séries_Site!B75</f>
         <v>139928</v>
       </c>
       <c r="C72" s="9">
-        <f>+[1]Séries_Site!C75</f>
+        <f ca="1">+[1]Séries_Site!C75</f>
         <v>113904</v>
       </c>
       <c r="D72" s="9">
-        <f>+[1]Séries_Site!D75</f>
+        <f ca="1">+[1]Séries_Site!D75</f>
         <v>26024</v>
       </c>
     </row>
@@ -6484,15 +6752,15 @@
         <v>32448</v>
       </c>
       <c r="B73" s="8">
-        <f>+[1]Séries_Site!B76</f>
+        <f ca="1">+[1]Séries_Site!B76</f>
         <v>139331</v>
       </c>
       <c r="C73" s="9">
-        <f>+[1]Séries_Site!C76</f>
+        <f ca="1">+[1]Séries_Site!C76</f>
         <v>113539</v>
       </c>
       <c r="D73" s="9">
-        <f>+[1]Séries_Site!D76</f>
+        <f ca="1">+[1]Séries_Site!D76</f>
         <v>25792</v>
       </c>
     </row>
@@ -6501,15 +6769,15 @@
         <v>32478</v>
       </c>
       <c r="B74" s="8">
-        <f>+[1]Séries_Site!B77</f>
+        <f ca="1">+[1]Séries_Site!B77</f>
         <v>138646</v>
       </c>
       <c r="C74" s="9">
-        <f>+[1]Séries_Site!C77</f>
+        <f ca="1">+[1]Séries_Site!C77</f>
         <v>112985</v>
       </c>
       <c r="D74" s="9">
-        <f>+[1]Séries_Site!D77</f>
+        <f ca="1">+[1]Séries_Site!D77</f>
         <v>25661</v>
       </c>
     </row>
@@ -6518,15 +6786,15 @@
         <v>32509</v>
       </c>
       <c r="B75" s="8">
-        <f>+[1]Séries_Site!B78</f>
+        <f ca="1">+[1]Séries_Site!B78</f>
         <v>138598</v>
       </c>
       <c r="C75" s="9">
-        <f>+[1]Séries_Site!C78</f>
+        <f ca="1">+[1]Séries_Site!C78</f>
         <v>113360</v>
       </c>
       <c r="D75" s="9">
-        <f>+[1]Séries_Site!D78</f>
+        <f ca="1">+[1]Séries_Site!D78</f>
         <v>25238</v>
       </c>
     </row>
@@ -6535,15 +6803,15 @@
         <v>32540</v>
       </c>
       <c r="B76" s="8">
-        <f>+[1]Séries_Site!B79</f>
+        <f ca="1">+[1]Séries_Site!B79</f>
         <v>138054</v>
       </c>
       <c r="C76" s="9">
-        <f>+[1]Séries_Site!C79</f>
+        <f ca="1">+[1]Séries_Site!C79</f>
         <v>113064</v>
       </c>
       <c r="D76" s="9">
-        <f>+[1]Séries_Site!D79</f>
+        <f ca="1">+[1]Séries_Site!D79</f>
         <v>24990</v>
       </c>
     </row>
@@ -6552,15 +6820,15 @@
         <v>32568</v>
       </c>
       <c r="B77" s="8">
-        <f>+[1]Séries_Site!B80</f>
+        <f ca="1">+[1]Séries_Site!B80</f>
         <v>137840</v>
       </c>
       <c r="C77" s="9">
-        <f>+[1]Séries_Site!C80</f>
+        <f ca="1">+[1]Séries_Site!C80</f>
         <v>113055</v>
       </c>
       <c r="D77" s="9">
-        <f>+[1]Séries_Site!D80</f>
+        <f ca="1">+[1]Séries_Site!D80</f>
         <v>24785</v>
       </c>
     </row>
@@ -6569,15 +6837,15 @@
         <v>32599</v>
       </c>
       <c r="B78" s="8">
-        <f>+[1]Séries_Site!B81</f>
+        <f ca="1">+[1]Séries_Site!B81</f>
         <v>137589</v>
       </c>
       <c r="C78" s="9">
-        <f>+[1]Séries_Site!C81</f>
+        <f ca="1">+[1]Séries_Site!C81</f>
         <v>113429</v>
       </c>
       <c r="D78" s="9">
-        <f>+[1]Séries_Site!D81</f>
+        <f ca="1">+[1]Séries_Site!D81</f>
         <v>24160</v>
       </c>
     </row>
@@ -6586,15 +6854,15 @@
         <v>32629</v>
       </c>
       <c r="B79" s="8">
-        <f>+[1]Séries_Site!B82</f>
+        <f ca="1">+[1]Séries_Site!B82</f>
         <v>137872</v>
       </c>
       <c r="C79" s="9">
-        <f>+[1]Séries_Site!C82</f>
+        <f ca="1">+[1]Séries_Site!C82</f>
         <v>113514</v>
       </c>
       <c r="D79" s="9">
-        <f>+[1]Séries_Site!D82</f>
+        <f ca="1">+[1]Séries_Site!D82</f>
         <v>24358</v>
       </c>
     </row>
@@ -6603,15 +6871,15 @@
         <v>32660</v>
       </c>
       <c r="B80" s="8">
-        <f>+[1]Séries_Site!B83</f>
+        <f ca="1">+[1]Séries_Site!B83</f>
         <v>138611</v>
       </c>
       <c r="C80" s="9">
-        <f>+[1]Séries_Site!C83</f>
+        <f ca="1">+[1]Séries_Site!C83</f>
         <v>113733</v>
       </c>
       <c r="D80" s="9">
-        <f>+[1]Séries_Site!D83</f>
+        <f ca="1">+[1]Séries_Site!D83</f>
         <v>24878</v>
       </c>
     </row>
@@ -6620,15 +6888,15 @@
         <v>32690</v>
       </c>
       <c r="B81" s="8">
-        <f>+[1]Séries_Site!B84</f>
+        <f ca="1">+[1]Séries_Site!B84</f>
         <v>139789</v>
       </c>
       <c r="C81" s="9">
-        <f>+[1]Séries_Site!C84</f>
+        <f ca="1">+[1]Séries_Site!C84</f>
         <v>114521</v>
       </c>
       <c r="D81" s="9">
-        <f>+[1]Séries_Site!D84</f>
+        <f ca="1">+[1]Séries_Site!D84</f>
         <v>25268</v>
       </c>
     </row>
@@ -6637,15 +6905,15 @@
         <v>32721</v>
       </c>
       <c r="B82" s="8">
-        <f>+[1]Séries_Site!B85</f>
+        <f ca="1">+[1]Séries_Site!B85</f>
         <v>140846</v>
       </c>
       <c r="C82" s="9">
-        <f>+[1]Séries_Site!C85</f>
+        <f ca="1">+[1]Séries_Site!C85</f>
         <v>115410</v>
       </c>
       <c r="D82" s="9">
-        <f>+[1]Séries_Site!D85</f>
+        <f ca="1">+[1]Séries_Site!D85</f>
         <v>25436</v>
       </c>
     </row>
@@ -6654,15 +6922,15 @@
         <v>32752</v>
       </c>
       <c r="B83" s="8">
-        <f>+[1]Séries_Site!B86</f>
+        <f ca="1">+[1]Séries_Site!B86</f>
         <v>141992</v>
       </c>
       <c r="C83" s="9">
-        <f>+[1]Séries_Site!C86</f>
+        <f ca="1">+[1]Séries_Site!C86</f>
         <v>115819</v>
       </c>
       <c r="D83" s="9">
-        <f>+[1]Séries_Site!D86</f>
+        <f ca="1">+[1]Séries_Site!D86</f>
         <v>26173</v>
       </c>
     </row>
@@ -6671,15 +6939,15 @@
         <v>32782</v>
       </c>
       <c r="B84" s="8">
-        <f>+[1]Séries_Site!B87</f>
+        <f ca="1">+[1]Séries_Site!B87</f>
         <v>142732</v>
       </c>
       <c r="C84" s="9">
-        <f>+[1]Séries_Site!C87</f>
+        <f ca="1">+[1]Séries_Site!C87</f>
         <v>117180</v>
       </c>
       <c r="D84" s="9">
-        <f>+[1]Séries_Site!D87</f>
+        <f ca="1">+[1]Séries_Site!D87</f>
         <v>25552</v>
       </c>
     </row>
@@ -6688,15 +6956,15 @@
         <v>32813</v>
       </c>
       <c r="B85" s="8">
-        <f>+[1]Séries_Site!B88</f>
+        <f ca="1">+[1]Séries_Site!B88</f>
         <v>144396</v>
       </c>
       <c r="C85" s="9">
-        <f>+[1]Séries_Site!C88</f>
+        <f ca="1">+[1]Séries_Site!C88</f>
         <v>118036</v>
       </c>
       <c r="D85" s="9">
-        <f>+[1]Séries_Site!D88</f>
+        <f ca="1">+[1]Séries_Site!D88</f>
         <v>26360</v>
       </c>
     </row>
@@ -6705,15 +6973,15 @@
         <v>32843</v>
       </c>
       <c r="B86" s="8">
-        <f>+[1]Séries_Site!B89</f>
+        <f ca="1">+[1]Séries_Site!B89</f>
         <v>143611</v>
       </c>
       <c r="C86" s="9">
-        <f>+[1]Séries_Site!C89</f>
+        <f ca="1">+[1]Séries_Site!C89</f>
         <v>118369</v>
       </c>
       <c r="D86" s="9">
-        <f>+[1]Séries_Site!D89</f>
+        <f ca="1">+[1]Séries_Site!D89</f>
         <v>25242</v>
       </c>
     </row>
@@ -6722,15 +6990,15 @@
         <v>32874</v>
       </c>
       <c r="B87" s="8">
-        <f>+[1]Séries_Site!B90</f>
+        <f ca="1">+[1]Séries_Site!B90</f>
         <v>143203</v>
       </c>
       <c r="C87" s="9">
-        <f>+[1]Séries_Site!C90</f>
+        <f ca="1">+[1]Séries_Site!C90</f>
         <v>118647</v>
       </c>
       <c r="D87" s="9">
-        <f>+[1]Séries_Site!D90</f>
+        <f ca="1">+[1]Séries_Site!D90</f>
         <v>24556</v>
       </c>
     </row>
@@ -6739,15 +7007,15 @@
         <v>32905</v>
       </c>
       <c r="B88" s="8">
-        <f>+[1]Séries_Site!B91</f>
+        <f ca="1">+[1]Séries_Site!B91</f>
         <v>143792</v>
       </c>
       <c r="C88" s="9">
-        <f>+[1]Séries_Site!C91</f>
+        <f ca="1">+[1]Séries_Site!C91</f>
         <v>119402</v>
       </c>
       <c r="D88" s="9">
-        <f>+[1]Séries_Site!D91</f>
+        <f ca="1">+[1]Séries_Site!D91</f>
         <v>24390</v>
       </c>
     </row>
@@ -6756,15 +7024,15 @@
         <v>32933</v>
       </c>
       <c r="B89" s="8">
-        <f>+[1]Séries_Site!B92</f>
+        <f ca="1">+[1]Séries_Site!B92</f>
         <v>143758</v>
       </c>
       <c r="C89" s="9">
-        <f>+[1]Séries_Site!C92</f>
+        <f ca="1">+[1]Séries_Site!C92</f>
         <v>119528</v>
       </c>
       <c r="D89" s="9">
-        <f>+[1]Séries_Site!D92</f>
+        <f ca="1">+[1]Séries_Site!D92</f>
         <v>24230</v>
       </c>
     </row>
@@ -6773,15 +7041,15 @@
         <v>32964</v>
       </c>
       <c r="B90" s="8">
-        <f>+[1]Séries_Site!B93</f>
+        <f ca="1">+[1]Séries_Site!B93</f>
         <v>143844</v>
       </c>
       <c r="C90" s="9">
-        <f>+[1]Séries_Site!C93</f>
+        <f ca="1">+[1]Séries_Site!C93</f>
         <v>119179</v>
       </c>
       <c r="D90" s="9">
-        <f>+[1]Séries_Site!D93</f>
+        <f ca="1">+[1]Séries_Site!D93</f>
         <v>24665</v>
       </c>
     </row>
@@ -6790,15 +7058,15 @@
         <v>32994</v>
       </c>
       <c r="B91" s="8">
-        <f>+[1]Séries_Site!B94</f>
+        <f ca="1">+[1]Séries_Site!B94</f>
         <v>142944</v>
       </c>
       <c r="C91" s="9">
-        <f>+[1]Séries_Site!C94</f>
+        <f ca="1">+[1]Séries_Site!C94</f>
         <v>118554</v>
       </c>
       <c r="D91" s="9">
-        <f>+[1]Séries_Site!D94</f>
+        <f ca="1">+[1]Séries_Site!D94</f>
         <v>24390</v>
       </c>
     </row>
@@ -6807,15 +7075,15 @@
         <v>33025</v>
       </c>
       <c r="B92" s="8">
-        <f>+[1]Séries_Site!B95</f>
+        <f ca="1">+[1]Séries_Site!B95</f>
         <v>142050</v>
       </c>
       <c r="C92" s="9">
-        <f>+[1]Séries_Site!C95</f>
+        <f ca="1">+[1]Séries_Site!C95</f>
         <v>117623</v>
       </c>
       <c r="D92" s="9">
-        <f>+[1]Séries_Site!D95</f>
+        <f ca="1">+[1]Séries_Site!D95</f>
         <v>24427</v>
       </c>
     </row>
@@ -6824,15 +7092,15 @@
         <v>33055</v>
       </c>
       <c r="B93" s="8">
-        <f>+[1]Séries_Site!B96</f>
+        <f ca="1">+[1]Séries_Site!B96</f>
         <v>141687</v>
       </c>
       <c r="C93" s="9">
-        <f>+[1]Séries_Site!C96</f>
+        <f ca="1">+[1]Séries_Site!C96</f>
         <v>117510</v>
       </c>
       <c r="D93" s="9">
-        <f>+[1]Séries_Site!D96</f>
+        <f ca="1">+[1]Séries_Site!D96</f>
         <v>24177</v>
       </c>
     </row>
@@ -6841,15 +7109,15 @@
         <v>33086</v>
       </c>
       <c r="B94" s="8">
-        <f>+[1]Séries_Site!B97</f>
+        <f ca="1">+[1]Séries_Site!B97</f>
         <v>142013</v>
       </c>
       <c r="C94" s="9">
-        <f>+[1]Séries_Site!C97</f>
+        <f ca="1">+[1]Séries_Site!C97</f>
         <v>117811</v>
       </c>
       <c r="D94" s="9">
-        <f>+[1]Séries_Site!D97</f>
+        <f ca="1">+[1]Séries_Site!D97</f>
         <v>24202</v>
       </c>
     </row>
@@ -6858,15 +7126,15 @@
         <v>33117</v>
       </c>
       <c r="B95" s="8">
-        <f>+[1]Séries_Site!B98</f>
+        <f ca="1">+[1]Séries_Site!B98</f>
         <v>141375</v>
       </c>
       <c r="C95" s="9">
-        <f>+[1]Séries_Site!C98</f>
+        <f ca="1">+[1]Séries_Site!C98</f>
         <v>117160</v>
       </c>
       <c r="D95" s="9">
-        <f>+[1]Séries_Site!D98</f>
+        <f ca="1">+[1]Séries_Site!D98</f>
         <v>24215</v>
       </c>
     </row>
@@ -6875,15 +7143,15 @@
         <v>33147</v>
       </c>
       <c r="B96" s="8">
-        <f>+[1]Séries_Site!B99</f>
+        <f ca="1">+[1]Séries_Site!B99</f>
         <v>140565</v>
       </c>
       <c r="C96" s="9">
-        <f>+[1]Séries_Site!C99</f>
+        <f ca="1">+[1]Séries_Site!C99</f>
         <v>117682</v>
       </c>
       <c r="D96" s="9">
-        <f>+[1]Séries_Site!D99</f>
+        <f ca="1">+[1]Séries_Site!D99</f>
         <v>22883</v>
       </c>
     </row>
@@ -6892,15 +7160,15 @@
         <v>33178</v>
       </c>
       <c r="B97" s="8">
-        <f>+[1]Séries_Site!B100</f>
+        <f ca="1">+[1]Séries_Site!B100</f>
         <v>139290</v>
       </c>
       <c r="C97" s="9">
-        <f>+[1]Séries_Site!C100</f>
+        <f ca="1">+[1]Séries_Site!C100</f>
         <v>117722</v>
       </c>
       <c r="D97" s="9">
-        <f>+[1]Séries_Site!D100</f>
+        <f ca="1">+[1]Séries_Site!D100</f>
         <v>21568</v>
       </c>
     </row>
@@ -6909,15 +7177,15 @@
         <v>33208</v>
       </c>
       <c r="B98" s="8">
-        <f>+[1]Séries_Site!B101</f>
+        <f ca="1">+[1]Séries_Site!B101</f>
         <v>138374</v>
       </c>
       <c r="C98" s="9">
-        <f>+[1]Séries_Site!C101</f>
+        <f ca="1">+[1]Séries_Site!C101</f>
         <v>117396</v>
       </c>
       <c r="D98" s="9">
-        <f>+[1]Séries_Site!D101</f>
+        <f ca="1">+[1]Séries_Site!D101</f>
         <v>20978</v>
       </c>
     </row>
@@ -6926,15 +7194,15 @@
         <v>33239</v>
       </c>
       <c r="B99" s="8">
-        <f>+[1]Séries_Site!B102</f>
+        <f ca="1">+[1]Séries_Site!B102</f>
         <v>136125</v>
       </c>
       <c r="C99" s="9">
-        <f>+[1]Séries_Site!C102</f>
+        <f ca="1">+[1]Séries_Site!C102</f>
         <v>116707</v>
       </c>
       <c r="D99" s="9">
-        <f>+[1]Séries_Site!D102</f>
+        <f ca="1">+[1]Séries_Site!D102</f>
         <v>19418</v>
       </c>
     </row>
@@ -6943,15 +7211,15 @@
         <v>33270</v>
       </c>
       <c r="B100" s="8">
-        <f>+[1]Séries_Site!B103</f>
+        <f ca="1">+[1]Séries_Site!B103</f>
         <v>133181</v>
       </c>
       <c r="C100" s="9">
-        <f>+[1]Séries_Site!C103</f>
+        <f ca="1">+[1]Séries_Site!C103</f>
         <v>113379</v>
       </c>
       <c r="D100" s="9">
-        <f>+[1]Séries_Site!D103</f>
+        <f ca="1">+[1]Séries_Site!D103</f>
         <v>19802</v>
       </c>
     </row>
@@ -6960,15 +7228,15 @@
         <v>33298</v>
       </c>
       <c r="B101" s="8">
-        <f>+[1]Séries_Site!B104</f>
+        <f ca="1">+[1]Séries_Site!B104</f>
         <v>130493</v>
       </c>
       <c r="C101" s="9">
-        <f>+[1]Séries_Site!C104</f>
+        <f ca="1">+[1]Séries_Site!C104</f>
         <v>111078</v>
       </c>
       <c r="D101" s="9">
-        <f>+[1]Séries_Site!D104</f>
+        <f ca="1">+[1]Séries_Site!D104</f>
         <v>19415</v>
       </c>
     </row>
@@ -6977,15 +7245,15 @@
         <v>33329</v>
       </c>
       <c r="B102" s="8">
-        <f>+[1]Séries_Site!B105</f>
+        <f ca="1">+[1]Séries_Site!B105</f>
         <v>128385</v>
       </c>
       <c r="C102" s="9">
-        <f>+[1]Séries_Site!C105</f>
+        <f ca="1">+[1]Séries_Site!C105</f>
         <v>109414</v>
       </c>
       <c r="D102" s="9">
-        <f>+[1]Séries_Site!D105</f>
+        <f ca="1">+[1]Séries_Site!D105</f>
         <v>18971</v>
       </c>
     </row>
@@ -6994,15 +7262,15 @@
         <v>33359</v>
       </c>
       <c r="B103" s="8">
-        <f>+[1]Séries_Site!B106</f>
+        <f ca="1">+[1]Séries_Site!B106</f>
         <v>126807</v>
       </c>
       <c r="C103" s="9">
-        <f>+[1]Séries_Site!C106</f>
+        <f ca="1">+[1]Séries_Site!C106</f>
         <v>108111</v>
       </c>
       <c r="D103" s="9">
-        <f>+[1]Séries_Site!D106</f>
+        <f ca="1">+[1]Séries_Site!D106</f>
         <v>18696</v>
       </c>
     </row>
@@ -7011,15 +7279,15 @@
         <v>33390</v>
       </c>
       <c r="B104" s="8">
-        <f>+[1]Séries_Site!B107</f>
+        <f ca="1">+[1]Séries_Site!B107</f>
         <v>126493</v>
       </c>
       <c r="C104" s="9">
-        <f>+[1]Séries_Site!C107</f>
+        <f ca="1">+[1]Séries_Site!C107</f>
         <v>108135</v>
       </c>
       <c r="D104" s="9">
-        <f>+[1]Séries_Site!D107</f>
+        <f ca="1">+[1]Séries_Site!D107</f>
         <v>18358</v>
       </c>
     </row>
@@ -7028,15 +7296,15 @@
         <v>33420</v>
       </c>
       <c r="B105" s="8">
-        <f>+[1]Séries_Site!B108</f>
+        <f ca="1">+[1]Séries_Site!B108</f>
         <v>126630</v>
       </c>
       <c r="C105" s="9">
-        <f>+[1]Séries_Site!C108</f>
+        <f ca="1">+[1]Séries_Site!C108</f>
         <v>108444</v>
       </c>
       <c r="D105" s="9">
-        <f>+[1]Séries_Site!D108</f>
+        <f ca="1">+[1]Séries_Site!D108</f>
         <v>18186</v>
       </c>
     </row>
@@ -7045,15 +7313,15 @@
         <v>33451</v>
       </c>
       <c r="B106" s="8">
-        <f>+[1]Séries_Site!B109</f>
+        <f ca="1">+[1]Séries_Site!B109</f>
         <v>126709</v>
       </c>
       <c r="C106" s="9">
-        <f>+[1]Séries_Site!C109</f>
+        <f ca="1">+[1]Séries_Site!C109</f>
         <v>108698</v>
       </c>
       <c r="D106" s="9">
-        <f>+[1]Séries_Site!D109</f>
+        <f ca="1">+[1]Séries_Site!D109</f>
         <v>18011</v>
       </c>
     </row>
@@ -7062,15 +7330,15 @@
         <v>33482</v>
       </c>
       <c r="B107" s="8">
-        <f>+[1]Séries_Site!B110</f>
+        <f ca="1">+[1]Séries_Site!B110</f>
         <v>126051</v>
       </c>
       <c r="C107" s="9">
-        <f>+[1]Séries_Site!C110</f>
+        <f ca="1">+[1]Séries_Site!C110</f>
         <v>109195</v>
       </c>
       <c r="D107" s="9">
-        <f>+[1]Séries_Site!D110</f>
+        <f ca="1">+[1]Séries_Site!D110</f>
         <v>16856</v>
       </c>
     </row>
@@ -7079,15 +7347,15 @@
         <v>33512</v>
       </c>
       <c r="B108" s="8">
-        <f>+[1]Séries_Site!B111</f>
+        <f ca="1">+[1]Séries_Site!B111</f>
         <v>125723</v>
       </c>
       <c r="C108" s="9">
-        <f>+[1]Séries_Site!C111</f>
+        <f ca="1">+[1]Séries_Site!C111</f>
         <v>109339</v>
       </c>
       <c r="D108" s="9">
-        <f>+[1]Séries_Site!D111</f>
+        <f ca="1">+[1]Séries_Site!D111</f>
         <v>16384</v>
       </c>
     </row>
@@ -7096,15 +7364,15 @@
         <v>33543</v>
       </c>
       <c r="B109" s="8">
-        <f>+[1]Séries_Site!B112</f>
+        <f ca="1">+[1]Séries_Site!B112</f>
         <v>125137</v>
       </c>
       <c r="C109" s="9">
-        <f>+[1]Séries_Site!C112</f>
+        <f ca="1">+[1]Séries_Site!C112</f>
         <v>109519</v>
       </c>
       <c r="D109" s="9">
-        <f>+[1]Séries_Site!D112</f>
+        <f ca="1">+[1]Séries_Site!D112</f>
         <v>15618</v>
       </c>
     </row>
@@ -7113,15 +7381,15 @@
         <v>33573</v>
       </c>
       <c r="B110" s="8">
-        <f>+[1]Séries_Site!B113</f>
+        <f ca="1">+[1]Séries_Site!B113</f>
         <v>124859</v>
       </c>
       <c r="C110" s="9">
-        <f>+[1]Séries_Site!C113</f>
+        <f ca="1">+[1]Séries_Site!C113</f>
         <v>109428</v>
       </c>
       <c r="D110" s="9">
-        <f>+[1]Séries_Site!D113</f>
+        <f ca="1">+[1]Séries_Site!D113</f>
         <v>15431</v>
       </c>
     </row>
@@ -7130,15 +7398,15 @@
         <v>33604</v>
       </c>
       <c r="B111" s="8">
-        <f>+[1]Séries_Site!B114</f>
+        <f ca="1">+[1]Séries_Site!B114</f>
         <v>124590</v>
       </c>
       <c r="C111" s="9">
-        <f>+[1]Séries_Site!C114</f>
+        <f ca="1">+[1]Séries_Site!C114</f>
         <v>109062</v>
       </c>
       <c r="D111" s="9">
-        <f>+[1]Séries_Site!D114</f>
+        <f ca="1">+[1]Séries_Site!D114</f>
         <v>15528</v>
       </c>
     </row>
@@ -7147,15 +7415,15 @@
         <v>33635</v>
       </c>
       <c r="B112" s="8">
-        <f>+[1]Séries_Site!B115</f>
+        <f ca="1">+[1]Séries_Site!B115</f>
         <v>124214</v>
       </c>
       <c r="C112" s="9">
-        <f>+[1]Séries_Site!C115</f>
+        <f ca="1">+[1]Séries_Site!C115</f>
         <v>108866</v>
       </c>
       <c r="D112" s="9">
-        <f>+[1]Séries_Site!D115</f>
+        <f ca="1">+[1]Séries_Site!D115</f>
         <v>15348</v>
       </c>
     </row>
@@ -7164,15 +7432,15 @@
         <v>33664</v>
       </c>
       <c r="B113" s="8">
-        <f>+[1]Séries_Site!B116</f>
+        <f ca="1">+[1]Séries_Site!B116</f>
         <v>124074</v>
       </c>
       <c r="C113" s="9">
-        <f>+[1]Séries_Site!C116</f>
+        <f ca="1">+[1]Séries_Site!C116</f>
         <v>108365</v>
       </c>
       <c r="D113" s="9">
-        <f>+[1]Séries_Site!D116</f>
+        <f ca="1">+[1]Séries_Site!D116</f>
         <v>15709</v>
       </c>
     </row>
@@ -7181,15 +7449,15 @@
         <v>33695</v>
       </c>
       <c r="B114" s="8">
-        <f>+[1]Séries_Site!B117</f>
+        <f ca="1">+[1]Séries_Site!B117</f>
         <v>123807</v>
       </c>
       <c r="C114" s="9">
-        <f>+[1]Séries_Site!C117</f>
+        <f ca="1">+[1]Séries_Site!C117</f>
         <v>108201</v>
       </c>
       <c r="D114" s="9">
-        <f>+[1]Séries_Site!D117</f>
+        <f ca="1">+[1]Séries_Site!D117</f>
         <v>15606</v>
       </c>
     </row>
@@ -7198,15 +7466,15 @@
         <v>33725</v>
       </c>
       <c r="B115" s="8">
-        <f>+[1]Séries_Site!B118</f>
+        <f ca="1">+[1]Séries_Site!B118</f>
         <v>123854</v>
       </c>
       <c r="C115" s="9">
-        <f>+[1]Séries_Site!C118</f>
+        <f ca="1">+[1]Séries_Site!C118</f>
         <v>108397</v>
       </c>
       <c r="D115" s="9">
-        <f>+[1]Séries_Site!D118</f>
+        <f ca="1">+[1]Séries_Site!D118</f>
         <v>15457</v>
       </c>
     </row>
@@ -7215,15 +7483,15 @@
         <v>33756</v>
       </c>
       <c r="B116" s="8">
-        <f>+[1]Séries_Site!B119</f>
+        <f ca="1">+[1]Séries_Site!B119</f>
         <v>123314</v>
       </c>
       <c r="C116" s="9">
-        <f>+[1]Séries_Site!C119</f>
+        <f ca="1">+[1]Séries_Site!C119</f>
         <v>108174</v>
       </c>
       <c r="D116" s="9">
-        <f>+[1]Séries_Site!D119</f>
+        <f ca="1">+[1]Séries_Site!D119</f>
         <v>15140</v>
       </c>
     </row>
@@ -7232,15 +7500,15 @@
         <v>33786</v>
       </c>
       <c r="B117" s="8">
-        <f>+[1]Séries_Site!B120</f>
+        <f ca="1">+[1]Séries_Site!B120</f>
         <v>122923</v>
       </c>
       <c r="C117" s="9">
-        <f>+[1]Séries_Site!C120</f>
+        <f ca="1">+[1]Séries_Site!C120</f>
         <v>107983</v>
       </c>
       <c r="D117" s="9">
-        <f>+[1]Séries_Site!D120</f>
+        <f ca="1">+[1]Séries_Site!D120</f>
         <v>14940</v>
       </c>
     </row>
@@ -7249,15 +7517,15 @@
         <v>33817</v>
       </c>
       <c r="B118" s="8">
-        <f>+[1]Séries_Site!B121</f>
+        <f ca="1">+[1]Séries_Site!B121</f>
         <v>122365</v>
       </c>
       <c r="C118" s="9">
-        <f>+[1]Séries_Site!C121</f>
+        <f ca="1">+[1]Séries_Site!C121</f>
         <v>107652</v>
       </c>
       <c r="D118" s="9">
-        <f>+[1]Séries_Site!D121</f>
+        <f ca="1">+[1]Séries_Site!D121</f>
         <v>14713</v>
       </c>
     </row>
@@ -7266,15 +7534,15 @@
         <v>33848</v>
       </c>
       <c r="B119" s="8">
-        <f>+[1]Séries_Site!B122</f>
+        <f ca="1">+[1]Séries_Site!B122</f>
         <v>121285</v>
       </c>
       <c r="C119" s="9">
-        <f>+[1]Séries_Site!C122</f>
+        <f ca="1">+[1]Séries_Site!C122</f>
         <v>106923</v>
       </c>
       <c r="D119" s="9">
-        <f>+[1]Séries_Site!D122</f>
+        <f ca="1">+[1]Séries_Site!D122</f>
         <v>14362</v>
       </c>
     </row>
@@ -7283,15 +7551,15 @@
         <v>33878</v>
       </c>
       <c r="B120" s="8">
-        <f>+[1]Séries_Site!B123</f>
+        <f ca="1">+[1]Séries_Site!B123</f>
         <v>120976</v>
       </c>
       <c r="C120" s="9">
-        <f>+[1]Séries_Site!C123</f>
+        <f ca="1">+[1]Séries_Site!C123</f>
         <v>106739</v>
       </c>
       <c r="D120" s="9">
-        <f>+[1]Séries_Site!D123</f>
+        <f ca="1">+[1]Séries_Site!D123</f>
         <v>14237</v>
       </c>
     </row>
@@ -7300,15 +7568,15 @@
         <v>33909</v>
       </c>
       <c r="B121" s="8">
-        <f>+[1]Séries_Site!B124</f>
+        <f ca="1">+[1]Séries_Site!B124</f>
         <v>120138</v>
       </c>
       <c r="C121" s="9">
-        <f>+[1]Séries_Site!C124</f>
+        <f ca="1">+[1]Séries_Site!C124</f>
         <v>106163</v>
       </c>
       <c r="D121" s="9">
-        <f>+[1]Séries_Site!D124</f>
+        <f ca="1">+[1]Séries_Site!D124</f>
         <v>13975</v>
       </c>
     </row>
@@ -7317,15 +7585,15 @@
         <v>33939</v>
       </c>
       <c r="B122" s="8">
-        <f>+[1]Séries_Site!B125</f>
+        <f ca="1">+[1]Séries_Site!B125</f>
         <v>119292</v>
       </c>
       <c r="C122" s="9">
-        <f>+[1]Séries_Site!C125</f>
+        <f ca="1">+[1]Séries_Site!C125</f>
         <v>105664</v>
       </c>
       <c r="D122" s="9">
-        <f>+[1]Séries_Site!D125</f>
+        <f ca="1">+[1]Séries_Site!D125</f>
         <v>13628</v>
       </c>
     </row>
@@ -7334,15 +7602,15 @@
         <v>33970</v>
       </c>
       <c r="B123" s="8">
-        <f>+[1]Séries_Site!B126</f>
+        <f ca="1">+[1]Séries_Site!B126</f>
         <v>117644</v>
       </c>
       <c r="C123" s="9">
-        <f>+[1]Séries_Site!C126</f>
+        <f ca="1">+[1]Séries_Site!C126</f>
         <v>104409</v>
       </c>
       <c r="D123" s="9">
-        <f>+[1]Séries_Site!D126</f>
+        <f ca="1">+[1]Séries_Site!D126</f>
         <v>13235</v>
       </c>
     </row>
@@ -7351,15 +7619,15 @@
         <v>34001</v>
       </c>
       <c r="B124" s="8">
-        <f>+[1]Séries_Site!B127</f>
+        <f ca="1">+[1]Séries_Site!B127</f>
         <v>118138</v>
       </c>
       <c r="C124" s="9">
-        <f>+[1]Séries_Site!C127</f>
+        <f ca="1">+[1]Séries_Site!C127</f>
         <v>104799</v>
       </c>
       <c r="D124" s="9">
-        <f>+[1]Séries_Site!D127</f>
+        <f ca="1">+[1]Séries_Site!D127</f>
         <v>13339</v>
       </c>
     </row>
@@ -7368,15 +7636,15 @@
         <v>34029</v>
       </c>
       <c r="B125" s="8">
-        <f>+[1]Séries_Site!B128</f>
+        <f ca="1">+[1]Séries_Site!B128</f>
         <v>118218</v>
       </c>
       <c r="C125" s="9">
-        <f>+[1]Séries_Site!C128</f>
+        <f ca="1">+[1]Séries_Site!C128</f>
         <v>104952</v>
       </c>
       <c r="D125" s="9">
-        <f>+[1]Séries_Site!D128</f>
+        <f ca="1">+[1]Séries_Site!D128</f>
         <v>13266</v>
       </c>
     </row>
@@ -7385,15 +7653,15 @@
         <v>34060</v>
       </c>
       <c r="B126" s="8">
-        <f>+[1]Séries_Site!B129</f>
+        <f ca="1">+[1]Séries_Site!B129</f>
         <v>118993</v>
       </c>
       <c r="C126" s="9">
-        <f>+[1]Séries_Site!C129</f>
+        <f ca="1">+[1]Séries_Site!C129</f>
         <v>106006</v>
       </c>
       <c r="D126" s="9">
-        <f>+[1]Séries_Site!D129</f>
+        <f ca="1">+[1]Séries_Site!D129</f>
         <v>12987</v>
       </c>
     </row>
@@ -7402,15 +7670,15 @@
         <v>34090</v>
       </c>
       <c r="B127" s="8">
-        <f>+[1]Séries_Site!B130</f>
+        <f ca="1">+[1]Séries_Site!B130</f>
         <v>119686</v>
       </c>
       <c r="C127" s="9">
-        <f>+[1]Séries_Site!C130</f>
+        <f ca="1">+[1]Séries_Site!C130</f>
         <v>106539</v>
       </c>
       <c r="D127" s="9">
-        <f>+[1]Séries_Site!D130</f>
+        <f ca="1">+[1]Séries_Site!D130</f>
         <v>13147</v>
       </c>
     </row>
@@ -7419,15 +7687,15 @@
         <v>34121</v>
       </c>
       <c r="B128" s="8">
-        <f>+[1]Séries_Site!B131</f>
+        <f ca="1">+[1]Séries_Site!B131</f>
         <v>119575</v>
       </c>
       <c r="C128" s="9">
-        <f>+[1]Séries_Site!C131</f>
+        <f ca="1">+[1]Séries_Site!C131</f>
         <v>106460</v>
       </c>
       <c r="D128" s="9">
-        <f>+[1]Séries_Site!D131</f>
+        <f ca="1">+[1]Séries_Site!D131</f>
         <v>13115</v>
       </c>
     </row>
@@ -7436,15 +7704,15 @@
         <v>34151</v>
       </c>
       <c r="B129" s="8">
-        <f>+[1]Séries_Site!B132</f>
+        <f ca="1">+[1]Séries_Site!B132</f>
         <v>119231</v>
       </c>
       <c r="C129" s="9">
-        <f>+[1]Séries_Site!C132</f>
+        <f ca="1">+[1]Séries_Site!C132</f>
         <v>106225</v>
       </c>
       <c r="D129" s="9">
-        <f>+[1]Séries_Site!D132</f>
+        <f ca="1">+[1]Séries_Site!D132</f>
         <v>13006</v>
       </c>
     </row>
@@ -7453,15 +7721,15 @@
         <v>34182</v>
       </c>
       <c r="B130" s="8">
-        <f>+[1]Séries_Site!B133</f>
+        <f ca="1">+[1]Séries_Site!B133</f>
         <v>119557</v>
       </c>
       <c r="C130" s="9">
-        <f>+[1]Séries_Site!C133</f>
+        <f ca="1">+[1]Séries_Site!C133</f>
         <v>106588</v>
       </c>
       <c r="D130" s="9">
-        <f>+[1]Séries_Site!D133</f>
+        <f ca="1">+[1]Séries_Site!D133</f>
         <v>12969</v>
       </c>
     </row>
@@ -7470,15 +7738,15 @@
         <v>34213</v>
       </c>
       <c r="B131" s="8">
-        <f>+[1]Séries_Site!B134</f>
+        <f ca="1">+[1]Séries_Site!B134</f>
         <v>120415</v>
       </c>
       <c r="C131" s="9">
-        <f>+[1]Séries_Site!C134</f>
+        <f ca="1">+[1]Séries_Site!C134</f>
         <v>107332</v>
       </c>
       <c r="D131" s="9">
-        <f>+[1]Séries_Site!D134</f>
+        <f ca="1">+[1]Séries_Site!D134</f>
         <v>13083</v>
       </c>
     </row>
@@ -7487,15 +7755,15 @@
         <v>34243</v>
       </c>
       <c r="B132" s="8">
-        <f>+[1]Séries_Site!B135</f>
+        <f ca="1">+[1]Séries_Site!B135</f>
         <v>121162</v>
       </c>
       <c r="C132" s="9">
-        <f>+[1]Séries_Site!C135</f>
+        <f ca="1">+[1]Séries_Site!C135</f>
         <v>107817</v>
       </c>
       <c r="D132" s="9">
-        <f>+[1]Séries_Site!D135</f>
+        <f ca="1">+[1]Séries_Site!D135</f>
         <v>13345</v>
       </c>
     </row>
@@ -7504,15 +7772,15 @@
         <v>34274</v>
       </c>
       <c r="B133" s="8">
-        <f>+[1]Séries_Site!B136</f>
+        <f ca="1">+[1]Séries_Site!B136</f>
         <v>120609</v>
       </c>
       <c r="C133" s="9">
-        <f>+[1]Séries_Site!C136</f>
+        <f ca="1">+[1]Séries_Site!C136</f>
         <v>106861</v>
       </c>
       <c r="D133" s="9">
-        <f>+[1]Séries_Site!D136</f>
+        <f ca="1">+[1]Séries_Site!D136</f>
         <v>13748</v>
       </c>
     </row>
@@ -7521,15 +7789,15 @@
         <v>34304</v>
       </c>
       <c r="B134" s="8">
-        <f>+[1]Séries_Site!B137</f>
+        <f ca="1">+[1]Séries_Site!B137</f>
         <v>120635</v>
       </c>
       <c r="C134" s="9">
-        <f>+[1]Séries_Site!C137</f>
+        <f ca="1">+[1]Séries_Site!C137</f>
         <v>106738</v>
       </c>
       <c r="D134" s="9">
-        <f>+[1]Séries_Site!D137</f>
+        <f ca="1">+[1]Séries_Site!D137</f>
         <v>13897</v>
       </c>
     </row>
@@ -7538,15 +7806,15 @@
         <v>34335</v>
       </c>
       <c r="B135" s="8">
-        <f>+[1]Séries_Site!B138</f>
+        <f ca="1">+[1]Séries_Site!B138</f>
         <v>120358</v>
       </c>
       <c r="C135" s="9">
-        <f>+[1]Séries_Site!C138</f>
+        <f ca="1">+[1]Séries_Site!C138</f>
         <v>106409</v>
       </c>
       <c r="D135" s="9">
-        <f>+[1]Séries_Site!D138</f>
+        <f ca="1">+[1]Séries_Site!D138</f>
         <v>13949</v>
       </c>
     </row>
@@ -7555,15 +7823,15 @@
         <v>34366</v>
       </c>
       <c r="B136" s="8">
-        <f>+[1]Séries_Site!B139</f>
+        <f ca="1">+[1]Séries_Site!B139</f>
         <v>120642</v>
       </c>
       <c r="C136" s="9">
-        <f>+[1]Séries_Site!C139</f>
+        <f ca="1">+[1]Séries_Site!C139</f>
         <v>106538</v>
       </c>
       <c r="D136" s="9">
-        <f>+[1]Séries_Site!D139</f>
+        <f ca="1">+[1]Séries_Site!D139</f>
         <v>14104</v>
       </c>
     </row>
@@ -7572,15 +7840,15 @@
         <v>34394</v>
       </c>
       <c r="B137" s="8">
-        <f>+[1]Séries_Site!B140</f>
+        <f ca="1">+[1]Séries_Site!B140</f>
         <v>120458</v>
       </c>
       <c r="C137" s="9">
-        <f>+[1]Séries_Site!C140</f>
+        <f ca="1">+[1]Séries_Site!C140</f>
         <v>106331</v>
       </c>
       <c r="D137" s="9">
-        <f>+[1]Séries_Site!D140</f>
+        <f ca="1">+[1]Séries_Site!D140</f>
         <v>14127</v>
       </c>
     </row>
@@ -7589,15 +7857,15 @@
         <v>34425</v>
       </c>
       <c r="B138" s="8">
-        <f>+[1]Séries_Site!B141</f>
+        <f ca="1">+[1]Séries_Site!B141</f>
         <v>120736</v>
       </c>
       <c r="C138" s="9">
-        <f>+[1]Séries_Site!C141</f>
+        <f ca="1">+[1]Séries_Site!C141</f>
         <v>106407</v>
       </c>
       <c r="D138" s="9">
-        <f>+[1]Séries_Site!D141</f>
+        <f ca="1">+[1]Séries_Site!D141</f>
         <v>14329</v>
       </c>
     </row>
@@ -7606,15 +7874,15 @@
         <v>34455</v>
       </c>
       <c r="B139" s="8">
-        <f>+[1]Séries_Site!B142</f>
+        <f ca="1">+[1]Séries_Site!B142</f>
         <v>121041</v>
       </c>
       <c r="C139" s="9">
-        <f>+[1]Séries_Site!C142</f>
+        <f ca="1">+[1]Séries_Site!C142</f>
         <v>106416</v>
       </c>
       <c r="D139" s="9">
-        <f>+[1]Séries_Site!D142</f>
+        <f ca="1">+[1]Séries_Site!D142</f>
         <v>14625</v>
       </c>
     </row>
@@ -7623,15 +7891,15 @@
         <v>34486</v>
       </c>
       <c r="B140" s="8">
-        <f>+[1]Séries_Site!B143</f>
+        <f ca="1">+[1]Séries_Site!B143</f>
         <v>121354</v>
       </c>
       <c r="C140" s="9">
-        <f>+[1]Séries_Site!C143</f>
+        <f ca="1">+[1]Séries_Site!C143</f>
         <v>106660</v>
       </c>
       <c r="D140" s="9">
-        <f>+[1]Séries_Site!D143</f>
+        <f ca="1">+[1]Séries_Site!D143</f>
         <v>14694</v>
       </c>
     </row>
@@ -7640,15 +7908,15 @@
         <v>34516</v>
       </c>
       <c r="B141" s="8">
-        <f>+[1]Séries_Site!B144</f>
+        <f ca="1">+[1]Séries_Site!B144</f>
         <v>121543</v>
       </c>
       <c r="C141" s="9">
-        <f>+[1]Séries_Site!C144</f>
+        <f ca="1">+[1]Séries_Site!C144</f>
         <v>106781</v>
       </c>
       <c r="D141" s="9">
-        <f>+[1]Séries_Site!D144</f>
+        <f ca="1">+[1]Séries_Site!D144</f>
         <v>14762</v>
       </c>
     </row>
@@ -7657,15 +7925,15 @@
         <v>34547</v>
       </c>
       <c r="B142" s="8">
-        <f>+[1]Séries_Site!B145</f>
+        <f ca="1">+[1]Séries_Site!B145</f>
         <v>121403</v>
       </c>
       <c r="C142" s="9">
-        <f>+[1]Séries_Site!C145</f>
+        <f ca="1">+[1]Séries_Site!C145</f>
         <v>106600</v>
       </c>
       <c r="D142" s="9">
-        <f>+[1]Séries_Site!D145</f>
+        <f ca="1">+[1]Séries_Site!D145</f>
         <v>14803</v>
       </c>
     </row>
@@ -7674,15 +7942,15 @@
         <v>34578</v>
       </c>
       <c r="B143" s="8">
-        <f>+[1]Séries_Site!B146</f>
+        <f ca="1">+[1]Séries_Site!B146</f>
         <v>121646</v>
       </c>
       <c r="C143" s="9">
-        <f>+[1]Séries_Site!C146</f>
+        <f ca="1">+[1]Séries_Site!C146</f>
         <v>106982</v>
       </c>
       <c r="D143" s="9">
-        <f>+[1]Séries_Site!D146</f>
+        <f ca="1">+[1]Séries_Site!D146</f>
         <v>14664</v>
       </c>
     </row>
@@ -7691,15 +7959,15 @@
         <v>34608</v>
       </c>
       <c r="B144" s="8">
-        <f>+[1]Séries_Site!B147</f>
+        <f ca="1">+[1]Séries_Site!B147</f>
         <v>121539</v>
       </c>
       <c r="C144" s="9">
-        <f>+[1]Séries_Site!C147</f>
+        <f ca="1">+[1]Séries_Site!C147</f>
         <v>106717</v>
       </c>
       <c r="D144" s="9">
-        <f>+[1]Séries_Site!D147</f>
+        <f ca="1">+[1]Séries_Site!D147</f>
         <v>14822</v>
       </c>
     </row>
@@ -7708,15 +7976,15 @@
         <v>34639</v>
       </c>
       <c r="B145" s="8">
-        <f>+[1]Séries_Site!B148</f>
+        <f ca="1">+[1]Séries_Site!B148</f>
         <v>121229</v>
       </c>
       <c r="C145" s="9">
-        <f>+[1]Séries_Site!C148</f>
+        <f ca="1">+[1]Séries_Site!C148</f>
         <v>106375</v>
       </c>
       <c r="D145" s="9">
-        <f>+[1]Séries_Site!D148</f>
+        <f ca="1">+[1]Séries_Site!D148</f>
         <v>14854</v>
       </c>
     </row>
@@ -7725,15 +7993,15 @@
         <v>34669</v>
       </c>
       <c r="B146" s="8">
-        <f>+[1]Séries_Site!B149</f>
+        <f ca="1">+[1]Séries_Site!B149</f>
         <v>122153</v>
       </c>
       <c r="C146" s="9">
-        <f>+[1]Séries_Site!C149</f>
+        <f ca="1">+[1]Séries_Site!C149</f>
         <v>107134</v>
       </c>
       <c r="D146" s="9">
-        <f>+[1]Séries_Site!D149</f>
+        <f ca="1">+[1]Séries_Site!D149</f>
         <v>15019</v>
       </c>
     </row>
@@ -7742,15 +8010,15 @@
         <v>34700</v>
       </c>
       <c r="B147" s="8">
-        <f>+[1]Séries_Site!B150</f>
+        <f ca="1">+[1]Séries_Site!B150</f>
         <v>121907</v>
       </c>
       <c r="C147" s="9">
-        <f>+[1]Séries_Site!C150</f>
+        <f ca="1">+[1]Séries_Site!C150</f>
         <v>106759</v>
       </c>
       <c r="D147" s="9">
-        <f>+[1]Séries_Site!D150</f>
+        <f ca="1">+[1]Séries_Site!D150</f>
         <v>15148</v>
       </c>
     </row>
@@ -7759,15 +8027,15 @@
         <v>34731</v>
       </c>
       <c r="B148" s="8">
-        <f>+[1]Séries_Site!B151</f>
+        <f ca="1">+[1]Séries_Site!B151</f>
         <v>123843</v>
       </c>
       <c r="C148" s="9">
-        <f>+[1]Séries_Site!C151</f>
+        <f ca="1">+[1]Séries_Site!C151</f>
         <v>108395</v>
       </c>
       <c r="D148" s="9">
-        <f>+[1]Séries_Site!D151</f>
+        <f ca="1">+[1]Séries_Site!D151</f>
         <v>15448</v>
       </c>
     </row>
@@ -7776,15 +8044,15 @@
         <v>34759</v>
       </c>
       <c r="B149" s="8">
-        <f>+[1]Séries_Site!B152</f>
+        <f ca="1">+[1]Séries_Site!B152</f>
         <v>125081</v>
       </c>
       <c r="C149" s="9">
-        <f>+[1]Séries_Site!C152</f>
+        <f ca="1">+[1]Séries_Site!C152</f>
         <v>109311</v>
       </c>
       <c r="D149" s="9">
-        <f>+[1]Séries_Site!D152</f>
+        <f ca="1">+[1]Séries_Site!D152</f>
         <v>15770</v>
       </c>
     </row>
@@ -7793,15 +8061,15 @@
         <v>34790</v>
       </c>
       <c r="B150" s="8">
-        <f>+[1]Séries_Site!B153</f>
+        <f ca="1">+[1]Séries_Site!B153</f>
         <v>124919</v>
       </c>
       <c r="C150" s="9">
-        <f>+[1]Séries_Site!C153</f>
+        <f ca="1">+[1]Séries_Site!C153</f>
         <v>109383</v>
       </c>
       <c r="D150" s="9">
-        <f>+[1]Séries_Site!D153</f>
+        <f ca="1">+[1]Séries_Site!D153</f>
         <v>15536</v>
       </c>
     </row>
@@ -7810,15 +8078,15 @@
         <v>34820</v>
       </c>
       <c r="B151" s="8">
-        <f>+[1]Séries_Site!B154</f>
+        <f ca="1">+[1]Séries_Site!B154</f>
         <v>125461</v>
       </c>
       <c r="C151" s="9">
-        <f>+[1]Séries_Site!C154</f>
+        <f ca="1">+[1]Séries_Site!C154</f>
         <v>110341</v>
       </c>
       <c r="D151" s="9">
-        <f>+[1]Séries_Site!D154</f>
+        <f ca="1">+[1]Séries_Site!D154</f>
         <v>15120</v>
       </c>
     </row>
@@ -7827,15 +8095,15 @@
         <v>34851</v>
       </c>
       <c r="B152" s="8">
-        <f>+[1]Séries_Site!B155</f>
+        <f ca="1">+[1]Séries_Site!B155</f>
         <v>125327</v>
       </c>
       <c r="C152" s="9">
-        <f>+[1]Séries_Site!C155</f>
+        <f ca="1">+[1]Séries_Site!C155</f>
         <v>110849</v>
       </c>
       <c r="D152" s="9">
-        <f>+[1]Séries_Site!D155</f>
+        <f ca="1">+[1]Séries_Site!D155</f>
         <v>14478</v>
       </c>
     </row>
@@ -7844,15 +8112,15 @@
         <v>34881</v>
       </c>
       <c r="B153" s="8">
-        <f>+[1]Séries_Site!B156</f>
+        <f ca="1">+[1]Séries_Site!B156</f>
         <v>124476</v>
       </c>
       <c r="C153" s="9">
-        <f>+[1]Séries_Site!C156</f>
+        <f ca="1">+[1]Séries_Site!C156</f>
         <v>110894</v>
       </c>
       <c r="D153" s="9">
-        <f>+[1]Séries_Site!D156</f>
+        <f ca="1">+[1]Séries_Site!D156</f>
         <v>13582</v>
       </c>
     </row>
@@ -7861,15 +8129,15 @@
         <v>34912</v>
       </c>
       <c r="B154" s="8">
-        <f>+[1]Séries_Site!B157</f>
+        <f ca="1">+[1]Séries_Site!B157</f>
         <v>122570</v>
       </c>
       <c r="C154" s="9">
-        <f>+[1]Séries_Site!C157</f>
+        <f ca="1">+[1]Séries_Site!C157</f>
         <v>109681</v>
       </c>
       <c r="D154" s="9">
-        <f>+[1]Séries_Site!D157</f>
+        <f ca="1">+[1]Séries_Site!D157</f>
         <v>12889</v>
       </c>
     </row>
@@ -7878,15 +8146,15 @@
         <v>34943</v>
       </c>
       <c r="B155" s="8">
-        <f>+[1]Séries_Site!B158</f>
+        <f ca="1">+[1]Séries_Site!B158</f>
         <v>117755</v>
       </c>
       <c r="C155" s="9">
-        <f>+[1]Séries_Site!C158</f>
+        <f ca="1">+[1]Séries_Site!C158</f>
         <v>106003</v>
       </c>
       <c r="D155" s="9">
-        <f>+[1]Séries_Site!D158</f>
+        <f ca="1">+[1]Séries_Site!D158</f>
         <v>11752</v>
       </c>
     </row>
@@ -7895,15 +8163,15 @@
         <v>34973</v>
       </c>
       <c r="B156" s="8">
-        <f>+[1]Séries_Site!B159</f>
+        <f ca="1">+[1]Séries_Site!B159</f>
         <v>115742</v>
       </c>
       <c r="C156" s="9">
-        <f>+[1]Séries_Site!C159</f>
+        <f ca="1">+[1]Séries_Site!C159</f>
         <v>104186</v>
       </c>
       <c r="D156" s="9">
-        <f>+[1]Séries_Site!D159</f>
+        <f ca="1">+[1]Séries_Site!D159</f>
         <v>11556</v>
       </c>
     </row>
@@ -7912,15 +8180,15 @@
         <v>35004</v>
       </c>
       <c r="B157" s="8">
-        <f>+[1]Séries_Site!B160</f>
+        <f ca="1">+[1]Séries_Site!B160</f>
         <v>115496</v>
       </c>
       <c r="C157" s="9">
-        <f>+[1]Séries_Site!C160</f>
+        <f ca="1">+[1]Séries_Site!C160</f>
         <v>104068</v>
       </c>
       <c r="D157" s="9">
-        <f>+[1]Séries_Site!D160</f>
+        <f ca="1">+[1]Séries_Site!D160</f>
         <v>11428</v>
       </c>
     </row>
@@ -7929,15 +8197,15 @@
         <v>35034</v>
       </c>
       <c r="B158" s="8">
-        <f>+[1]Séries_Site!B161</f>
+        <f ca="1">+[1]Séries_Site!B161</f>
         <v>115212</v>
       </c>
       <c r="C158" s="9">
-        <f>+[1]Séries_Site!C161</f>
+        <f ca="1">+[1]Séries_Site!C161</f>
         <v>104614</v>
       </c>
       <c r="D158" s="9">
-        <f>+[1]Séries_Site!D161</f>
+        <f ca="1">+[1]Séries_Site!D161</f>
         <v>10598</v>
       </c>
     </row>
@@ -7946,15 +8214,15 @@
         <v>35065</v>
       </c>
       <c r="B159" s="8">
-        <f>+[1]Séries_Site!B162</f>
+        <f ca="1">+[1]Séries_Site!B162</f>
         <v>115044</v>
       </c>
       <c r="C159" s="9">
-        <f>+[1]Séries_Site!C162</f>
+        <f ca="1">+[1]Séries_Site!C162</f>
         <v>104412</v>
       </c>
       <c r="D159" s="9">
-        <f>+[1]Séries_Site!D162</f>
+        <f ca="1">+[1]Séries_Site!D162</f>
         <v>10632</v>
       </c>
     </row>
@@ -7963,15 +8231,15 @@
         <v>35096</v>
       </c>
       <c r="B160" s="8">
-        <f>+[1]Séries_Site!B163</f>
+        <f ca="1">+[1]Séries_Site!B163</f>
         <v>114498</v>
       </c>
       <c r="C160" s="9">
-        <f>+[1]Séries_Site!C163</f>
+        <f ca="1">+[1]Séries_Site!C163</f>
         <v>104028</v>
       </c>
       <c r="D160" s="9">
-        <f>+[1]Séries_Site!D163</f>
+        <f ca="1">+[1]Séries_Site!D163</f>
         <v>10470</v>
       </c>
     </row>
@@ -7980,15 +8248,15 @@
         <v>35125</v>
       </c>
       <c r="B161" s="8">
-        <f>+[1]Séries_Site!B164</f>
+        <f ca="1">+[1]Séries_Site!B164</f>
         <v>114961</v>
       </c>
       <c r="C161" s="9">
-        <f>+[1]Séries_Site!C164</f>
+        <f ca="1">+[1]Séries_Site!C164</f>
         <v>104624</v>
       </c>
       <c r="D161" s="9">
-        <f>+[1]Séries_Site!D164</f>
+        <f ca="1">+[1]Séries_Site!D164</f>
         <v>10337</v>
       </c>
     </row>
@@ -7997,15 +8265,15 @@
         <v>35156</v>
       </c>
       <c r="B162" s="8">
-        <f>+[1]Séries_Site!B165</f>
+        <f ca="1">+[1]Séries_Site!B165</f>
         <v>114979</v>
       </c>
       <c r="C162" s="9">
-        <f>+[1]Séries_Site!C165</f>
+        <f ca="1">+[1]Séries_Site!C165</f>
         <v>104692</v>
       </c>
       <c r="D162" s="9">
-        <f>+[1]Séries_Site!D165</f>
+        <f ca="1">+[1]Séries_Site!D165</f>
         <v>10287</v>
       </c>
     </row>
@@ -8014,15 +8282,15 @@
         <v>35186</v>
       </c>
       <c r="B163" s="8">
-        <f>+[1]Séries_Site!B166</f>
+        <f ca="1">+[1]Séries_Site!B166</f>
         <v>114560</v>
       </c>
       <c r="C163" s="9">
-        <f>+[1]Séries_Site!C166</f>
+        <f ca="1">+[1]Séries_Site!C166</f>
         <v>104419</v>
       </c>
       <c r="D163" s="9">
-        <f>+[1]Séries_Site!D166</f>
+        <f ca="1">+[1]Séries_Site!D166</f>
         <v>10141</v>
       </c>
     </row>
@@ -8031,15 +8299,15 @@
         <v>35217</v>
       </c>
       <c r="B164" s="8">
-        <f>+[1]Séries_Site!B167</f>
+        <f ca="1">+[1]Séries_Site!B167</f>
         <v>114276</v>
       </c>
       <c r="C164" s="9">
-        <f>+[1]Séries_Site!C167</f>
+        <f ca="1">+[1]Séries_Site!C167</f>
         <v>104080</v>
       </c>
       <c r="D164" s="9">
-        <f>+[1]Séries_Site!D167</f>
+        <f ca="1">+[1]Séries_Site!D167</f>
         <v>10196</v>
       </c>
     </row>
@@ -8048,15 +8316,15 @@
         <v>35247</v>
       </c>
       <c r="B165" s="8">
-        <f>+[1]Séries_Site!B168</f>
+        <f ca="1">+[1]Séries_Site!B168</f>
         <v>113885</v>
       </c>
       <c r="C165" s="9">
-        <f>+[1]Séries_Site!C168</f>
+        <f ca="1">+[1]Séries_Site!C168</f>
         <v>103672</v>
       </c>
       <c r="D165" s="9">
-        <f>+[1]Séries_Site!D168</f>
+        <f ca="1">+[1]Séries_Site!D168</f>
         <v>10213</v>
       </c>
     </row>
@@ -8065,15 +8333,15 @@
         <v>35278</v>
       </c>
       <c r="B166" s="8">
-        <f>+[1]Séries_Site!B169</f>
+        <f ca="1">+[1]Séries_Site!B169</f>
         <v>113500</v>
       </c>
       <c r="C166" s="9">
-        <f>+[1]Séries_Site!C169</f>
+        <f ca="1">+[1]Séries_Site!C169</f>
         <v>103606</v>
       </c>
       <c r="D166" s="9">
-        <f>+[1]Séries_Site!D169</f>
+        <f ca="1">+[1]Séries_Site!D169</f>
         <v>9894</v>
       </c>
     </row>
@@ -8082,15 +8350,15 @@
         <v>35309</v>
       </c>
       <c r="B167" s="8">
-        <f>+[1]Séries_Site!B170</f>
+        <f ca="1">+[1]Séries_Site!B170</f>
         <v>113739</v>
       </c>
       <c r="C167" s="9">
-        <f>+[1]Séries_Site!C170</f>
+        <f ca="1">+[1]Séries_Site!C170</f>
         <v>103868</v>
       </c>
       <c r="D167" s="9">
-        <f>+[1]Séries_Site!D170</f>
+        <f ca="1">+[1]Séries_Site!D170</f>
         <v>9871</v>
       </c>
     </row>
@@ -8099,15 +8367,15 @@
         <v>35339</v>
       </c>
       <c r="B168" s="8">
-        <f>+[1]Séries_Site!B171</f>
+        <f ca="1">+[1]Séries_Site!B171</f>
         <v>113282</v>
       </c>
       <c r="C168" s="9">
-        <f>+[1]Séries_Site!C171</f>
+        <f ca="1">+[1]Séries_Site!C171</f>
         <v>103560</v>
       </c>
       <c r="D168" s="9">
-        <f>+[1]Séries_Site!D171</f>
+        <f ca="1">+[1]Séries_Site!D171</f>
         <v>9722</v>
       </c>
     </row>
@@ -8116,15 +8384,15 @@
         <v>35370</v>
       </c>
       <c r="B169" s="8">
-        <f>+[1]Séries_Site!B172</f>
+        <f ca="1">+[1]Séries_Site!B172</f>
         <v>113366</v>
       </c>
       <c r="C169" s="9">
-        <f>+[1]Séries_Site!C172</f>
+        <f ca="1">+[1]Séries_Site!C172</f>
         <v>103688</v>
       </c>
       <c r="D169" s="9">
-        <f>+[1]Séries_Site!D172</f>
+        <f ca="1">+[1]Séries_Site!D172</f>
         <v>9678</v>
       </c>
     </row>
@@ -8133,15 +8401,15 @@
         <v>35400</v>
       </c>
       <c r="B170" s="8">
-        <f>+[1]Séries_Site!B173</f>
+        <f ca="1">+[1]Séries_Site!B173</f>
         <v>111460</v>
       </c>
       <c r="C170" s="9">
-        <f>+[1]Séries_Site!C173</f>
+        <f ca="1">+[1]Séries_Site!C173</f>
         <v>101857</v>
       </c>
       <c r="D170" s="9">
-        <f>+[1]Séries_Site!D173</f>
+        <f ca="1">+[1]Séries_Site!D173</f>
         <v>9603</v>
       </c>
     </row>
@@ -8150,15 +8418,15 @@
         <v>35431</v>
       </c>
       <c r="B171" s="8">
-        <f>+[1]Séries_Site!B174</f>
+        <f ca="1">+[1]Séries_Site!B174</f>
         <v>111256</v>
       </c>
       <c r="C171" s="9">
-        <f>+[1]Séries_Site!C174</f>
+        <f ca="1">+[1]Séries_Site!C174</f>
         <v>101650</v>
       </c>
       <c r="D171" s="9">
-        <f>+[1]Séries_Site!D174</f>
+        <f ca="1">+[1]Séries_Site!D174</f>
         <v>9606</v>
       </c>
     </row>
@@ -8167,15 +8435,15 @@
         <v>35462</v>
       </c>
       <c r="B172" s="8">
-        <f>+[1]Séries_Site!B175</f>
+        <f ca="1">+[1]Séries_Site!B175</f>
         <v>111802</v>
       </c>
       <c r="C172" s="9">
-        <f>+[1]Séries_Site!C175</f>
+        <f ca="1">+[1]Séries_Site!C175</f>
         <v>102042</v>
       </c>
       <c r="D172" s="9">
-        <f>+[1]Séries_Site!D175</f>
+        <f ca="1">+[1]Séries_Site!D175</f>
         <v>9760</v>
       </c>
     </row>
@@ -8184,15 +8452,15 @@
         <v>35490</v>
       </c>
       <c r="B173" s="8">
-        <f>+[1]Séries_Site!B176</f>
+        <f ca="1">+[1]Séries_Site!B176</f>
         <v>112484</v>
       </c>
       <c r="C173" s="9">
-        <f>+[1]Séries_Site!C176</f>
+        <f ca="1">+[1]Séries_Site!C176</f>
         <v>102721</v>
       </c>
       <c r="D173" s="9">
-        <f>+[1]Séries_Site!D176</f>
+        <f ca="1">+[1]Séries_Site!D176</f>
         <v>9763</v>
       </c>
     </row>
@@ -8201,15 +8469,15 @@
         <v>35521</v>
       </c>
       <c r="B174" s="8">
-        <f>+[1]Séries_Site!B177</f>
+        <f ca="1">+[1]Séries_Site!B177</f>
         <v>113502</v>
       </c>
       <c r="C174" s="9">
-        <f>+[1]Séries_Site!C177</f>
+        <f ca="1">+[1]Séries_Site!C177</f>
         <v>103699</v>
       </c>
       <c r="D174" s="9">
-        <f>+[1]Séries_Site!D177</f>
+        <f ca="1">+[1]Séries_Site!D177</f>
         <v>9803</v>
       </c>
     </row>
@@ -8218,15 +8486,15 @@
         <v>35551</v>
       </c>
       <c r="B175" s="8">
-        <f>+[1]Séries_Site!B178</f>
+        <f ca="1">+[1]Séries_Site!B178</f>
         <v>113966</v>
       </c>
       <c r="C175" s="9">
-        <f>+[1]Séries_Site!C178</f>
+        <f ca="1">+[1]Séries_Site!C178</f>
         <v>104133</v>
       </c>
       <c r="D175" s="9">
-        <f>+[1]Séries_Site!D178</f>
+        <f ca="1">+[1]Séries_Site!D178</f>
         <v>9833</v>
       </c>
     </row>
@@ -8235,15 +8503,15 @@
         <v>35582</v>
       </c>
       <c r="B176" s="8">
-        <f>+[1]Séries_Site!B179</f>
+        <f ca="1">+[1]Séries_Site!B179</f>
         <v>114801</v>
       </c>
       <c r="C176" s="9">
-        <f>+[1]Séries_Site!C179</f>
+        <f ca="1">+[1]Séries_Site!C179</f>
         <v>104892</v>
       </c>
       <c r="D176" s="9">
-        <f>+[1]Séries_Site!D179</f>
+        <f ca="1">+[1]Séries_Site!D179</f>
         <v>9909</v>
       </c>
     </row>
@@ -8252,15 +8520,15 @@
         <v>35612</v>
       </c>
       <c r="B177" s="8">
-        <f>+[1]Séries_Site!B180</f>
+        <f ca="1">+[1]Séries_Site!B180</f>
         <v>115458</v>
       </c>
       <c r="C177" s="9">
-        <f>+[1]Séries_Site!C180</f>
+        <f ca="1">+[1]Séries_Site!C180</f>
         <v>105510</v>
       </c>
       <c r="D177" s="9">
-        <f>+[1]Séries_Site!D180</f>
+        <f ca="1">+[1]Séries_Site!D180</f>
         <v>9948</v>
       </c>
     </row>
@@ -8269,15 +8537,15 @@
         <v>35643</v>
       </c>
       <c r="B178" s="8">
-        <f>+[1]Séries_Site!B181</f>
+        <f ca="1">+[1]Séries_Site!B181</f>
         <v>115944</v>
       </c>
       <c r="C178" s="9">
-        <f>+[1]Séries_Site!C181</f>
+        <f ca="1">+[1]Séries_Site!C181</f>
         <v>105842</v>
       </c>
       <c r="D178" s="9">
-        <f>+[1]Séries_Site!D181</f>
+        <f ca="1">+[1]Séries_Site!D181</f>
         <v>10102</v>
       </c>
     </row>
@@ -8286,15 +8554,15 @@
         <v>35674</v>
       </c>
       <c r="B179" s="8">
-        <f>+[1]Séries_Site!B182</f>
+        <f ca="1">+[1]Séries_Site!B182</f>
         <v>116507</v>
       </c>
       <c r="C179" s="9">
-        <f>+[1]Séries_Site!C182</f>
+        <f ca="1">+[1]Séries_Site!C182</f>
         <v>106212</v>
       </c>
       <c r="D179" s="9">
-        <f>+[1]Séries_Site!D182</f>
+        <f ca="1">+[1]Séries_Site!D182</f>
         <v>10295</v>
       </c>
     </row>
@@ -8303,15 +8571,15 @@
         <v>35704</v>
       </c>
       <c r="B180" s="8">
-        <f>+[1]Séries_Site!B183</f>
+        <f ca="1">+[1]Séries_Site!B183</f>
         <v>117013</v>
       </c>
       <c r="C180" s="9">
-        <f>+[1]Séries_Site!C183</f>
+        <f ca="1">+[1]Séries_Site!C183</f>
         <v>106600</v>
       </c>
       <c r="D180" s="9">
-        <f>+[1]Séries_Site!D183</f>
+        <f ca="1">+[1]Séries_Site!D183</f>
         <v>10413</v>
       </c>
     </row>
@@ -8320,15 +8588,15 @@
         <v>35735</v>
       </c>
       <c r="B181" s="8">
-        <f>+[1]Séries_Site!B184</f>
+        <f ca="1">+[1]Séries_Site!B184</f>
         <v>116448</v>
       </c>
       <c r="C181" s="9">
-        <f>+[1]Séries_Site!C184</f>
+        <f ca="1">+[1]Séries_Site!C184</f>
         <v>105900</v>
       </c>
       <c r="D181" s="9">
-        <f>+[1]Séries_Site!D184</f>
+        <f ca="1">+[1]Séries_Site!D184</f>
         <v>10548</v>
       </c>
     </row>
@@ -8337,15 +8605,15 @@
         <v>35765</v>
       </c>
       <c r="B182" s="8">
-        <f>+[1]Séries_Site!B185</f>
+        <f ca="1">+[1]Séries_Site!B185</f>
         <v>115349</v>
       </c>
       <c r="C182" s="9">
-        <f>+[1]Séries_Site!C185</f>
+        <f ca="1">+[1]Séries_Site!C185</f>
         <v>104941</v>
       </c>
       <c r="D182" s="9">
-        <f>+[1]Séries_Site!D185</f>
+        <f ca="1">+[1]Séries_Site!D185</f>
         <v>10408</v>
       </c>
     </row>
@@ -8354,15 +8622,15 @@
         <v>35796</v>
       </c>
       <c r="B183" s="8">
-        <f>+[1]Séries_Site!B186</f>
+        <f ca="1">+[1]Séries_Site!B186</f>
         <v>113958</v>
       </c>
       <c r="C183" s="9">
-        <f>+[1]Séries_Site!C186</f>
+        <f ca="1">+[1]Séries_Site!C186</f>
         <v>103395</v>
       </c>
       <c r="D183" s="9">
-        <f>+[1]Séries_Site!D186</f>
+        <f ca="1">+[1]Séries_Site!D186</f>
         <v>10563</v>
       </c>
     </row>
@@ -8371,15 +8639,15 @@
         <v>35827</v>
       </c>
       <c r="B184" s="8">
-        <f>+[1]Séries_Site!B187</f>
+        <f ca="1">+[1]Séries_Site!B187</f>
         <v>112123</v>
       </c>
       <c r="C184" s="9">
-        <f>+[1]Séries_Site!C187</f>
+        <f ca="1">+[1]Séries_Site!C187</f>
         <v>101366</v>
       </c>
       <c r="D184" s="9">
-        <f>+[1]Séries_Site!D187</f>
+        <f ca="1">+[1]Séries_Site!D187</f>
         <v>10757</v>
       </c>
     </row>
@@ -8388,15 +8656,15 @@
         <v>35855</v>
       </c>
       <c r="B185" s="8">
-        <f>+[1]Séries_Site!B188</f>
+        <f ca="1">+[1]Séries_Site!B188</f>
         <v>111958</v>
       </c>
       <c r="C185" s="9">
-        <f>+[1]Séries_Site!C188</f>
+        <f ca="1">+[1]Séries_Site!C188</f>
         <v>101132</v>
       </c>
       <c r="D185" s="9">
-        <f>+[1]Séries_Site!D188</f>
+        <f ca="1">+[1]Séries_Site!D188</f>
         <v>10826</v>
       </c>
     </row>
@@ -8405,15 +8673,15 @@
         <v>35886</v>
       </c>
       <c r="B186" s="8">
-        <f>+[1]Séries_Site!B189</f>
+        <f ca="1">+[1]Séries_Site!B189</f>
         <v>111061</v>
       </c>
       <c r="C186" s="9">
-        <f>+[1]Séries_Site!C189</f>
+        <f ca="1">+[1]Séries_Site!C189</f>
         <v>100168</v>
       </c>
       <c r="D186" s="9">
-        <f>+[1]Séries_Site!D189</f>
+        <f ca="1">+[1]Séries_Site!D189</f>
         <v>10893</v>
       </c>
     </row>
@@ -8422,15 +8690,15 @@
         <v>35916</v>
       </c>
       <c r="B187" s="8">
-        <f>+[1]Séries_Site!B190</f>
+        <f ca="1">+[1]Séries_Site!B190</f>
         <v>111089</v>
       </c>
       <c r="C187" s="9">
-        <f>+[1]Séries_Site!C190</f>
+        <f ca="1">+[1]Séries_Site!C190</f>
         <v>100147</v>
       </c>
       <c r="D187" s="9">
-        <f>+[1]Séries_Site!D190</f>
+        <f ca="1">+[1]Séries_Site!D190</f>
         <v>10942</v>
       </c>
     </row>
@@ -8439,15 +8707,15 @@
         <v>35947</v>
       </c>
       <c r="B188" s="8">
-        <f>+[1]Séries_Site!B191</f>
+        <f ca="1">+[1]Séries_Site!B191</f>
         <v>111134</v>
       </c>
       <c r="C188" s="9">
-        <f>+[1]Séries_Site!C191</f>
+        <f ca="1">+[1]Séries_Site!C191</f>
         <v>100145</v>
       </c>
       <c r="D188" s="9">
-        <f>+[1]Séries_Site!D191</f>
+        <f ca="1">+[1]Séries_Site!D191</f>
         <v>10989</v>
       </c>
     </row>
@@ -8456,15 +8724,15 @@
         <v>35977</v>
       </c>
       <c r="B189" s="8">
-        <f>+[1]Séries_Site!B192</f>
+        <f ca="1">+[1]Séries_Site!B192</f>
         <v>111371</v>
       </c>
       <c r="C189" s="9">
-        <f>+[1]Séries_Site!C192</f>
+        <f ca="1">+[1]Séries_Site!C192</f>
         <v>100298</v>
       </c>
       <c r="D189" s="9">
-        <f>+[1]Séries_Site!D192</f>
+        <f ca="1">+[1]Séries_Site!D192</f>
         <v>11073</v>
       </c>
     </row>
@@ -8473,15 +8741,15 @@
         <v>36008</v>
       </c>
       <c r="B190" s="8">
-        <f>+[1]Séries_Site!B193</f>
+        <f ca="1">+[1]Séries_Site!B193</f>
         <v>109654</v>
       </c>
       <c r="C190" s="9">
-        <f>+[1]Séries_Site!C193</f>
+        <f ca="1">+[1]Séries_Site!C193</f>
         <v>98645</v>
       </c>
       <c r="D190" s="9">
-        <f>+[1]Séries_Site!D193</f>
+        <f ca="1">+[1]Séries_Site!D193</f>
         <v>11009</v>
       </c>
     </row>
@@ -8490,15 +8758,15 @@
         <v>36039</v>
       </c>
       <c r="B191" s="8">
-        <f>+[1]Séries_Site!B194</f>
+        <f ca="1">+[1]Séries_Site!B194</f>
         <v>108383</v>
       </c>
       <c r="C191" s="9">
-        <f>+[1]Séries_Site!C194</f>
+        <f ca="1">+[1]Séries_Site!C194</f>
         <v>97472</v>
       </c>
       <c r="D191" s="9">
-        <f>+[1]Séries_Site!D194</f>
+        <f ca="1">+[1]Séries_Site!D194</f>
         <v>10911</v>
       </c>
     </row>
@@ -8507,15 +8775,15 @@
         <v>36069</v>
       </c>
       <c r="B192" s="8">
-        <f>+[1]Séries_Site!B195</f>
+        <f ca="1">+[1]Séries_Site!B195</f>
         <v>104230</v>
       </c>
       <c r="C192" s="9">
-        <f>+[1]Séries_Site!C195</f>
+        <f ca="1">+[1]Séries_Site!C195</f>
         <v>93569</v>
       </c>
       <c r="D192" s="9">
-        <f>+[1]Séries_Site!D195</f>
+        <f ca="1">+[1]Séries_Site!D195</f>
         <v>10661</v>
       </c>
     </row>
@@ -8524,15 +8792,15 @@
         <v>36100</v>
       </c>
       <c r="B193" s="8">
-        <f>+[1]Séries_Site!B196</f>
+        <f ca="1">+[1]Séries_Site!B196</f>
         <v>100437</v>
       </c>
       <c r="C193" s="9">
-        <f>+[1]Séries_Site!C196</f>
+        <f ca="1">+[1]Séries_Site!C196</f>
         <v>90037</v>
       </c>
       <c r="D193" s="9">
-        <f>+[1]Séries_Site!D196</f>
+        <f ca="1">+[1]Séries_Site!D196</f>
         <v>10400</v>
       </c>
     </row>
@@ -8541,15 +8809,15 @@
         <v>36130</v>
       </c>
       <c r="B194" s="8">
-        <f>+[1]Séries_Site!B197</f>
+        <f ca="1">+[1]Séries_Site!B197</f>
         <v>93135</v>
       </c>
       <c r="C194" s="9">
-        <f>+[1]Séries_Site!C197</f>
+        <f ca="1">+[1]Séries_Site!C197</f>
         <v>83049</v>
       </c>
       <c r="D194" s="9">
-        <f>+[1]Séries_Site!D197</f>
+        <f ca="1">+[1]Séries_Site!D197</f>
         <v>10086</v>
       </c>
     </row>
@@ -8558,15 +8826,15 @@
         <v>36161</v>
       </c>
       <c r="B195" s="8">
-        <f>+[1]Séries_Site!B198</f>
+        <f ca="1">+[1]Séries_Site!B198</f>
         <v>93824</v>
       </c>
       <c r="C195" s="9">
-        <f>+[1]Séries_Site!C198</f>
+        <f ca="1">+[1]Séries_Site!C198</f>
         <v>83846</v>
       </c>
       <c r="D195" s="9">
-        <f>+[1]Séries_Site!D198</f>
+        <f ca="1">+[1]Séries_Site!D198</f>
         <v>9978</v>
       </c>
     </row>
@@ -8575,15 +8843,15 @@
         <v>36192</v>
       </c>
       <c r="B196" s="8">
-        <f>+[1]Séries_Site!B199</f>
+        <f ca="1">+[1]Séries_Site!B199</f>
         <v>93561</v>
       </c>
       <c r="C196" s="9">
-        <f>+[1]Séries_Site!C199</f>
+        <f ca="1">+[1]Séries_Site!C199</f>
         <v>83655</v>
       </c>
       <c r="D196" s="9">
-        <f>+[1]Séries_Site!D199</f>
+        <f ca="1">+[1]Séries_Site!D199</f>
         <v>9906</v>
       </c>
     </row>
@@ -8592,15 +8860,15 @@
         <v>36220</v>
       </c>
       <c r="B197" s="8">
-        <f>+[1]Séries_Site!B200</f>
+        <f ca="1">+[1]Séries_Site!B200</f>
         <v>93369</v>
       </c>
       <c r="C197" s="9">
-        <f>+[1]Séries_Site!C200</f>
+        <f ca="1">+[1]Séries_Site!C200</f>
         <v>83567</v>
       </c>
       <c r="D197" s="9">
-        <f>+[1]Séries_Site!D200</f>
+        <f ca="1">+[1]Séries_Site!D200</f>
         <v>9802</v>
       </c>
     </row>
@@ -8609,15 +8877,15 @@
         <v>36251</v>
       </c>
       <c r="B198" s="8">
-        <f>+[1]Séries_Site!B201</f>
+        <f ca="1">+[1]Séries_Site!B201</f>
         <v>93129</v>
       </c>
       <c r="C198" s="9">
-        <f>+[1]Séries_Site!C201</f>
+        <f ca="1">+[1]Séries_Site!C201</f>
         <v>83424</v>
       </c>
       <c r="D198" s="9">
-        <f>+[1]Séries_Site!D201</f>
+        <f ca="1">+[1]Séries_Site!D201</f>
         <v>9705</v>
       </c>
     </row>
@@ -8626,15 +8894,15 @@
         <v>36281</v>
       </c>
       <c r="B199" s="8">
-        <f>+[1]Séries_Site!B202</f>
+        <f ca="1">+[1]Séries_Site!B202</f>
         <v>92703</v>
       </c>
       <c r="C199" s="9">
-        <f>+[1]Séries_Site!C202</f>
+        <f ca="1">+[1]Séries_Site!C202</f>
         <v>83064</v>
       </c>
       <c r="D199" s="9">
-        <f>+[1]Séries_Site!D202</f>
+        <f ca="1">+[1]Séries_Site!D202</f>
         <v>9639</v>
       </c>
     </row>
@@ -8643,15 +8911,15 @@
         <v>36312</v>
       </c>
       <c r="B200" s="8">
-        <f>+[1]Séries_Site!B203</f>
+        <f ca="1">+[1]Séries_Site!B203</f>
         <v>93679</v>
       </c>
       <c r="C200" s="9">
-        <f>+[1]Séries_Site!C203</f>
+        <f ca="1">+[1]Séries_Site!C203</f>
         <v>84115</v>
       </c>
       <c r="D200" s="9">
-        <f>+[1]Séries_Site!D203</f>
+        <f ca="1">+[1]Séries_Site!D203</f>
         <v>9564</v>
       </c>
     </row>
@@ -8660,15 +8928,15 @@
         <v>36342</v>
       </c>
       <c r="B201" s="8">
-        <f>+[1]Séries_Site!B204</f>
+        <f ca="1">+[1]Séries_Site!B204</f>
         <v>94279</v>
       </c>
       <c r="C201" s="9">
-        <f>+[1]Séries_Site!C204</f>
+        <f ca="1">+[1]Séries_Site!C204</f>
         <v>84764</v>
       </c>
       <c r="D201" s="9">
-        <f>+[1]Séries_Site!D204</f>
+        <f ca="1">+[1]Séries_Site!D204</f>
         <v>9515</v>
       </c>
     </row>
@@ -8677,15 +8945,15 @@
         <v>36373</v>
       </c>
       <c r="B202" s="8">
-        <f>+[1]Séries_Site!B205</f>
+        <f ca="1">+[1]Séries_Site!B205</f>
         <v>94557</v>
       </c>
       <c r="C202" s="9">
-        <f>+[1]Séries_Site!C205</f>
+        <f ca="1">+[1]Séries_Site!C205</f>
         <v>85147</v>
       </c>
       <c r="D202" s="9">
-        <f>+[1]Séries_Site!D205</f>
+        <f ca="1">+[1]Séries_Site!D205</f>
         <v>9410</v>
       </c>
     </row>
@@ -8694,15 +8962,15 @@
         <v>36404</v>
       </c>
       <c r="B203" s="8">
-        <f>+[1]Séries_Site!B206</f>
+        <f ca="1">+[1]Séries_Site!B206</f>
         <v>95067</v>
       </c>
       <c r="C203" s="9">
-        <f>+[1]Séries_Site!C206</f>
+        <f ca="1">+[1]Séries_Site!C206</f>
         <v>85772</v>
       </c>
       <c r="D203" s="9">
-        <f>+[1]Séries_Site!D206</f>
+        <f ca="1">+[1]Séries_Site!D206</f>
         <v>9295</v>
       </c>
     </row>
@@ -8711,15 +8979,15 @@
         <v>36434</v>
       </c>
       <c r="B204" s="8">
-        <f>+[1]Séries_Site!B207</f>
+        <f ca="1">+[1]Séries_Site!B207</f>
         <v>95469</v>
       </c>
       <c r="C204" s="9">
-        <f>+[1]Séries_Site!C207</f>
+        <f ca="1">+[1]Séries_Site!C207</f>
         <v>86077</v>
       </c>
       <c r="D204" s="9">
-        <f>+[1]Séries_Site!D207</f>
+        <f ca="1">+[1]Séries_Site!D207</f>
         <v>9392</v>
       </c>
     </row>
@@ -8728,15 +8996,15 @@
         <v>36465</v>
       </c>
       <c r="B205" s="8">
-        <f>+[1]Séries_Site!B208</f>
+        <f ca="1">+[1]Séries_Site!B208</f>
         <v>95598</v>
       </c>
       <c r="C205" s="9">
-        <f>+[1]Séries_Site!C208</f>
+        <f ca="1">+[1]Séries_Site!C208</f>
         <v>86177</v>
       </c>
       <c r="D205" s="9">
-        <f>+[1]Séries_Site!D208</f>
+        <f ca="1">+[1]Séries_Site!D208</f>
         <v>9421</v>
       </c>
     </row>
@@ -8745,15 +9013,15 @@
         <v>36495</v>
       </c>
       <c r="B206" s="8">
-        <f>+[1]Séries_Site!B209</f>
+        <f ca="1">+[1]Séries_Site!B209</f>
         <v>94472</v>
       </c>
       <c r="C206" s="9">
-        <f>+[1]Séries_Site!C209</f>
+        <f ca="1">+[1]Séries_Site!C209</f>
         <v>85100</v>
       </c>
       <c r="D206" s="9">
-        <f>+[1]Séries_Site!D209</f>
+        <f ca="1">+[1]Séries_Site!D209</f>
         <v>9372</v>
       </c>
     </row>
@@ -8762,15 +9030,15 @@
         <v>36526</v>
       </c>
       <c r="B207" s="8">
-        <f>+[1]Séries_Site!B210</f>
+        <f ca="1">+[1]Séries_Site!B210</f>
         <v>94349</v>
       </c>
       <c r="C207" s="9">
-        <f>+[1]Séries_Site!C210</f>
+        <f ca="1">+[1]Séries_Site!C210</f>
         <v>84917</v>
       </c>
       <c r="D207" s="9">
-        <f>+[1]Séries_Site!D210</f>
+        <f ca="1">+[1]Séries_Site!D210</f>
         <v>9432</v>
       </c>
     </row>
@@ -8779,15 +9047,15 @@
         <v>36557</v>
       </c>
       <c r="B208" s="8">
-        <f>+[1]Séries_Site!B211</f>
+        <f ca="1">+[1]Séries_Site!B211</f>
         <v>93969</v>
       </c>
       <c r="C208" s="9">
-        <f>+[1]Séries_Site!C211</f>
+        <f ca="1">+[1]Séries_Site!C211</f>
         <v>84599</v>
       </c>
       <c r="D208" s="9">
-        <f>+[1]Séries_Site!D211</f>
+        <f ca="1">+[1]Séries_Site!D211</f>
         <v>9370</v>
       </c>
     </row>
@@ -8796,15 +9064,15 @@
         <v>36586</v>
       </c>
       <c r="B209" s="8">
-        <f>+[1]Séries_Site!B212</f>
+        <f ca="1">+[1]Séries_Site!B212</f>
         <v>94234</v>
       </c>
       <c r="C209" s="9">
-        <f>+[1]Séries_Site!C212</f>
+        <f ca="1">+[1]Séries_Site!C212</f>
         <v>84953</v>
       </c>
       <c r="D209" s="9">
-        <f>+[1]Séries_Site!D212</f>
+        <f ca="1">+[1]Séries_Site!D212</f>
         <v>9281</v>
       </c>
     </row>
@@ -8813,15 +9081,15 @@
         <v>36617</v>
       </c>
       <c r="B210" s="8">
-        <f>+[1]Séries_Site!B213</f>
+        <f ca="1">+[1]Séries_Site!B213</f>
         <v>94492</v>
       </c>
       <c r="C210" s="9">
-        <f>+[1]Séries_Site!C213</f>
+        <f ca="1">+[1]Séries_Site!C213</f>
         <v>85154</v>
       </c>
       <c r="D210" s="9">
-        <f>+[1]Séries_Site!D213</f>
+        <f ca="1">+[1]Séries_Site!D213</f>
         <v>9338</v>
       </c>
     </row>
@@ -8830,15 +9098,15 @@
         <v>36647</v>
       </c>
       <c r="B211" s="8">
-        <f>+[1]Séries_Site!B214</f>
+        <f ca="1">+[1]Séries_Site!B214</f>
         <v>95385</v>
       </c>
       <c r="C211" s="9">
-        <f>+[1]Séries_Site!C214</f>
+        <f ca="1">+[1]Séries_Site!C214</f>
         <v>85987</v>
       </c>
       <c r="D211" s="9">
-        <f>+[1]Séries_Site!D214</f>
+        <f ca="1">+[1]Séries_Site!D214</f>
         <v>9398</v>
       </c>
     </row>
@@ -8847,15 +9115,15 @@
         <v>36678</v>
       </c>
       <c r="B212" s="8">
-        <f>+[1]Séries_Site!B215</f>
+        <f ca="1">+[1]Séries_Site!B215</f>
         <v>95996</v>
       </c>
       <c r="C212" s="9">
-        <f>+[1]Séries_Site!C215</f>
+        <f ca="1">+[1]Séries_Site!C215</f>
         <v>86613</v>
       </c>
       <c r="D212" s="9">
-        <f>+[1]Séries_Site!D215</f>
+        <f ca="1">+[1]Séries_Site!D215</f>
         <v>9383</v>
       </c>
     </row>
@@ -8864,15 +9132,15 @@
         <v>36708</v>
       </c>
       <c r="B213" s="8">
-        <f>+[1]Séries_Site!B216</f>
+        <f ca="1">+[1]Séries_Site!B216</f>
         <v>96946</v>
       </c>
       <c r="C213" s="9">
-        <f>+[1]Séries_Site!C216</f>
+        <f ca="1">+[1]Séries_Site!C216</f>
         <v>87615</v>
       </c>
       <c r="D213" s="9">
-        <f>+[1]Séries_Site!D216</f>
+        <f ca="1">+[1]Séries_Site!D216</f>
         <v>9331</v>
       </c>
     </row>
@@ -8881,15 +9149,15 @@
         <v>36739</v>
       </c>
       <c r="B214" s="8">
-        <f>+[1]Séries_Site!B217</f>
+        <f ca="1">+[1]Séries_Site!B217</f>
         <v>97674</v>
       </c>
       <c r="C214" s="9">
-        <f>+[1]Séries_Site!C217</f>
+        <f ca="1">+[1]Séries_Site!C217</f>
         <v>88397</v>
       </c>
       <c r="D214" s="9">
-        <f>+[1]Séries_Site!D217</f>
+        <f ca="1">+[1]Séries_Site!D217</f>
         <v>9277</v>
       </c>
     </row>
@@ -8898,15 +9166,15 @@
         <v>36770</v>
       </c>
       <c r="B215" s="8">
-        <f>+[1]Séries_Site!B218</f>
+        <f ca="1">+[1]Séries_Site!B218</f>
         <v>97905</v>
       </c>
       <c r="C215" s="9">
-        <f>+[1]Séries_Site!C218</f>
+        <f ca="1">+[1]Séries_Site!C218</f>
         <v>88514</v>
       </c>
       <c r="D215" s="9">
-        <f>+[1]Séries_Site!D218</f>
+        <f ca="1">+[1]Séries_Site!D218</f>
         <v>9391</v>
       </c>
     </row>
@@ -8915,15 +9183,15 @@
         <v>36800</v>
       </c>
       <c r="B216" s="8">
-        <f>+[1]Séries_Site!B219</f>
+        <f ca="1">+[1]Séries_Site!B219</f>
         <v>98382</v>
       </c>
       <c r="C216" s="9">
-        <f>+[1]Séries_Site!C219</f>
+        <f ca="1">+[1]Séries_Site!C219</f>
         <v>88916</v>
       </c>
       <c r="D216" s="9">
-        <f>+[1]Séries_Site!D219</f>
+        <f ca="1">+[1]Séries_Site!D219</f>
         <v>9466</v>
       </c>
     </row>
@@ -8932,15 +9200,15 @@
         <v>36831</v>
       </c>
       <c r="B217" s="8">
-        <f>+[1]Séries_Site!B220</f>
+        <f ca="1">+[1]Séries_Site!B220</f>
         <v>98231</v>
       </c>
       <c r="C217" s="9">
-        <f>+[1]Séries_Site!C220</f>
+        <f ca="1">+[1]Séries_Site!C220</f>
         <v>88757</v>
       </c>
       <c r="D217" s="9">
-        <f>+[1]Séries_Site!D220</f>
+        <f ca="1">+[1]Séries_Site!D220</f>
         <v>9474</v>
       </c>
     </row>
@@ -8949,15 +9217,15 @@
         <v>36861</v>
       </c>
       <c r="B218" s="8">
-        <f>+[1]Séries_Site!B221</f>
+        <f ca="1">+[1]Séries_Site!B221</f>
         <v>98614</v>
       </c>
       <c r="C218" s="9">
-        <f>+[1]Séries_Site!C221</f>
+        <f ca="1">+[1]Séries_Site!C221</f>
         <v>89134</v>
       </c>
       <c r="D218" s="9">
-        <f>+[1]Séries_Site!D221</f>
+        <f ca="1">+[1]Séries_Site!D221</f>
         <v>9480</v>
       </c>
     </row>
@@ -8966,15 +9234,15 @@
         <v>36892</v>
       </c>
       <c r="B219" s="8">
-        <f>+[1]Séries_Site!B222</f>
+        <f ca="1">+[1]Séries_Site!B222</f>
         <v>93846</v>
       </c>
       <c r="C219" s="9">
-        <f>+[1]Séries_Site!C222</f>
+        <f ca="1">+[1]Séries_Site!C222</f>
         <v>84363</v>
       </c>
       <c r="D219" s="9">
-        <f>+[1]Séries_Site!D222</f>
+        <f ca="1">+[1]Séries_Site!D222</f>
         <v>9483</v>
       </c>
     </row>
@@ -8983,15 +9251,15 @@
         <v>36923</v>
       </c>
       <c r="B220" s="8">
-        <f>+[1]Séries_Site!B223</f>
+        <f ca="1">+[1]Séries_Site!B223</f>
         <v>94558</v>
       </c>
       <c r="C220" s="9">
-        <f>+[1]Séries_Site!C223</f>
+        <f ca="1">+[1]Séries_Site!C223</f>
         <v>85091</v>
       </c>
       <c r="D220" s="9">
-        <f>+[1]Séries_Site!D223</f>
+        <f ca="1">+[1]Séries_Site!D223</f>
         <v>9467</v>
       </c>
     </row>
@@ -9000,15 +9268,15 @@
         <v>36951</v>
       </c>
       <c r="B221" s="8">
-        <f>+[1]Séries_Site!B224</f>
+        <f ca="1">+[1]Séries_Site!B224</f>
         <v>95231</v>
       </c>
       <c r="C221" s="9">
-        <f>+[1]Séries_Site!C224</f>
+        <f ca="1">+[1]Séries_Site!C224</f>
         <v>85690</v>
       </c>
       <c r="D221" s="9">
-        <f>+[1]Séries_Site!D224</f>
+        <f ca="1">+[1]Séries_Site!D224</f>
         <v>9541</v>
       </c>
     </row>
@@ -9017,15 +9285,15 @@
         <v>36982</v>
       </c>
       <c r="B222" s="8">
-        <f>+[1]Séries_Site!B225</f>
+        <f ca="1">+[1]Séries_Site!B225</f>
         <v>95903</v>
       </c>
       <c r="C222" s="9">
-        <f>+[1]Séries_Site!C225</f>
+        <f ca="1">+[1]Séries_Site!C225</f>
         <v>86401</v>
       </c>
       <c r="D222" s="9">
-        <f>+[1]Séries_Site!D225</f>
+        <f ca="1">+[1]Séries_Site!D225</f>
         <v>9502</v>
       </c>
     </row>
@@ -9034,15 +9302,15 @@
         <v>37012</v>
       </c>
       <c r="B223" s="8">
-        <f>+[1]Séries_Site!B226</f>
+        <f ca="1">+[1]Séries_Site!B226</f>
         <v>96423</v>
       </c>
       <c r="C223" s="9">
-        <f>+[1]Séries_Site!C226</f>
+        <f ca="1">+[1]Séries_Site!C226</f>
         <v>86809</v>
       </c>
       <c r="D223" s="9">
-        <f>+[1]Séries_Site!D226</f>
+        <f ca="1">+[1]Séries_Site!D226</f>
         <v>9614</v>
       </c>
     </row>
@@ -9051,15 +9319,15 @@
         <v>37043</v>
       </c>
       <c r="B224" s="8">
-        <f>+[1]Séries_Site!B227</f>
+        <f ca="1">+[1]Séries_Site!B227</f>
         <v>96484</v>
       </c>
       <c r="C224" s="9">
-        <f>+[1]Séries_Site!C227</f>
+        <f ca="1">+[1]Séries_Site!C227</f>
         <v>86877</v>
       </c>
       <c r="D224" s="9">
-        <f>+[1]Séries_Site!D227</f>
+        <f ca="1">+[1]Séries_Site!D227</f>
         <v>9607</v>
       </c>
     </row>
@@ -9068,15 +9336,15 @@
         <v>37073</v>
       </c>
       <c r="B225" s="8">
-        <f>+[1]Séries_Site!B228</f>
+        <f ca="1">+[1]Séries_Site!B228</f>
         <v>96130</v>
       </c>
       <c r="C225" s="9">
-        <f>+[1]Séries_Site!C228</f>
+        <f ca="1">+[1]Séries_Site!C228</f>
         <v>86576</v>
       </c>
       <c r="D225" s="9">
-        <f>+[1]Séries_Site!D228</f>
+        <f ca="1">+[1]Séries_Site!D228</f>
         <v>9554</v>
       </c>
     </row>
@@ -9085,15 +9353,15 @@
         <v>37104</v>
       </c>
       <c r="B226" s="8">
-        <f>+[1]Séries_Site!B229</f>
+        <f ca="1">+[1]Séries_Site!B229</f>
         <v>97188</v>
       </c>
       <c r="C226" s="9">
-        <f>+[1]Séries_Site!C229</f>
+        <f ca="1">+[1]Séries_Site!C229</f>
         <v>87505</v>
       </c>
       <c r="D226" s="9">
-        <f>+[1]Séries_Site!D229</f>
+        <f ca="1">+[1]Séries_Site!D229</f>
         <v>9683</v>
       </c>
     </row>
@@ -9102,15 +9370,15 @@
         <v>37135</v>
       </c>
       <c r="B227" s="8">
-        <f>+[1]Séries_Site!B230</f>
+        <f ca="1">+[1]Séries_Site!B230</f>
         <v>96620</v>
       </c>
       <c r="C227" s="9">
-        <f>+[1]Séries_Site!C230</f>
+        <f ca="1">+[1]Séries_Site!C230</f>
         <v>86778</v>
       </c>
       <c r="D227" s="9">
-        <f>+[1]Séries_Site!D230</f>
+        <f ca="1">+[1]Séries_Site!D230</f>
         <v>9842</v>
       </c>
     </row>
@@ -9119,15 +9387,15 @@
         <v>37165</v>
       </c>
       <c r="B228" s="8">
-        <f>+[1]Séries_Site!B231</f>
+        <f ca="1">+[1]Séries_Site!B231</f>
         <v>95369</v>
       </c>
       <c r="C228" s="9">
-        <f>+[1]Séries_Site!C231</f>
+        <f ca="1">+[1]Séries_Site!C231</f>
         <v>85580</v>
       </c>
       <c r="D228" s="9">
-        <f>+[1]Séries_Site!D231</f>
+        <f ca="1">+[1]Séries_Site!D231</f>
         <v>9789</v>
       </c>
     </row>
@@ -9136,15 +9404,15 @@
         <v>37196</v>
       </c>
       <c r="B229" s="8">
-        <f>+[1]Séries_Site!B232</f>
+        <f ca="1">+[1]Séries_Site!B232</f>
         <v>94819</v>
       </c>
       <c r="C229" s="9">
-        <f>+[1]Séries_Site!C232</f>
+        <f ca="1">+[1]Séries_Site!C232</f>
         <v>85361</v>
       </c>
       <c r="D229" s="9">
-        <f>+[1]Séries_Site!D232</f>
+        <f ca="1">+[1]Séries_Site!D232</f>
         <v>9458</v>
       </c>
     </row>
@@ -9153,15 +9421,15 @@
         <v>37226</v>
       </c>
       <c r="B230" s="8">
-        <f>+[1]Séries_Site!B233</f>
+        <f ca="1">+[1]Séries_Site!B233</f>
         <v>94055</v>
       </c>
       <c r="C230" s="9">
-        <f>+[1]Séries_Site!C233</f>
+        <f ca="1">+[1]Séries_Site!C233</f>
         <v>84834</v>
       </c>
       <c r="D230" s="9">
-        <f>+[1]Séries_Site!D233</f>
+        <f ca="1">+[1]Séries_Site!D233</f>
         <v>9221</v>
       </c>
     </row>
@@ -9170,15 +9438,15 @@
         <v>37257</v>
       </c>
       <c r="B231" s="8">
-        <f>+[1]Séries_Site!B234</f>
+        <f ca="1">+[1]Séries_Site!B234</f>
         <v>94093</v>
       </c>
       <c r="C231" s="9">
-        <f>+[1]Séries_Site!C234</f>
+        <f ca="1">+[1]Séries_Site!C234</f>
         <v>84639</v>
       </c>
       <c r="D231" s="9">
-        <f>+[1]Séries_Site!D234</f>
+        <f ca="1">+[1]Séries_Site!D234</f>
         <v>9454</v>
       </c>
     </row>
@@ -9187,15 +9455,15 @@
         <v>37288</v>
       </c>
       <c r="B232" s="8">
-        <f>+[1]Séries_Site!B235</f>
+        <f ca="1">+[1]Séries_Site!B235</f>
         <v>93799</v>
       </c>
       <c r="C232" s="9">
-        <f>+[1]Séries_Site!C235</f>
+        <f ca="1">+[1]Séries_Site!C235</f>
         <v>84208</v>
       </c>
       <c r="D232" s="9">
-        <f>+[1]Séries_Site!D235</f>
+        <f ca="1">+[1]Séries_Site!D235</f>
         <v>9591</v>
       </c>
     </row>
@@ -9204,15 +9472,15 @@
         <v>37316</v>
       </c>
       <c r="B233" s="8">
-        <f>+[1]Séries_Site!B236</f>
+        <f ca="1">+[1]Séries_Site!B236</f>
         <v>93922</v>
       </c>
       <c r="C233" s="9">
-        <f>+[1]Séries_Site!C236</f>
+        <f ca="1">+[1]Séries_Site!C236</f>
         <v>84320</v>
       </c>
       <c r="D233" s="9">
-        <f>+[1]Séries_Site!D236</f>
+        <f ca="1">+[1]Séries_Site!D236</f>
         <v>9602</v>
       </c>
     </row>
@@ -9221,15 +9489,15 @@
         <v>37347</v>
       </c>
       <c r="B234" s="8">
-        <f>+[1]Séries_Site!B237</f>
+        <f ca="1">+[1]Séries_Site!B237</f>
         <v>94287</v>
       </c>
       <c r="C234" s="9">
-        <f>+[1]Séries_Site!C237</f>
+        <f ca="1">+[1]Séries_Site!C237</f>
         <v>84403</v>
       </c>
       <c r="D234" s="9">
-        <f>+[1]Séries_Site!D237</f>
+        <f ca="1">+[1]Séries_Site!D237</f>
         <v>9884</v>
       </c>
     </row>
@@ -9238,15 +9506,15 @@
         <v>37377</v>
       </c>
       <c r="B235" s="8">
-        <f>+[1]Séries_Site!B238</f>
+        <f ca="1">+[1]Séries_Site!B238</f>
         <v>94278</v>
       </c>
       <c r="C235" s="9">
-        <f>+[1]Séries_Site!C238</f>
+        <f ca="1">+[1]Séries_Site!C238</f>
         <v>84361</v>
       </c>
       <c r="D235" s="9">
-        <f>+[1]Séries_Site!D238</f>
+        <f ca="1">+[1]Séries_Site!D238</f>
         <v>9917</v>
       </c>
     </row>
@@ -9255,15 +9523,15 @@
         <v>37408</v>
       </c>
       <c r="B236" s="8">
-        <f>+[1]Séries_Site!B239</f>
+        <f ca="1">+[1]Séries_Site!B239</f>
         <v>93730</v>
       </c>
       <c r="C236" s="9">
-        <f>+[1]Séries_Site!C239</f>
+        <f ca="1">+[1]Séries_Site!C239</f>
         <v>83891</v>
       </c>
       <c r="D236" s="9">
-        <f>+[1]Séries_Site!D239</f>
+        <f ca="1">+[1]Séries_Site!D239</f>
         <v>9839</v>
       </c>
     </row>
@@ -9272,15 +9540,15 @@
         <v>37438</v>
       </c>
       <c r="B237" s="8">
-        <f>+[1]Séries_Site!B240</f>
+        <f ca="1">+[1]Séries_Site!B240</f>
         <v>93141</v>
       </c>
       <c r="C237" s="9">
-        <f>+[1]Séries_Site!C240</f>
+        <f ca="1">+[1]Séries_Site!C240</f>
         <v>83432</v>
       </c>
       <c r="D237" s="9">
-        <f>+[1]Séries_Site!D240</f>
+        <f ca="1">+[1]Séries_Site!D240</f>
         <v>9709</v>
       </c>
     </row>
@@ -9289,15 +9557,15 @@
         <v>37469</v>
       </c>
       <c r="B238" s="8">
-        <f>+[1]Séries_Site!B241</f>
+        <f ca="1">+[1]Séries_Site!B241</f>
         <v>92549</v>
       </c>
       <c r="C238" s="9">
-        <f>+[1]Séries_Site!C241</f>
+        <f ca="1">+[1]Séries_Site!C241</f>
         <v>82880</v>
       </c>
       <c r="D238" s="9">
-        <f>+[1]Séries_Site!D241</f>
+        <f ca="1">+[1]Séries_Site!D241</f>
         <v>9669</v>
       </c>
     </row>
@@ -9306,15 +9574,15 @@
         <v>37500</v>
       </c>
       <c r="B239" s="8">
-        <f>+[1]Séries_Site!B242</f>
+        <f ca="1">+[1]Séries_Site!B242</f>
         <v>92113</v>
       </c>
       <c r="C239" s="9">
-        <f>+[1]Séries_Site!C242</f>
+        <f ca="1">+[1]Séries_Site!C242</f>
         <v>82457</v>
       </c>
       <c r="D239" s="9">
-        <f>+[1]Séries_Site!D242</f>
+        <f ca="1">+[1]Séries_Site!D242</f>
         <v>9656</v>
       </c>
     </row>
@@ -9323,15 +9591,15 @@
         <v>37530</v>
       </c>
       <c r="B240" s="8">
-        <f>+[1]Séries_Site!B243</f>
+        <f ca="1">+[1]Séries_Site!B243</f>
         <v>92211</v>
       </c>
       <c r="C240" s="9">
-        <f>+[1]Séries_Site!C243</f>
+        <f ca="1">+[1]Séries_Site!C243</f>
         <v>82261</v>
       </c>
       <c r="D240" s="9">
-        <f>+[1]Séries_Site!D243</f>
+        <f ca="1">+[1]Séries_Site!D243</f>
         <v>9950</v>
       </c>
     </row>
@@ -9340,15 +9608,15 @@
         <v>37561</v>
       </c>
       <c r="B241" s="8">
-        <f>+[1]Séries_Site!B244</f>
+        <f ca="1">+[1]Séries_Site!B244</f>
         <v>92086</v>
       </c>
       <c r="C241" s="9">
-        <f>+[1]Séries_Site!C244</f>
+        <f ca="1">+[1]Séries_Site!C244</f>
         <v>82127</v>
       </c>
       <c r="D241" s="9">
-        <f>+[1]Séries_Site!D244</f>
+        <f ca="1">+[1]Séries_Site!D244</f>
         <v>9959</v>
       </c>
     </row>
@@ -9357,15 +9625,15 @@
         <v>37591</v>
       </c>
       <c r="B242" s="8">
-        <f>+[1]Séries_Site!B245</f>
+        <f ca="1">+[1]Séries_Site!B245</f>
         <v>91533</v>
       </c>
       <c r="C242" s="9">
-        <f>+[1]Séries_Site!C245</f>
+        <f ca="1">+[1]Séries_Site!C245</f>
         <v>81737</v>
       </c>
       <c r="D242" s="9">
-        <f>+[1]Séries_Site!D245</f>
+        <f ca="1">+[1]Séries_Site!D245</f>
         <v>9796</v>
       </c>
     </row>
@@ -9374,15 +9642,15 @@
         <v>37622</v>
       </c>
       <c r="B243" s="8">
-        <f>+[1]Séries_Site!B246</f>
+        <f ca="1">+[1]Séries_Site!B246</f>
         <v>91740</v>
       </c>
       <c r="C243" s="9">
-        <f>+[1]Séries_Site!C246</f>
+        <f ca="1">+[1]Séries_Site!C246</f>
         <v>81839</v>
       </c>
       <c r="D243" s="9">
-        <f>+[1]Séries_Site!D246</f>
+        <f ca="1">+[1]Séries_Site!D246</f>
         <v>9901</v>
       </c>
     </row>
@@ -9391,15 +9659,15 @@
         <v>37653</v>
       </c>
       <c r="B244" s="8">
-        <f>+[1]Séries_Site!B247</f>
+        <f ca="1">+[1]Séries_Site!B247</f>
         <v>92122</v>
       </c>
       <c r="C244" s="9">
-        <f>+[1]Séries_Site!C247</f>
+        <f ca="1">+[1]Séries_Site!C247</f>
         <v>82152</v>
       </c>
       <c r="D244" s="9">
-        <f>+[1]Séries_Site!D247</f>
+        <f ca="1">+[1]Séries_Site!D247</f>
         <v>9970</v>
       </c>
     </row>
@@ -9408,15 +9676,15 @@
         <v>37681</v>
       </c>
       <c r="B245" s="8">
-        <f>+[1]Séries_Site!B248</f>
+        <f ca="1">+[1]Séries_Site!B248</f>
         <v>92216</v>
       </c>
       <c r="C245" s="9">
-        <f>+[1]Séries_Site!C248</f>
+        <f ca="1">+[1]Séries_Site!C248</f>
         <v>82228</v>
       </c>
       <c r="D245" s="9">
-        <f>+[1]Séries_Site!D248</f>
+        <f ca="1">+[1]Séries_Site!D248</f>
         <v>9988</v>
       </c>
     </row>
@@ -9425,15 +9693,15 @@
         <v>37712</v>
       </c>
       <c r="B246" s="8">
-        <f>+[1]Séries_Site!B249</f>
+        <f ca="1">+[1]Séries_Site!B249</f>
         <v>92247</v>
       </c>
       <c r="C246" s="9">
-        <f>+[1]Séries_Site!C249</f>
+        <f ca="1">+[1]Séries_Site!C249</f>
         <v>82143</v>
       </c>
       <c r="D246" s="9">
-        <f>+[1]Séries_Site!D249</f>
+        <f ca="1">+[1]Séries_Site!D249</f>
         <v>10104</v>
       </c>
     </row>
@@ -9442,15 +9710,15 @@
         <v>37742</v>
       </c>
       <c r="B247" s="8">
-        <f>+[1]Séries_Site!B250</f>
+        <f ca="1">+[1]Séries_Site!B250</f>
         <v>92294</v>
       </c>
       <c r="C247" s="9">
-        <f>+[1]Séries_Site!C250</f>
+        <f ca="1">+[1]Séries_Site!C250</f>
         <v>82059</v>
       </c>
       <c r="D247" s="9">
-        <f>+[1]Séries_Site!D250</f>
+        <f ca="1">+[1]Séries_Site!D250</f>
         <v>10235</v>
       </c>
     </row>
@@ -9459,15 +9727,15 @@
         <v>37773</v>
       </c>
       <c r="B248" s="8">
-        <f>+[1]Séries_Site!B251</f>
+        <f ca="1">+[1]Séries_Site!B251</f>
         <v>92051</v>
       </c>
       <c r="C248" s="9">
-        <f>+[1]Séries_Site!C251</f>
+        <f ca="1">+[1]Séries_Site!C251</f>
         <v>81761</v>
       </c>
       <c r="D248" s="9">
-        <f>+[1]Séries_Site!D251</f>
+        <f ca="1">+[1]Séries_Site!D251</f>
         <v>10290</v>
       </c>
     </row>
@@ -9476,15 +9744,15 @@
         <v>37803</v>
       </c>
       <c r="B249" s="8">
-        <f>+[1]Séries_Site!B252</f>
+        <f ca="1">+[1]Séries_Site!B252</f>
         <v>92056</v>
       </c>
       <c r="C249" s="9">
-        <f>+[1]Séries_Site!C252</f>
+        <f ca="1">+[1]Séries_Site!C252</f>
         <v>81463</v>
       </c>
       <c r="D249" s="9">
-        <f>+[1]Séries_Site!D252</f>
+        <f ca="1">+[1]Séries_Site!D252</f>
         <v>10593</v>
       </c>
     </row>
@@ -9493,15 +9761,15 @@
         <v>37834</v>
       </c>
       <c r="B250" s="8">
-        <f>+[1]Séries_Site!B253</f>
+        <f ca="1">+[1]Séries_Site!B253</f>
         <v>92396</v>
       </c>
       <c r="C250" s="9">
-        <f>+[1]Séries_Site!C253</f>
+        <f ca="1">+[1]Séries_Site!C253</f>
         <v>81690</v>
       </c>
       <c r="D250" s="9">
-        <f>+[1]Séries_Site!D253</f>
+        <f ca="1">+[1]Séries_Site!D253</f>
         <v>10706</v>
       </c>
     </row>
@@ -9510,15 +9778,15 @@
         <v>37865</v>
       </c>
       <c r="B251" s="8">
-        <f>+[1]Séries_Site!B254</f>
+        <f ca="1">+[1]Séries_Site!B254</f>
         <v>92562</v>
       </c>
       <c r="C251" s="9">
-        <f>+[1]Séries_Site!C254</f>
+        <f ca="1">+[1]Séries_Site!C254</f>
         <v>81634</v>
       </c>
       <c r="D251" s="9">
-        <f>+[1]Séries_Site!D254</f>
+        <f ca="1">+[1]Séries_Site!D254</f>
         <v>10928</v>
       </c>
     </row>
@@ -9527,15 +9795,15 @@
         <v>37895</v>
       </c>
       <c r="B252" s="8">
-        <f>+[1]Séries_Site!B255</f>
+        <f ca="1">+[1]Séries_Site!B255</f>
         <v>92785</v>
       </c>
       <c r="C252" s="9">
-        <f>+[1]Séries_Site!C255</f>
+        <f ca="1">+[1]Séries_Site!C255</f>
         <v>81515</v>
       </c>
       <c r="D252" s="9">
-        <f>+[1]Séries_Site!D255</f>
+        <f ca="1">+[1]Séries_Site!D255</f>
         <v>11270</v>
       </c>
     </row>
@@ -9544,15 +9812,15 @@
         <v>37926</v>
       </c>
       <c r="B253" s="8">
-        <f>+[1]Séries_Site!B256</f>
+        <f ca="1">+[1]Séries_Site!B256</f>
         <v>92661</v>
       </c>
       <c r="C253" s="9">
-        <f>+[1]Séries_Site!C256</f>
+        <f ca="1">+[1]Séries_Site!C256</f>
         <v>81152</v>
       </c>
       <c r="D253" s="9">
-        <f>+[1]Séries_Site!D256</f>
+        <f ca="1">+[1]Séries_Site!D256</f>
         <v>11509</v>
       </c>
     </row>
@@ -9561,15 +9829,15 @@
         <v>37956</v>
       </c>
       <c r="B254" s="8">
-        <f>+[1]Séries_Site!B257</f>
+        <f ca="1">+[1]Séries_Site!B257</f>
         <v>90697</v>
       </c>
       <c r="C254" s="9">
-        <f>+[1]Séries_Site!C257</f>
+        <f ca="1">+[1]Séries_Site!C257</f>
         <v>79047</v>
       </c>
       <c r="D254" s="9">
-        <f>+[1]Séries_Site!D257</f>
+        <f ca="1">+[1]Séries_Site!D257</f>
         <v>11650</v>
       </c>
     </row>
@@ -9578,15 +9846,15 @@
         <v>37987</v>
       </c>
       <c r="B255" s="8">
-        <f>+[1]Séries_Site!B258</f>
+        <f ca="1">+[1]Séries_Site!B258</f>
         <v>91498</v>
       </c>
       <c r="C255" s="9">
-        <f>+[1]Séries_Site!C258</f>
+        <f ca="1">+[1]Séries_Site!C258</f>
         <v>79723</v>
       </c>
       <c r="D255" s="9">
-        <f>+[1]Séries_Site!D258</f>
+        <f ca="1">+[1]Séries_Site!D258</f>
         <v>11775</v>
       </c>
     </row>
@@ -9595,15 +9863,15 @@
         <v>38018</v>
       </c>
       <c r="B256" s="8">
-        <f>+[1]Séries_Site!B259</f>
+        <f ca="1">+[1]Séries_Site!B259</f>
         <v>92015</v>
       </c>
       <c r="C256" s="9">
-        <f>+[1]Séries_Site!C259</f>
+        <f ca="1">+[1]Séries_Site!C259</f>
         <v>80042</v>
       </c>
       <c r="D256" s="9">
-        <f>+[1]Séries_Site!D259</f>
+        <f ca="1">+[1]Séries_Site!D259</f>
         <v>11973</v>
       </c>
     </row>
@@ -9612,15 +9880,15 @@
         <v>38047</v>
       </c>
       <c r="B257" s="8">
-        <f>+[1]Séries_Site!B260</f>
+        <f ca="1">+[1]Séries_Site!B260</f>
         <v>92425</v>
       </c>
       <c r="C257" s="9">
-        <f>+[1]Séries_Site!C260</f>
+        <f ca="1">+[1]Séries_Site!C260</f>
         <v>80488</v>
       </c>
       <c r="D257" s="9">
-        <f>+[1]Séries_Site!D260</f>
+        <f ca="1">+[1]Séries_Site!D260</f>
         <v>11937</v>
       </c>
     </row>
@@ -9629,15 +9897,15 @@
         <v>38078</v>
       </c>
       <c r="B258" s="8">
-        <f>+[1]Séries_Site!B261</f>
+        <f ca="1">+[1]Séries_Site!B261</f>
         <v>92989</v>
       </c>
       <c r="C258" s="9">
-        <f>+[1]Séries_Site!C261</f>
+        <f ca="1">+[1]Séries_Site!C261</f>
         <v>80913</v>
       </c>
       <c r="D258" s="9">
-        <f>+[1]Séries_Site!D261</f>
+        <f ca="1">+[1]Séries_Site!D261</f>
         <v>12076</v>
       </c>
     </row>
@@ -9646,15 +9914,15 @@
         <v>38108</v>
       </c>
       <c r="B259" s="8">
-        <f>+[1]Séries_Site!B262</f>
+        <f ca="1">+[1]Séries_Site!B262</f>
         <v>93951</v>
       </c>
       <c r="C259" s="9">
-        <f>+[1]Séries_Site!C262</f>
+        <f ca="1">+[1]Séries_Site!C262</f>
         <v>81618</v>
       </c>
       <c r="D259" s="9">
-        <f>+[1]Séries_Site!D262</f>
+        <f ca="1">+[1]Séries_Site!D262</f>
         <v>12333</v>
       </c>
     </row>
@@ -9663,15 +9931,15 @@
         <v>38139</v>
       </c>
       <c r="B260" s="8">
-        <f>+[1]Séries_Site!B263</f>
+        <f ca="1">+[1]Séries_Site!B263</f>
         <v>95518</v>
       </c>
       <c r="C260" s="9">
-        <f>+[1]Séries_Site!C263</f>
+        <f ca="1">+[1]Séries_Site!C263</f>
         <v>83219</v>
       </c>
       <c r="D260" s="9">
-        <f>+[1]Séries_Site!D263</f>
+        <f ca="1">+[1]Séries_Site!D263</f>
         <v>12299</v>
       </c>
     </row>
@@ -9680,15 +9948,15 @@
         <v>38169</v>
       </c>
       <c r="B261" s="8">
-        <f>+[1]Séries_Site!B264</f>
+        <f ca="1">+[1]Séries_Site!B264</f>
         <v>96867</v>
       </c>
       <c r="C261" s="9">
-        <f>+[1]Séries_Site!C264</f>
+        <f ca="1">+[1]Séries_Site!C264</f>
         <v>84277</v>
       </c>
       <c r="D261" s="9">
-        <f>+[1]Séries_Site!D264</f>
+        <f ca="1">+[1]Séries_Site!D264</f>
         <v>12590</v>
       </c>
     </row>
@@ -9697,15 +9965,15 @@
         <v>38200</v>
       </c>
       <c r="B262" s="8">
-        <f>+[1]Séries_Site!B265</f>
+        <f ca="1">+[1]Séries_Site!B265</f>
         <v>97846</v>
       </c>
       <c r="C262" s="9">
-        <f>+[1]Séries_Site!C265</f>
+        <f ca="1">+[1]Séries_Site!C265</f>
         <v>85189</v>
       </c>
       <c r="D262" s="9">
-        <f>+[1]Séries_Site!D265</f>
+        <f ca="1">+[1]Séries_Site!D265</f>
         <v>12657</v>
       </c>
     </row>
@@ -9714,15 +9982,15 @@
         <v>38231</v>
       </c>
       <c r="B263" s="8">
-        <f>+[1]Séries_Site!B266</f>
+        <f ca="1">+[1]Séries_Site!B266</f>
         <v>98661</v>
       </c>
       <c r="C263" s="9">
-        <f>+[1]Séries_Site!C266</f>
+        <f ca="1">+[1]Séries_Site!C266</f>
         <v>85884</v>
       </c>
       <c r="D263" s="9">
-        <f>+[1]Séries_Site!D266</f>
+        <f ca="1">+[1]Séries_Site!D266</f>
         <v>12777</v>
       </c>
     </row>
@@ -9731,15 +9999,15 @@
         <v>38261</v>
       </c>
       <c r="B264" s="8">
-        <f>+[1]Séries_Site!B267</f>
+        <f ca="1">+[1]Séries_Site!B267</f>
         <v>101231</v>
       </c>
       <c r="C264" s="9">
-        <f>+[1]Séries_Site!C267</f>
+        <f ca="1">+[1]Séries_Site!C267</f>
         <v>87577</v>
       </c>
       <c r="D264" s="9">
-        <f>+[1]Séries_Site!D267</f>
+        <f ca="1">+[1]Séries_Site!D267</f>
         <v>13654</v>
       </c>
     </row>
@@ -9748,15 +10016,15 @@
         <v>38292</v>
       </c>
       <c r="B265" s="8">
-        <f>+[1]Séries_Site!B268</f>
+        <f ca="1">+[1]Séries_Site!B268</f>
         <v>102022</v>
       </c>
       <c r="C265" s="9">
-        <f>+[1]Séries_Site!C268</f>
+        <f ca="1">+[1]Séries_Site!C268</f>
         <v>88549</v>
       </c>
       <c r="D265" s="9">
-        <f>+[1]Séries_Site!D268</f>
+        <f ca="1">+[1]Séries_Site!D268</f>
         <v>13473</v>
       </c>
     </row>
@@ -9765,15 +10033,15 @@
         <v>38322</v>
       </c>
       <c r="B266" s="8">
-        <f>+[1]Séries_Site!B269</f>
+        <f ca="1">+[1]Séries_Site!B269</f>
         <v>102082</v>
       </c>
       <c r="C266" s="9">
-        <f>+[1]Séries_Site!C269</f>
+        <f ca="1">+[1]Séries_Site!C269</f>
         <v>88783</v>
       </c>
       <c r="D266" s="9">
-        <f>+[1]Séries_Site!D269</f>
+        <f ca="1">+[1]Séries_Site!D269</f>
         <v>13299</v>
       </c>
     </row>
@@ -9782,15 +10050,15 @@
         <v>38353</v>
       </c>
       <c r="B267" s="8">
-        <f>+[1]Séries_Site!B270</f>
+        <f ca="1">+[1]Séries_Site!B270</f>
         <v>103412</v>
       </c>
       <c r="C267" s="9">
-        <f>+[1]Séries_Site!C270</f>
+        <f ca="1">+[1]Séries_Site!C270</f>
         <v>89492</v>
       </c>
       <c r="D267" s="9">
-        <f>+[1]Séries_Site!D270</f>
+        <f ca="1">+[1]Séries_Site!D270</f>
         <v>13920</v>
       </c>
     </row>
@@ -9799,15 +10067,15 @@
         <v>38384</v>
       </c>
       <c r="B268" s="8">
-        <f>+[1]Séries_Site!B271</f>
+        <f ca="1">+[1]Séries_Site!B271</f>
         <v>104020</v>
       </c>
       <c r="C268" s="9">
-        <f>+[1]Séries_Site!C271</f>
+        <f ca="1">+[1]Séries_Site!C271</f>
         <v>90284</v>
       </c>
       <c r="D268" s="9">
-        <f>+[1]Séries_Site!D271</f>
+        <f ca="1">+[1]Séries_Site!D271</f>
         <v>13736</v>
       </c>
     </row>
@@ -9816,15 +10084,15 @@
         <v>38412</v>
       </c>
       <c r="B269" s="8">
-        <f>+[1]Séries_Site!B272</f>
+        <f ca="1">+[1]Séries_Site!B272</f>
         <v>103986</v>
       </c>
       <c r="C269" s="9">
-        <f>+[1]Séries_Site!C272</f>
+        <f ca="1">+[1]Séries_Site!C272</f>
         <v>90609</v>
       </c>
       <c r="D269" s="9">
-        <f>+[1]Séries_Site!D272</f>
+        <f ca="1">+[1]Séries_Site!D272</f>
         <v>13377</v>
       </c>
     </row>
@@ -9833,15 +10101,15 @@
         <v>38443</v>
       </c>
       <c r="B270" s="8">
-        <f>+[1]Séries_Site!B273</f>
+        <f ca="1">+[1]Séries_Site!B273</f>
         <v>104426</v>
       </c>
       <c r="C270" s="9">
-        <f>+[1]Séries_Site!C273</f>
+        <f ca="1">+[1]Séries_Site!C273</f>
         <v>91255</v>
       </c>
       <c r="D270" s="9">
-        <f>+[1]Séries_Site!D273</f>
+        <f ca="1">+[1]Séries_Site!D273</f>
         <v>13171</v>
       </c>
     </row>
@@ -9850,15 +10118,15 @@
         <v>38473</v>
       </c>
       <c r="B271" s="8">
-        <f>+[1]Séries_Site!B274</f>
+        <f ca="1">+[1]Séries_Site!B274</f>
         <v>104542</v>
       </c>
       <c r="C271" s="9">
-        <f>+[1]Séries_Site!C274</f>
+        <f ca="1">+[1]Séries_Site!C274</f>
         <v>91458</v>
       </c>
       <c r="D271" s="9">
-        <f>+[1]Séries_Site!D274</f>
+        <f ca="1">+[1]Séries_Site!D274</f>
         <v>13084</v>
       </c>
     </row>
@@ -9867,15 +10135,15 @@
         <v>38504</v>
       </c>
       <c r="B272" s="8">
-        <f>+[1]Séries_Site!B275</f>
+        <f ca="1">+[1]Séries_Site!B275</f>
         <v>105078</v>
       </c>
       <c r="C272" s="9">
-        <f>+[1]Séries_Site!C275</f>
+        <f ca="1">+[1]Séries_Site!C275</f>
         <v>91713</v>
       </c>
       <c r="D272" s="9">
-        <f>+[1]Séries_Site!D275</f>
+        <f ca="1">+[1]Séries_Site!D275</f>
         <v>13365</v>
       </c>
     </row>
@@ -9884,15 +10152,15 @@
         <v>38534</v>
       </c>
       <c r="B273" s="8">
-        <f>+[1]Séries_Site!B276</f>
+        <f ca="1">+[1]Séries_Site!B276</f>
         <v>107685</v>
       </c>
       <c r="C273" s="9">
-        <f>+[1]Séries_Site!C276</f>
+        <f ca="1">+[1]Séries_Site!C276</f>
         <v>94322</v>
       </c>
       <c r="D273" s="9">
-        <f>+[1]Séries_Site!D276</f>
+        <f ca="1">+[1]Séries_Site!D276</f>
         <v>13363</v>
       </c>
     </row>
@@ -9901,15 +10169,15 @@
         <v>38565</v>
       </c>
       <c r="B274" s="8">
-        <f>+[1]Séries_Site!B277</f>
+        <f ca="1">+[1]Séries_Site!B277</f>
         <v>107898</v>
       </c>
       <c r="C274" s="9">
-        <f>+[1]Séries_Site!C277</f>
+        <f ca="1">+[1]Séries_Site!C277</f>
         <v>94604</v>
       </c>
       <c r="D274" s="9">
-        <f>+[1]Séries_Site!D277</f>
+        <f ca="1">+[1]Séries_Site!D277</f>
         <v>13294</v>
       </c>
     </row>
@@ -9918,15 +10186,15 @@
         <v>38596</v>
       </c>
       <c r="B275" s="8">
-        <f>+[1]Séries_Site!B278</f>
+        <f ca="1">+[1]Séries_Site!B278</f>
         <v>108209</v>
       </c>
       <c r="C275" s="9">
-        <f>+[1]Séries_Site!C278</f>
+        <f ca="1">+[1]Séries_Site!C278</f>
         <v>94945</v>
       </c>
       <c r="D275" s="9">
-        <f>+[1]Séries_Site!D278</f>
+        <f ca="1">+[1]Séries_Site!D278</f>
         <v>13264</v>
       </c>
     </row>
@@ -9935,15 +10203,15 @@
         <v>38626</v>
       </c>
       <c r="B276" s="8">
-        <f>+[1]Séries_Site!B279</f>
+        <f ca="1">+[1]Séries_Site!B279</f>
         <v>108192</v>
       </c>
       <c r="C276" s="9">
-        <f>+[1]Séries_Site!C279</f>
+        <f ca="1">+[1]Séries_Site!C279</f>
         <v>95008</v>
       </c>
       <c r="D276" s="9">
-        <f>+[1]Séries_Site!D279</f>
+        <f ca="1">+[1]Séries_Site!D279</f>
         <v>13184</v>
       </c>
     </row>
@@ -9952,15 +10220,15 @@
         <v>38657</v>
       </c>
       <c r="B277" s="8">
-        <f>+[1]Séries_Site!B280</f>
+        <f ca="1">+[1]Séries_Site!B280</f>
         <v>107927</v>
       </c>
       <c r="C277" s="9">
-        <f>+[1]Séries_Site!C280</f>
+        <f ca="1">+[1]Séries_Site!C280</f>
         <v>94696</v>
       </c>
       <c r="D277" s="9">
-        <f>+[1]Séries_Site!D280</f>
+        <f ca="1">+[1]Séries_Site!D280</f>
         <v>13231</v>
       </c>
     </row>
@@ -9969,15 +10237,15 @@
         <v>38687</v>
       </c>
       <c r="B278" s="8">
-        <f>+[1]Séries_Site!B281</f>
+        <f ca="1">+[1]Séries_Site!B281</f>
         <v>107408</v>
       </c>
       <c r="C278" s="9">
-        <f>+[1]Séries_Site!C281</f>
+        <f ca="1">+[1]Séries_Site!C281</f>
         <v>94206</v>
       </c>
       <c r="D278" s="9">
-        <f>+[1]Séries_Site!D281</f>
+        <f ca="1">+[1]Séries_Site!D281</f>
         <v>13202</v>
       </c>
     </row>
@@ -9986,15 +10254,15 @@
         <v>38718</v>
       </c>
       <c r="B279" s="8">
-        <f>+[1]Séries_Site!B282</f>
+        <f ca="1">+[1]Séries_Site!B282</f>
         <v>108139</v>
       </c>
       <c r="C279" s="9">
-        <f>+[1]Séries_Site!C282</f>
+        <f ca="1">+[1]Séries_Site!C282</f>
         <v>94665</v>
       </c>
       <c r="D279" s="9">
-        <f>+[1]Séries_Site!D282</f>
+        <f ca="1">+[1]Séries_Site!D282</f>
         <v>13474</v>
       </c>
     </row>
@@ -10003,15 +10271,15 @@
         <v>38749</v>
       </c>
       <c r="B280" s="8">
-        <f>+[1]Séries_Site!B283</f>
+        <f ca="1">+[1]Séries_Site!B283</f>
         <v>107623</v>
       </c>
       <c r="C280" s="9">
-        <f>+[1]Séries_Site!C283</f>
+        <f ca="1">+[1]Séries_Site!C283</f>
         <v>94153</v>
       </c>
       <c r="D280" s="9">
-        <f>+[1]Séries_Site!D283</f>
+        <f ca="1">+[1]Séries_Site!D283</f>
         <v>13470</v>
       </c>
     </row>
@@ -10020,15 +10288,15 @@
         <v>38777</v>
       </c>
       <c r="B281" s="8">
-        <f>+[1]Séries_Site!B284</f>
+        <f ca="1">+[1]Séries_Site!B284</f>
         <v>107631</v>
       </c>
       <c r="C281" s="9">
-        <f>+[1]Séries_Site!C284</f>
+        <f ca="1">+[1]Séries_Site!C284</f>
         <v>94208</v>
       </c>
       <c r="D281" s="9">
-        <f>+[1]Séries_Site!D284</f>
+        <f ca="1">+[1]Séries_Site!D284</f>
         <v>13423</v>
       </c>
     </row>
@@ -10037,15 +10305,15 @@
         <v>38808</v>
       </c>
       <c r="B282" s="8">
-        <f>+[1]Séries_Site!B285</f>
+        <f ca="1">+[1]Séries_Site!B285</f>
         <v>107308</v>
       </c>
       <c r="C282" s="9">
-        <f>+[1]Séries_Site!C285</f>
+        <f ca="1">+[1]Séries_Site!C285</f>
         <v>94120</v>
       </c>
       <c r="D282" s="9">
-        <f>+[1]Séries_Site!D285</f>
+        <f ca="1">+[1]Séries_Site!D285</f>
         <v>13188</v>
       </c>
     </row>
@@ -10054,15 +10322,15 @@
         <v>38838</v>
       </c>
       <c r="B283" s="8">
-        <f>+[1]Séries_Site!B286</f>
+        <f ca="1">+[1]Séries_Site!B286</f>
         <v>107353</v>
       </c>
       <c r="C283" s="9">
-        <f>+[1]Séries_Site!C286</f>
+        <f ca="1">+[1]Séries_Site!C286</f>
         <v>94207</v>
       </c>
       <c r="D283" s="9">
-        <f>+[1]Séries_Site!D286</f>
+        <f ca="1">+[1]Séries_Site!D286</f>
         <v>13146</v>
       </c>
     </row>
@@ -10071,15 +10339,15 @@
         <v>38869</v>
       </c>
       <c r="B284" s="8">
-        <f>+[1]Séries_Site!B287</f>
+        <f ca="1">+[1]Séries_Site!B287</f>
         <v>107051</v>
       </c>
       <c r="C284" s="9">
-        <f>+[1]Séries_Site!C287</f>
+        <f ca="1">+[1]Séries_Site!C287</f>
         <v>93898</v>
       </c>
       <c r="D284" s="9">
-        <f>+[1]Séries_Site!D287</f>
+        <f ca="1">+[1]Séries_Site!D287</f>
         <v>13153</v>
       </c>
     </row>
@@ -10088,15 +10356,15 @@
         <v>38899</v>
       </c>
       <c r="B285" s="8">
-        <f>+[1]Séries_Site!B288</f>
+        <f ca="1">+[1]Séries_Site!B288</f>
         <v>107063</v>
       </c>
       <c r="C285" s="9">
-        <f>+[1]Séries_Site!C288</f>
+        <f ca="1">+[1]Séries_Site!C288</f>
         <v>93934</v>
       </c>
       <c r="D285" s="9">
-        <f>+[1]Séries_Site!D288</f>
+        <f ca="1">+[1]Séries_Site!D288</f>
         <v>13129</v>
       </c>
     </row>
@@ -10105,15 +10373,15 @@
         <v>38930</v>
       </c>
       <c r="B286" s="8">
-        <f>+[1]Séries_Site!B289</f>
+        <f ca="1">+[1]Séries_Site!B289</f>
         <v>107051</v>
       </c>
       <c r="C286" s="9">
-        <f>+[1]Séries_Site!C289</f>
+        <f ca="1">+[1]Séries_Site!C289</f>
         <v>93973</v>
       </c>
       <c r="D286" s="9">
-        <f>+[1]Séries_Site!D289</f>
+        <f ca="1">+[1]Séries_Site!D289</f>
         <v>13078</v>
       </c>
     </row>
@@ -10122,15 +10390,15 @@
         <v>38961</v>
       </c>
       <c r="B287" s="8">
-        <f>+[1]Séries_Site!B290</f>
+        <f ca="1">+[1]Séries_Site!B290</f>
         <v>107605</v>
       </c>
       <c r="C287" s="9">
-        <f>+[1]Séries_Site!C290</f>
+        <f ca="1">+[1]Séries_Site!C290</f>
         <v>94521</v>
       </c>
       <c r="D287" s="9">
-        <f>+[1]Séries_Site!D290</f>
+        <f ca="1">+[1]Séries_Site!D290</f>
         <v>13084</v>
       </c>
     </row>
@@ -10139,15 +10407,15 @@
         <v>38991</v>
       </c>
       <c r="B288" s="8">
-        <f>+[1]Séries_Site!B291</f>
+        <f ca="1">+[1]Séries_Site!B291</f>
         <v>107215</v>
       </c>
       <c r="C288" s="9">
-        <f>+[1]Séries_Site!C291</f>
+        <f ca="1">+[1]Séries_Site!C291</f>
         <v>94161</v>
       </c>
       <c r="D288" s="9">
-        <f>+[1]Séries_Site!D291</f>
+        <f ca="1">+[1]Séries_Site!D291</f>
         <v>13054</v>
       </c>
     </row>
@@ -10156,15 +10424,15 @@
         <v>39022</v>
       </c>
       <c r="B289" s="8">
-        <f>+[1]Séries_Site!B292</f>
+        <f ca="1">+[1]Séries_Site!B292</f>
         <v>106678</v>
       </c>
       <c r="C289" s="9">
-        <f>+[1]Séries_Site!C292</f>
+        <f ca="1">+[1]Séries_Site!C292</f>
         <v>93642</v>
       </c>
       <c r="D289" s="9">
-        <f>+[1]Séries_Site!D292</f>
+        <f ca="1">+[1]Séries_Site!D292</f>
         <v>13036</v>
       </c>
     </row>
@@ -10173,15 +10441,15 @@
         <v>39052</v>
       </c>
       <c r="B290" s="8">
-        <f>+[1]Séries_Site!B293</f>
+        <f ca="1">+[1]Séries_Site!B293</f>
         <v>106329</v>
       </c>
       <c r="C290" s="9">
-        <f>+[1]Séries_Site!C293</f>
+        <f ca="1">+[1]Séries_Site!C293</f>
         <v>93193</v>
       </c>
       <c r="D290" s="9">
-        <f>+[1]Séries_Site!D293</f>
+        <f ca="1">+[1]Séries_Site!D293</f>
         <v>13136</v>
       </c>
     </row>
@@ -10190,15 +10458,15 @@
         <v>39083</v>
       </c>
       <c r="B291" s="8">
-        <f>+[1]Séries_Site!B294</f>
+        <f ca="1">+[1]Séries_Site!B294</f>
         <v>106924</v>
       </c>
       <c r="C291" s="9">
-        <f>+[1]Séries_Site!C294</f>
+        <f ca="1">+[1]Séries_Site!C294</f>
         <v>93740</v>
       </c>
       <c r="D291" s="9">
-        <f>+[1]Séries_Site!D294</f>
+        <f ca="1">+[1]Séries_Site!D294</f>
         <v>13184</v>
       </c>
     </row>
@@ -10207,15 +10475,15 @@
         <v>39114</v>
       </c>
       <c r="B292" s="8">
-        <f>+[1]Séries_Site!B295</f>
+        <f ca="1">+[1]Séries_Site!B295</f>
         <v>107944</v>
       </c>
       <c r="C292" s="9">
-        <f>+[1]Séries_Site!C295</f>
+        <f ca="1">+[1]Séries_Site!C295</f>
         <v>94650</v>
       </c>
       <c r="D292" s="9">
-        <f>+[1]Séries_Site!D295</f>
+        <f ca="1">+[1]Séries_Site!D295</f>
         <v>13294</v>
       </c>
     </row>
@@ -10224,15 +10492,15 @@
         <v>39142</v>
       </c>
       <c r="B293" s="8">
-        <f>+[1]Séries_Site!B296</f>
+        <f ca="1">+[1]Séries_Site!B296</f>
         <v>108220</v>
       </c>
       <c r="C293" s="9">
-        <f>+[1]Séries_Site!C296</f>
+        <f ca="1">+[1]Séries_Site!C296</f>
         <v>94772</v>
       </c>
       <c r="D293" s="9">
-        <f>+[1]Séries_Site!D296</f>
+        <f ca="1">+[1]Séries_Site!D296</f>
         <v>13448</v>
       </c>
     </row>
@@ -10241,15 +10509,15 @@
         <v>39173</v>
       </c>
       <c r="B294" s="8">
-        <f>+[1]Séries_Site!B297</f>
+        <f ca="1">+[1]Séries_Site!B297</f>
         <v>109262</v>
       </c>
       <c r="C294" s="9">
-        <f>+[1]Séries_Site!C297</f>
+        <f ca="1">+[1]Séries_Site!C297</f>
         <v>95413</v>
       </c>
       <c r="D294" s="9">
-        <f>+[1]Séries_Site!D297</f>
+        <f ca="1">+[1]Séries_Site!D297</f>
         <v>13849</v>
       </c>
     </row>
@@ -10258,15 +10526,15 @@
         <v>39203</v>
       </c>
       <c r="B295" s="8">
-        <f>+[1]Séries_Site!B298</f>
+        <f ca="1">+[1]Séries_Site!B298</f>
         <v>110624</v>
       </c>
       <c r="C295" s="9">
-        <f>+[1]Séries_Site!C298</f>
+        <f ca="1">+[1]Séries_Site!C298</f>
         <v>96429</v>
       </c>
       <c r="D295" s="9">
-        <f>+[1]Séries_Site!D298</f>
+        <f ca="1">+[1]Séries_Site!D298</f>
         <v>14195</v>
       </c>
     </row>
@@ -10275,15 +10543,15 @@
         <v>39234</v>
       </c>
       <c r="B296" s="8">
-        <f>+[1]Séries_Site!B299</f>
+        <f ca="1">+[1]Séries_Site!B299</f>
         <v>112857</v>
       </c>
       <c r="C296" s="9">
-        <f>+[1]Séries_Site!C299</f>
+        <f ca="1">+[1]Séries_Site!C299</f>
         <v>98610</v>
       </c>
       <c r="D296" s="9">
-        <f>+[1]Séries_Site!D299</f>
+        <f ca="1">+[1]Séries_Site!D299</f>
         <v>14247</v>
       </c>
     </row>
@@ -10292,15 +10560,15 @@
         <v>39264</v>
       </c>
       <c r="B297" s="8">
-        <f>+[1]Séries_Site!B300</f>
+        <f ca="1">+[1]Séries_Site!B300</f>
         <v>114435</v>
       </c>
       <c r="C297" s="9">
-        <f>+[1]Séries_Site!C300</f>
+        <f ca="1">+[1]Séries_Site!C300</f>
         <v>99859</v>
       </c>
       <c r="D297" s="9">
-        <f>+[1]Séries_Site!D300</f>
+        <f ca="1">+[1]Séries_Site!D300</f>
         <v>14576</v>
       </c>
     </row>
@@ -10309,15 +10577,15 @@
         <v>39295</v>
       </c>
       <c r="B298" s="8">
-        <f>+[1]Séries_Site!B301</f>
+        <f ca="1">+[1]Séries_Site!B301</f>
         <v>115492</v>
       </c>
       <c r="C298" s="9">
-        <f>+[1]Séries_Site!C301</f>
+        <f ca="1">+[1]Séries_Site!C301</f>
         <v>100674</v>
       </c>
       <c r="D298" s="9">
-        <f>+[1]Séries_Site!D301</f>
+        <f ca="1">+[1]Séries_Site!D301</f>
         <v>14818</v>
       </c>
     </row>
@@ -10326,15 +10594,15 @@
         <v>39326</v>
       </c>
       <c r="B299" s="8">
-        <f>+[1]Séries_Site!B302</f>
+        <f ca="1">+[1]Séries_Site!B302</f>
         <v>117146</v>
       </c>
       <c r="C299" s="9">
-        <f>+[1]Séries_Site!C302</f>
+        <f ca="1">+[1]Séries_Site!C302</f>
         <v>102048</v>
       </c>
       <c r="D299" s="9">
-        <f>+[1]Séries_Site!D302</f>
+        <f ca="1">+[1]Séries_Site!D302</f>
         <v>15098</v>
       </c>
     </row>
@@ -10343,15 +10611,15 @@
         <v>39356</v>
       </c>
       <c r="B300" s="8">
-        <f>+[1]Séries_Site!B303</f>
+        <f ca="1">+[1]Séries_Site!B303</f>
         <v>118600</v>
       </c>
       <c r="C300" s="9">
-        <f>+[1]Séries_Site!C303</f>
+        <f ca="1">+[1]Séries_Site!C303</f>
         <v>103079</v>
       </c>
       <c r="D300" s="9">
-        <f>+[1]Séries_Site!D303</f>
+        <f ca="1">+[1]Séries_Site!D303</f>
         <v>15521</v>
       </c>
     </row>
@@ -10360,15 +10628,15 @@
         <v>39387</v>
       </c>
       <c r="B301" s="8">
-        <f>+[1]Séries_Site!B304</f>
+        <f ca="1">+[1]Séries_Site!B304</f>
         <v>119783</v>
       </c>
       <c r="C301" s="9">
-        <f>+[1]Séries_Site!C304</f>
+        <f ca="1">+[1]Séries_Site!C304</f>
         <v>103979</v>
       </c>
       <c r="D301" s="9">
-        <f>+[1]Séries_Site!D304</f>
+        <f ca="1">+[1]Séries_Site!D304</f>
         <v>15804</v>
       </c>
     </row>
@@ -10377,15 +10645,15 @@
         <v>39417</v>
       </c>
       <c r="B302" s="8">
-        <f>+[1]Séries_Site!B305</f>
+        <f ca="1">+[1]Séries_Site!B305</f>
         <v>120338</v>
       </c>
       <c r="C302" s="9">
-        <f>+[1]Séries_Site!C305</f>
+        <f ca="1">+[1]Séries_Site!C305</f>
         <v>104274</v>
       </c>
       <c r="D302" s="9">
-        <f>+[1]Séries_Site!D305</f>
+        <f ca="1">+[1]Séries_Site!D305</f>
         <v>16064</v>
       </c>
     </row>
@@ -10394,15 +10662,15 @@
         <v>39448</v>
       </c>
       <c r="B303" s="8">
-        <f>+[1]Séries_Site!B306</f>
+        <f ca="1">+[1]Séries_Site!B306</f>
         <v>121728</v>
       </c>
       <c r="C303" s="9">
-        <f>+[1]Séries_Site!C306</f>
+        <f ca="1">+[1]Séries_Site!C306</f>
         <v>105248</v>
       </c>
       <c r="D303" s="9">
-        <f>+[1]Séries_Site!D306</f>
+        <f ca="1">+[1]Séries_Site!D306</f>
         <v>16480</v>
       </c>
     </row>
@@ -10411,15 +10679,15 @@
         <v>39479</v>
       </c>
       <c r="B304" s="8">
-        <f>+[1]Séries_Site!B307</f>
+        <f ca="1">+[1]Séries_Site!B307</f>
         <v>122415</v>
       </c>
       <c r="C304" s="9">
-        <f>+[1]Séries_Site!C307</f>
+        <f ca="1">+[1]Séries_Site!C307</f>
         <v>105832</v>
       </c>
       <c r="D304" s="9">
-        <f>+[1]Séries_Site!D307</f>
+        <f ca="1">+[1]Séries_Site!D307</f>
         <v>16583</v>
       </c>
     </row>
@@ -10428,15 +10696,15 @@
         <v>39508</v>
       </c>
       <c r="B305" s="8">
-        <f>+[1]Séries_Site!B308</f>
+        <f ca="1">+[1]Séries_Site!B308</f>
         <v>124155</v>
       </c>
       <c r="C305" s="9">
-        <f>+[1]Séries_Site!C308</f>
+        <f ca="1">+[1]Séries_Site!C308</f>
         <v>107290</v>
       </c>
       <c r="D305" s="9">
-        <f>+[1]Séries_Site!D308</f>
+        <f ca="1">+[1]Séries_Site!D308</f>
         <v>16865</v>
       </c>
     </row>
@@ -10445,15 +10713,15 @@
         <v>39539</v>
       </c>
       <c r="B306" s="8">
-        <f>+[1]Séries_Site!B309</f>
+        <f ca="1">+[1]Séries_Site!B309</f>
         <v>125870</v>
       </c>
       <c r="C306" s="9">
-        <f>+[1]Séries_Site!C309</f>
+        <f ca="1">+[1]Séries_Site!C309</f>
         <v>108830</v>
       </c>
       <c r="D306" s="9">
-        <f>+[1]Séries_Site!D309</f>
+        <f ca="1">+[1]Séries_Site!D309</f>
         <v>17040</v>
       </c>
     </row>
@@ -10462,15 +10730,15 @@
         <v>39569</v>
       </c>
       <c r="B307" s="8">
-        <f>+[1]Séries_Site!B310</f>
+        <f ca="1">+[1]Séries_Site!B310</f>
         <v>126542</v>
       </c>
       <c r="C307" s="9">
-        <f>+[1]Séries_Site!C310</f>
+        <f ca="1">+[1]Séries_Site!C310</f>
         <v>109394</v>
       </c>
       <c r="D307" s="9">
-        <f>+[1]Séries_Site!D310</f>
+        <f ca="1">+[1]Séries_Site!D310</f>
         <v>17148</v>
       </c>
     </row>
@@ -10479,15 +10747,15 @@
         <v>39600</v>
       </c>
       <c r="B308" s="8">
-        <f>+[1]Séries_Site!B311</f>
+        <f ca="1">+[1]Séries_Site!B311</f>
         <v>127588</v>
       </c>
       <c r="C308" s="9">
-        <f>+[1]Séries_Site!C311</f>
+        <f ca="1">+[1]Séries_Site!C311</f>
         <v>110385</v>
       </c>
       <c r="D308" s="9">
-        <f>+[1]Séries_Site!D311</f>
+        <f ca="1">+[1]Séries_Site!D311</f>
         <v>17203</v>
       </c>
     </row>
@@ -10496,15 +10764,15 @@
         <v>39630</v>
       </c>
       <c r="B309" s="8">
-        <f>+[1]Séries_Site!B312</f>
+        <f ca="1">+[1]Séries_Site!B312</f>
         <v>129362</v>
       </c>
       <c r="C309" s="9">
-        <f>+[1]Séries_Site!C312</f>
+        <f ca="1">+[1]Séries_Site!C312</f>
         <v>111939</v>
       </c>
       <c r="D309" s="9">
-        <f>+[1]Séries_Site!D312</f>
+        <f ca="1">+[1]Séries_Site!D312</f>
         <v>17423</v>
       </c>
     </row>
@@ -10513,15 +10781,15 @@
         <v>39661</v>
       </c>
       <c r="B310" s="8">
-        <f>+[1]Séries_Site!B313</f>
+        <f ca="1">+[1]Séries_Site!B313</f>
         <v>130484</v>
       </c>
       <c r="C310" s="9">
-        <f>+[1]Séries_Site!C313</f>
+        <f ca="1">+[1]Séries_Site!C313</f>
         <v>112640</v>
       </c>
       <c r="D310" s="9">
-        <f>+[1]Séries_Site!D313</f>
+        <f ca="1">+[1]Séries_Site!D313</f>
         <v>17844</v>
       </c>
     </row>
@@ -10530,15 +10798,15 @@
         <v>39692</v>
       </c>
       <c r="B311" s="8">
-        <f>+[1]Séries_Site!B314</f>
+        <f ca="1">+[1]Séries_Site!B314</f>
         <v>131159</v>
       </c>
       <c r="C311" s="9">
-        <f>+[1]Séries_Site!C314</f>
+        <f ca="1">+[1]Séries_Site!C314</f>
         <v>112804</v>
       </c>
       <c r="D311" s="9">
-        <f>+[1]Séries_Site!D314</f>
+        <f ca="1">+[1]Séries_Site!D314</f>
         <v>18355</v>
       </c>
     </row>
@@ -10547,15 +10815,15 @@
         <v>39722</v>
       </c>
       <c r="B312" s="8">
-        <f>+[1]Séries_Site!B315</f>
+        <f ca="1">+[1]Séries_Site!B315</f>
         <v>131717</v>
       </c>
       <c r="C312" s="9">
-        <f>+[1]Séries_Site!C315</f>
+        <f ca="1">+[1]Séries_Site!C315</f>
         <v>113127</v>
       </c>
       <c r="D312" s="9">
-        <f>+[1]Séries_Site!D315</f>
+        <f ca="1">+[1]Séries_Site!D315</f>
         <v>18590</v>
       </c>
     </row>
@@ -10564,15 +10832,15 @@
         <v>39753</v>
       </c>
       <c r="B313" s="8">
-        <f>+[1]Séries_Site!B316</f>
+        <f ca="1">+[1]Séries_Site!B316</f>
         <v>131201</v>
       </c>
       <c r="C313" s="9">
-        <f>+[1]Séries_Site!C316</f>
+        <f ca="1">+[1]Séries_Site!C316</f>
         <v>112713</v>
       </c>
       <c r="D313" s="9">
-        <f>+[1]Séries_Site!D316</f>
+        <f ca="1">+[1]Séries_Site!D316</f>
         <v>18488</v>
       </c>
     </row>
@@ -10581,15 +10849,15 @@
         <v>39783</v>
       </c>
       <c r="B314" s="8">
-        <f>+[1]Séries_Site!B317</f>
+        <f ca="1">+[1]Séries_Site!B317</f>
         <v>126777</v>
       </c>
       <c r="C314" s="9">
-        <f>+[1]Séries_Site!C317</f>
+        <f ca="1">+[1]Séries_Site!C317</f>
         <v>109848</v>
       </c>
       <c r="D314" s="9">
-        <f>+[1]Séries_Site!D317</f>
+        <f ca="1">+[1]Séries_Site!D317</f>
         <v>16929</v>
       </c>
     </row>
@@ -10598,15 +10866,15 @@
         <v>39814</v>
       </c>
       <c r="B315" s="8">
-        <f>+[1]Séries_Site!B318</f>
+        <f ca="1">+[1]Séries_Site!B318</f>
         <v>125915</v>
       </c>
       <c r="C315" s="9">
-        <f>+[1]Séries_Site!C318</f>
+        <f ca="1">+[1]Séries_Site!C318</f>
         <v>109010</v>
       </c>
       <c r="D315" s="9">
-        <f>+[1]Séries_Site!D318</f>
+        <f ca="1">+[1]Séries_Site!D318</f>
         <v>16905</v>
       </c>
     </row>
@@ -10615,15 +10883,15 @@
         <v>39845</v>
       </c>
       <c r="B316" s="8">
-        <f>+[1]Séries_Site!B319</f>
+        <f ca="1">+[1]Séries_Site!B319</f>
         <v>124486</v>
       </c>
       <c r="C316" s="9">
-        <f>+[1]Séries_Site!C319</f>
+        <f ca="1">+[1]Séries_Site!C319</f>
         <v>108464</v>
       </c>
       <c r="D316" s="9">
-        <f>+[1]Séries_Site!D319</f>
+        <f ca="1">+[1]Séries_Site!D319</f>
         <v>16022</v>
       </c>
     </row>
@@ -10632,15 +10900,15 @@
         <v>39873</v>
       </c>
       <c r="B317" s="8">
-        <f>+[1]Séries_Site!B320</f>
+        <f ca="1">+[1]Séries_Site!B320</f>
         <v>122052</v>
       </c>
       <c r="C317" s="9">
-        <f>+[1]Séries_Site!C320</f>
+        <f ca="1">+[1]Séries_Site!C320</f>
         <v>106744</v>
       </c>
       <c r="D317" s="9">
-        <f>+[1]Séries_Site!D320</f>
+        <f ca="1">+[1]Séries_Site!D320</f>
         <v>15308</v>
       </c>
     </row>
@@ -10649,15 +10917,15 @@
         <v>39904</v>
       </c>
       <c r="B318" s="8">
-        <f>+[1]Séries_Site!B321</f>
+        <f ca="1">+[1]Séries_Site!B321</f>
         <v>120744</v>
       </c>
       <c r="C318" s="9">
-        <f>+[1]Séries_Site!C321</f>
+        <f ca="1">+[1]Séries_Site!C321</f>
         <v>105991</v>
       </c>
       <c r="D318" s="9">
-        <f>+[1]Séries_Site!D321</f>
+        <f ca="1">+[1]Séries_Site!D321</f>
         <v>14753</v>
       </c>
     </row>
@@ -10666,15 +10934,15 @@
         <v>39934</v>
       </c>
       <c r="B319" s="8">
-        <f>+[1]Séries_Site!B322</f>
+        <f ca="1">+[1]Séries_Site!B322</f>
         <v>120377</v>
       </c>
       <c r="C319" s="9">
-        <f>+[1]Séries_Site!C322</f>
+        <f ca="1">+[1]Séries_Site!C322</f>
         <v>105887</v>
       </c>
       <c r="D319" s="9">
-        <f>+[1]Séries_Site!D322</f>
+        <f ca="1">+[1]Séries_Site!D322</f>
         <v>14490</v>
       </c>
     </row>
@@ -10683,15 +10951,15 @@
         <v>39965</v>
       </c>
       <c r="B320" s="8">
-        <f>+[1]Séries_Site!B323</f>
+        <f ca="1">+[1]Séries_Site!B323</f>
         <v>119511</v>
       </c>
       <c r="C320" s="9">
-        <f>+[1]Séries_Site!C323</f>
+        <f ca="1">+[1]Séries_Site!C323</f>
         <v>105084</v>
       </c>
       <c r="D320" s="9">
-        <f>+[1]Séries_Site!D323</f>
+        <f ca="1">+[1]Séries_Site!D323</f>
         <v>14427</v>
       </c>
     </row>
@@ -10700,15 +10968,15 @@
         <v>39995</v>
       </c>
       <c r="B321" s="8">
-        <f>+[1]Séries_Site!B324</f>
+        <f ca="1">+[1]Séries_Site!B324</f>
         <v>119584</v>
       </c>
       <c r="C321" s="9">
-        <f>+[1]Séries_Site!C324</f>
+        <f ca="1">+[1]Séries_Site!C324</f>
         <v>105397</v>
       </c>
       <c r="D321" s="9">
-        <f>+[1]Séries_Site!D324</f>
+        <f ca="1">+[1]Séries_Site!D324</f>
         <v>14187</v>
       </c>
     </row>
@@ -10717,15 +10985,15 @@
         <v>40026</v>
       </c>
       <c r="B322" s="8">
-        <f>+[1]Séries_Site!B325</f>
+        <f ca="1">+[1]Séries_Site!B325</f>
         <v>120548</v>
       </c>
       <c r="C322" s="9">
-        <f>+[1]Séries_Site!C325</f>
+        <f ca="1">+[1]Séries_Site!C325</f>
         <v>106177</v>
       </c>
       <c r="D322" s="9">
-        <f>+[1]Séries_Site!D325</f>
+        <f ca="1">+[1]Séries_Site!D325</f>
         <v>14371</v>
       </c>
     </row>
@@ -10734,15 +11002,15 @@
         <v>40057</v>
       </c>
       <c r="B323" s="8">
-        <f>+[1]Séries_Site!B326</f>
+        <f ca="1">+[1]Séries_Site!B326</f>
         <v>121238</v>
       </c>
       <c r="C323" s="9">
-        <f>+[1]Séries_Site!C326</f>
+        <f ca="1">+[1]Séries_Site!C326</f>
         <v>106648</v>
       </c>
       <c r="D323" s="9">
-        <f>+[1]Séries_Site!D326</f>
+        <f ca="1">+[1]Séries_Site!D326</f>
         <v>14590</v>
       </c>
     </row>
@@ -10751,15 +11019,15 @@
         <v>40087</v>
       </c>
       <c r="B324" s="8">
-        <f>+[1]Séries_Site!B327</f>
+        <f ca="1">+[1]Séries_Site!B327</f>
         <v>121820</v>
       </c>
       <c r="C324" s="9">
-        <f>+[1]Séries_Site!C327</f>
+        <f ca="1">+[1]Séries_Site!C327</f>
         <v>106905</v>
       </c>
       <c r="D324" s="9">
-        <f>+[1]Séries_Site!D327</f>
+        <f ca="1">+[1]Séries_Site!D327</f>
         <v>14915</v>
       </c>
     </row>
@@ -10768,15 +11036,15 @@
         <v>40118</v>
       </c>
       <c r="B325" s="8">
-        <f>+[1]Séries_Site!B328</f>
+        <f ca="1">+[1]Séries_Site!B328</f>
         <v>123929</v>
       </c>
       <c r="C325" s="9">
-        <f>+[1]Séries_Site!C328</f>
+        <f ca="1">+[1]Séries_Site!C328</f>
         <v>108682</v>
       </c>
       <c r="D325" s="9">
-        <f>+[1]Séries_Site!D328</f>
+        <f ca="1">+[1]Séries_Site!D328</f>
         <v>15247</v>
       </c>
     </row>
@@ -10785,15 +11053,15 @@
         <v>40148</v>
       </c>
       <c r="B326" s="8">
-        <f>+[1]Séries_Site!B329</f>
+        <f ca="1">+[1]Séries_Site!B329</f>
         <v>124478</v>
       </c>
       <c r="C326" s="9">
-        <f>+[1]Séries_Site!C329</f>
+        <f ca="1">+[1]Séries_Site!C329</f>
         <v>109043</v>
       </c>
       <c r="D326" s="9">
-        <f>+[1]Séries_Site!D329</f>
+        <f ca="1">+[1]Séries_Site!D329</f>
         <v>15435</v>
       </c>
     </row>
@@ -10802,15 +11070,15 @@
         <v>40179</v>
       </c>
       <c r="B327" s="8">
-        <f>+[1]Séries_Site!B330</f>
+        <f ca="1">+[1]Séries_Site!B330</f>
         <v>126223</v>
       </c>
       <c r="C327" s="9">
-        <f>+[1]Séries_Site!C330</f>
+        <f ca="1">+[1]Séries_Site!C330</f>
         <v>110452</v>
       </c>
       <c r="D327" s="9">
-        <f>+[1]Séries_Site!D330</f>
+        <f ca="1">+[1]Séries_Site!D330</f>
         <v>15771</v>
       </c>
     </row>
@@ -10819,15 +11087,15 @@
         <v>40210</v>
       </c>
       <c r="B328" s="8">
-        <f>+[1]Séries_Site!B331</f>
+        <f ca="1">+[1]Séries_Site!B331</f>
         <v>126791</v>
       </c>
       <c r="C328" s="9">
-        <f>+[1]Séries_Site!C331</f>
+        <f ca="1">+[1]Séries_Site!C331</f>
         <v>110695</v>
       </c>
       <c r="D328" s="9">
-        <f>+[1]Séries_Site!D331</f>
+        <f ca="1">+[1]Séries_Site!D331</f>
         <v>16096</v>
       </c>
     </row>
@@ -10836,15 +11104,15 @@
         <v>40238</v>
       </c>
       <c r="B329" s="8">
-        <f>+[1]Séries_Site!B332</f>
+        <f ca="1">+[1]Séries_Site!B332</f>
         <v>127909</v>
       </c>
       <c r="C329" s="9">
-        <f>+[1]Séries_Site!C332</f>
+        <f ca="1">+[1]Séries_Site!C332</f>
         <v>111826</v>
       </c>
       <c r="D329" s="9">
-        <f>+[1]Séries_Site!D332</f>
+        <f ca="1">+[1]Séries_Site!D332</f>
         <v>16083</v>
       </c>
     </row>
@@ -10853,15 +11121,15 @@
         <v>40269</v>
       </c>
       <c r="B330" s="8">
-        <f>+[1]Séries_Site!B333</f>
+        <f ca="1">+[1]Séries_Site!B333</f>
         <v>128839</v>
       </c>
       <c r="C330" s="9">
-        <f>+[1]Séries_Site!C333</f>
+        <f ca="1">+[1]Séries_Site!C333</f>
         <v>112628</v>
       </c>
       <c r="D330" s="9">
-        <f>+[1]Séries_Site!D333</f>
+        <f ca="1">+[1]Séries_Site!D333</f>
         <v>16211</v>
       </c>
     </row>
@@ -10870,15 +11138,15 @@
         <v>40299</v>
       </c>
       <c r="B331" s="8">
-        <f>+[1]Séries_Site!B334</f>
+        <f ca="1">+[1]Séries_Site!B334</f>
         <v>129813</v>
       </c>
       <c r="C331" s="9">
-        <f>+[1]Séries_Site!C334</f>
+        <f ca="1">+[1]Séries_Site!C334</f>
         <v>113287</v>
       </c>
       <c r="D331" s="9">
-        <f>+[1]Séries_Site!D334</f>
+        <f ca="1">+[1]Séries_Site!D334</f>
         <v>16526</v>
       </c>
     </row>
@@ -10887,15 +11155,15 @@
         <v>40330</v>
       </c>
       <c r="B332" s="8">
-        <f>+[1]Séries_Site!B335</f>
+        <f ca="1">+[1]Séries_Site!B335</f>
         <v>130968</v>
       </c>
       <c r="C332" s="9">
-        <f>+[1]Séries_Site!C335</f>
+        <f ca="1">+[1]Séries_Site!C335</f>
         <v>113857</v>
       </c>
       <c r="D332" s="9">
-        <f>+[1]Séries_Site!D335</f>
+        <f ca="1">+[1]Séries_Site!D335</f>
         <v>17111</v>
       </c>
     </row>
@@ -10904,15 +11172,15 @@
         <v>40360</v>
       </c>
       <c r="B333" s="8">
-        <f>+[1]Séries_Site!B336</f>
+        <f ca="1">+[1]Séries_Site!B336</f>
         <v>132011</v>
       </c>
       <c r="C333" s="9">
-        <f>+[1]Séries_Site!C336</f>
+        <f ca="1">+[1]Séries_Site!C336</f>
         <v>114317</v>
       </c>
       <c r="D333" s="9">
-        <f>+[1]Séries_Site!D336</f>
+        <f ca="1">+[1]Séries_Site!D336</f>
         <v>17694</v>
       </c>
     </row>
@@ -10921,15 +11189,15 @@
         <v>40391</v>
       </c>
       <c r="B334" s="8">
-        <f>+[1]Séries_Site!B337</f>
+        <f ca="1">+[1]Séries_Site!B337</f>
         <v>132994</v>
       </c>
       <c r="C334" s="9">
-        <f>+[1]Séries_Site!C337</f>
+        <f ca="1">+[1]Séries_Site!C337</f>
         <v>114809</v>
       </c>
       <c r="D334" s="9">
-        <f>+[1]Séries_Site!D337</f>
+        <f ca="1">+[1]Séries_Site!D337</f>
         <v>18185</v>
       </c>
     </row>
@@ -10938,15 +11206,15 @@
         <v>40422</v>
       </c>
       <c r="B335" s="8">
-        <f>+[1]Séries_Site!B338</f>
+        <f ca="1">+[1]Séries_Site!B338</f>
         <v>134026</v>
       </c>
       <c r="C335" s="9">
-        <f>+[1]Séries_Site!C338</f>
+        <f ca="1">+[1]Séries_Site!C338</f>
         <v>115577</v>
       </c>
       <c r="D335" s="9">
-        <f>+[1]Séries_Site!D338</f>
+        <f ca="1">+[1]Séries_Site!D338</f>
         <v>18449</v>
       </c>
     </row>
@@ -10955,15 +11223,15 @@
         <v>40452</v>
       </c>
       <c r="B336" s="8">
-        <f>+[1]Séries_Site!B339</f>
+        <f ca="1">+[1]Séries_Site!B339</f>
         <v>135254</v>
       </c>
       <c r="C336" s="9">
-        <f>+[1]Séries_Site!C339</f>
+        <f ca="1">+[1]Séries_Site!C339</f>
         <v>116674</v>
       </c>
       <c r="D336" s="9">
-        <f>+[1]Séries_Site!D339</f>
+        <f ca="1">+[1]Séries_Site!D339</f>
         <v>18580</v>
       </c>
     </row>
@@ -10972,15 +11240,15 @@
         <v>40483</v>
       </c>
       <c r="B337" s="8">
-        <f>+[1]Séries_Site!B340</f>
+        <f ca="1">+[1]Séries_Site!B340</f>
         <v>135824</v>
       </c>
       <c r="C337" s="9">
-        <f>+[1]Séries_Site!C340</f>
+        <f ca="1">+[1]Séries_Site!C340</f>
         <v>117111</v>
       </c>
       <c r="D337" s="9">
-        <f>+[1]Séries_Site!D340</f>
+        <f ca="1">+[1]Séries_Site!D340</f>
         <v>18713</v>
       </c>
     </row>
@@ -10989,15 +11257,15 @@
         <v>40513</v>
       </c>
       <c r="B338" s="8">
-        <f>+[1]Séries_Site!B341</f>
+        <f ca="1">+[1]Séries_Site!B341</f>
         <v>136124</v>
       </c>
       <c r="C338" s="9">
-        <f>+[1]Séries_Site!C341</f>
+        <f ca="1">+[1]Séries_Site!C341</f>
         <v>117654</v>
       </c>
       <c r="D338" s="9">
-        <f>+[1]Séries_Site!D341</f>
+        <f ca="1">+[1]Séries_Site!D341</f>
         <v>18470</v>
       </c>
     </row>
@@ -11006,15 +11274,15 @@
         <v>40544</v>
       </c>
       <c r="B339" s="8">
-        <f>+[1]Séries_Site!B342</f>
+        <f ca="1">+[1]Séries_Site!B342</f>
         <v>137660</v>
       </c>
       <c r="C339" s="9">
-        <f>+[1]Séries_Site!C342</f>
+        <f ca="1">+[1]Séries_Site!C342</f>
         <v>118968</v>
       </c>
       <c r="D339" s="9">
-        <f>+[1]Séries_Site!D342</f>
+        <f ca="1">+[1]Séries_Site!D342</f>
         <v>18692</v>
       </c>
     </row>
@@ -11023,15 +11291,15 @@
         <v>40575</v>
       </c>
       <c r="B340" s="8">
-        <f>+[1]Séries_Site!B343</f>
+        <f ca="1">+[1]Séries_Site!B343</f>
         <v>138437</v>
       </c>
       <c r="C340" s="9">
-        <f>+[1]Séries_Site!C343</f>
+        <f ca="1">+[1]Séries_Site!C343</f>
         <v>119570</v>
       </c>
       <c r="D340" s="9">
-        <f>+[1]Séries_Site!D343</f>
+        <f ca="1">+[1]Séries_Site!D343</f>
         <v>18867</v>
       </c>
     </row>
@@ -11040,15 +11308,15 @@
         <v>40603</v>
       </c>
       <c r="B341" s="8">
-        <f>+[1]Séries_Site!B344</f>
+        <f ca="1">+[1]Séries_Site!B344</f>
         <v>139617</v>
       </c>
       <c r="C341" s="9">
-        <f>+[1]Séries_Site!C344</f>
+        <f ca="1">+[1]Séries_Site!C344</f>
         <v>120649</v>
       </c>
       <c r="D341" s="9">
-        <f>+[1]Séries_Site!D344</f>
+        <f ca="1">+[1]Séries_Site!D344</f>
         <v>18968</v>
       </c>
     </row>
@@ -11057,15 +11325,15 @@
         <v>40634</v>
       </c>
       <c r="B342" s="8">
-        <f>+[1]Séries_Site!B345</f>
+        <f ca="1">+[1]Séries_Site!B345</f>
         <v>140928</v>
       </c>
       <c r="C342" s="9">
-        <f>+[1]Séries_Site!C345</f>
+        <f ca="1">+[1]Séries_Site!C345</f>
         <v>122207</v>
       </c>
       <c r="D342" s="9">
-        <f>+[1]Séries_Site!D345</f>
+        <f ca="1">+[1]Séries_Site!D345</f>
         <v>18721</v>
       </c>
     </row>
@@ -11074,15 +11342,15 @@
         <v>40664</v>
       </c>
       <c r="B343" s="8">
-        <f>+[1]Séries_Site!B346</f>
+        <f ca="1">+[1]Séries_Site!B346</f>
         <v>142221</v>
       </c>
       <c r="C343" s="9">
-        <f>+[1]Séries_Site!C346</f>
+        <f ca="1">+[1]Séries_Site!C346</f>
         <v>123466</v>
       </c>
       <c r="D343" s="9">
-        <f>+[1]Séries_Site!D346</f>
+        <f ca="1">+[1]Séries_Site!D346</f>
         <v>18755</v>
       </c>
     </row>
@@ -11091,15 +11359,15 @@
         <v>40695</v>
       </c>
       <c r="B344" s="8">
-        <f>+[1]Séries_Site!B347</f>
+        <f ca="1">+[1]Séries_Site!B347</f>
         <v>142810</v>
       </c>
       <c r="C344" s="9">
-        <f>+[1]Séries_Site!C347</f>
+        <f ca="1">+[1]Séries_Site!C347</f>
         <v>123917</v>
       </c>
       <c r="D344" s="9">
-        <f>+[1]Séries_Site!D347</f>
+        <f ca="1">+[1]Séries_Site!D347</f>
         <v>18893</v>
       </c>
     </row>
@@ -11108,15 +11376,15 @@
         <v>40725</v>
       </c>
       <c r="B345" s="8">
-        <f>+[1]Séries_Site!B348</f>
+        <f ca="1">+[1]Séries_Site!B348</f>
         <v>143788</v>
       </c>
       <c r="C345" s="9">
-        <f>+[1]Séries_Site!C348</f>
+        <f ca="1">+[1]Séries_Site!C348</f>
         <v>124561</v>
       </c>
       <c r="D345" s="9">
-        <f>+[1]Séries_Site!D348</f>
+        <f ca="1">+[1]Séries_Site!D348</f>
         <v>19227</v>
       </c>
     </row>
@@ -11125,15 +11393,15 @@
         <v>40756</v>
       </c>
       <c r="B346" s="8">
-        <f>+[1]Séries_Site!B349</f>
+        <f ca="1">+[1]Séries_Site!B349</f>
         <v>144688</v>
       </c>
       <c r="C346" s="9">
-        <f>+[1]Séries_Site!C349</f>
+        <f ca="1">+[1]Séries_Site!C349</f>
         <v>125300</v>
       </c>
       <c r="D346" s="9">
-        <f>+[1]Séries_Site!D349</f>
+        <f ca="1">+[1]Séries_Site!D349</f>
         <v>19388</v>
       </c>
     </row>
@@ -11142,15 +11410,15 @@
         <v>40787</v>
       </c>
       <c r="B347" s="8">
-        <f>+[1]Séries_Site!B350</f>
+        <f ca="1">+[1]Séries_Site!B350</f>
         <v>145101</v>
       </c>
       <c r="C347" s="9">
-        <f>+[1]Séries_Site!C350</f>
+        <f ca="1">+[1]Séries_Site!C350</f>
         <v>125501</v>
       </c>
       <c r="D347" s="9">
-        <f>+[1]Séries_Site!D350</f>
+        <f ca="1">+[1]Séries_Site!D350</f>
         <v>19600</v>
       </c>
     </row>
@@ -11159,15 +11427,15 @@
         <v>40817</v>
       </c>
       <c r="B348" s="8">
-        <f>+[1]Séries_Site!B351</f>
+        <f ca="1">+[1]Séries_Site!B351</f>
         <v>145357</v>
       </c>
       <c r="C348" s="9">
-        <f>+[1]Séries_Site!C351</f>
+        <f ca="1">+[1]Séries_Site!C351</f>
         <v>125458</v>
       </c>
       <c r="D348" s="9">
-        <f>+[1]Séries_Site!D351</f>
+        <f ca="1">+[1]Séries_Site!D351</f>
         <v>19899</v>
       </c>
     </row>
@@ -11176,15 +11444,15 @@
         <v>40848</v>
       </c>
       <c r="B349" s="8">
-        <f>+[1]Séries_Site!B352</f>
+        <f ca="1">+[1]Séries_Site!B352</f>
         <v>145379</v>
       </c>
       <c r="C349" s="9">
-        <f>+[1]Séries_Site!C352</f>
+        <f ca="1">+[1]Séries_Site!C352</f>
         <v>125252</v>
       </c>
       <c r="D349" s="9">
-        <f>+[1]Séries_Site!D352</f>
+        <f ca="1">+[1]Séries_Site!D352</f>
         <v>20127</v>
       </c>
     </row>
@@ -11193,15 +11461,15 @@
         <v>40878</v>
       </c>
       <c r="B350" s="8">
-        <f>+[1]Séries_Site!B353</f>
+        <f ca="1">+[1]Séries_Site!B353</f>
         <v>144634</v>
       </c>
       <c r="C350" s="9">
-        <f>+[1]Séries_Site!C353</f>
+        <f ca="1">+[1]Séries_Site!C353</f>
         <v>124647</v>
       </c>
       <c r="D350" s="9">
-        <f>+[1]Séries_Site!D353</f>
+        <f ca="1">+[1]Séries_Site!D353</f>
         <v>19987</v>
       </c>
     </row>
@@ -11210,15 +11478,15 @@
         <v>40909</v>
       </c>
       <c r="B351" s="8">
-        <f>+[1]Séries_Site!B354</f>
+        <f ca="1">+[1]Séries_Site!B354</f>
         <v>146937</v>
       </c>
       <c r="C351" s="9">
-        <f>+[1]Séries_Site!C354</f>
+        <f ca="1">+[1]Séries_Site!C354</f>
         <v>126684</v>
       </c>
       <c r="D351" s="9">
-        <f>+[1]Séries_Site!D354</f>
+        <f ca="1">+[1]Séries_Site!D354</f>
         <v>20253</v>
       </c>
     </row>
@@ -11227,15 +11495,15 @@
         <v>40940</v>
       </c>
       <c r="B352" s="8">
-        <f>+[1]Séries_Site!B355</f>
+        <f ca="1">+[1]Séries_Site!B355</f>
         <v>147142</v>
       </c>
       <c r="C352" s="9">
-        <f>+[1]Séries_Site!C355</f>
+        <f ca="1">+[1]Séries_Site!C355</f>
         <v>126763</v>
       </c>
       <c r="D352" s="9">
-        <f>+[1]Séries_Site!D355</f>
+        <f ca="1">+[1]Séries_Site!D355</f>
         <v>20379</v>
       </c>
     </row>
@@ -11244,15 +11512,15 @@
         <v>40969</v>
       </c>
       <c r="B353" s="8">
-        <f>+[1]Séries_Site!B356</f>
+        <f ca="1">+[1]Séries_Site!B356</f>
         <v>147118</v>
       </c>
       <c r="C353" s="9">
-        <f>+[1]Séries_Site!C356</f>
+        <f ca="1">+[1]Séries_Site!C356</f>
         <v>127338</v>
       </c>
       <c r="D353" s="9">
-        <f>+[1]Séries_Site!D356</f>
+        <f ca="1">+[1]Séries_Site!D356</f>
         <v>19780</v>
       </c>
     </row>
@@ -11261,15 +11529,15 @@
         <v>41000</v>
       </c>
       <c r="B354" s="8">
-        <f>+[1]Séries_Site!B357</f>
+        <f ca="1">+[1]Séries_Site!B357</f>
         <v>147250</v>
       </c>
       <c r="C354" s="9">
-        <f>+[1]Séries_Site!C357</f>
+        <f ca="1">+[1]Séries_Site!C357</f>
         <v>127358</v>
       </c>
       <c r="D354" s="9">
-        <f>+[1]Séries_Site!D357</f>
+        <f ca="1">+[1]Séries_Site!D357</f>
         <v>19892</v>
       </c>
     </row>
@@ -11278,15 +11546,15 @@
         <v>41030</v>
       </c>
       <c r="B355" s="8">
-        <f>+[1]Séries_Site!B358</f>
+        <f ca="1">+[1]Séries_Site!B358</f>
         <v>147049</v>
       </c>
       <c r="C355" s="9">
-        <f>+[1]Séries_Site!C358</f>
+        <f ca="1">+[1]Séries_Site!C358</f>
         <v>127139</v>
       </c>
       <c r="D355" s="9">
-        <f>+[1]Séries_Site!D358</f>
+        <f ca="1">+[1]Séries_Site!D358</f>
         <v>19910</v>
       </c>
     </row>
@@ -11295,15 +11563,15 @@
         <v>41061</v>
       </c>
       <c r="B356" s="8">
-        <f>+[1]Séries_Site!B359</f>
+        <f ca="1">+[1]Séries_Site!B359</f>
         <v>149017</v>
       </c>
       <c r="C356" s="9">
-        <f>+[1]Séries_Site!C359</f>
+        <f ca="1">+[1]Séries_Site!C359</f>
         <v>129091</v>
       </c>
       <c r="D356" s="9">
-        <f>+[1]Séries_Site!D359</f>
+        <f ca="1">+[1]Séries_Site!D359</f>
         <v>19926</v>
       </c>
     </row>
@@ -11312,15 +11580,15 @@
         <v>41091</v>
       </c>
       <c r="B357" s="8">
-        <f>+[1]Séries_Site!B360</f>
+        <f ca="1">+[1]Séries_Site!B360</f>
         <v>149582</v>
       </c>
       <c r="C357" s="9">
-        <f>+[1]Séries_Site!C360</f>
+        <f ca="1">+[1]Séries_Site!C360</f>
         <v>129604</v>
       </c>
       <c r="D357" s="9">
-        <f>+[1]Séries_Site!D360</f>
+        <f ca="1">+[1]Séries_Site!D360</f>
         <v>19978</v>
       </c>
     </row>
@@ -11329,15 +11597,15 @@
         <v>41122</v>
       </c>
       <c r="B358" s="8">
-        <f>+[1]Séries_Site!B361</f>
+        <f ca="1">+[1]Séries_Site!B361</f>
         <v>149813</v>
       </c>
       <c r="C358" s="9">
-        <f>+[1]Séries_Site!C361</f>
+        <f ca="1">+[1]Séries_Site!C361</f>
         <v>129829</v>
       </c>
       <c r="D358" s="9">
-        <f>+[1]Séries_Site!D361</f>
+        <f ca="1">+[1]Séries_Site!D361</f>
         <v>19984</v>
       </c>
     </row>
@@ -11346,15 +11614,15 @@
         <v>41153</v>
       </c>
       <c r="B359" s="8">
-        <f>+[1]Séries_Site!B362</f>
+        <f ca="1">+[1]Séries_Site!B362</f>
         <v>150132</v>
       </c>
       <c r="C359" s="9">
-        <f>+[1]Séries_Site!C362</f>
+        <f ca="1">+[1]Séries_Site!C362</f>
         <v>130117</v>
       </c>
       <c r="D359" s="9">
-        <f>+[1]Séries_Site!D362</f>
+        <f ca="1">+[1]Séries_Site!D362</f>
         <v>20015</v>
       </c>
     </row>
@@ -11363,15 +11631,15 @@
         <v>41183</v>
       </c>
       <c r="B360" s="8">
-        <f>+[1]Séries_Site!B363</f>
+        <f ca="1">+[1]Séries_Site!B363</f>
         <v>151565</v>
       </c>
       <c r="C360" s="9">
-        <f>+[1]Séries_Site!C363</f>
+        <f ca="1">+[1]Séries_Site!C363</f>
         <v>131673</v>
       </c>
       <c r="D360" s="9">
-        <f>+[1]Séries_Site!D363</f>
+        <f ca="1">+[1]Séries_Site!D363</f>
         <v>19892</v>
       </c>
     </row>
@@ -11380,15 +11648,15 @@
         <v>41214</v>
       </c>
       <c r="B361" s="8">
-        <f>+[1]Séries_Site!B364</f>
+        <f ca="1">+[1]Séries_Site!B364</f>
         <v>152270</v>
       </c>
       <c r="C361" s="9">
-        <f>+[1]Séries_Site!C364</f>
+        <f ca="1">+[1]Séries_Site!C364</f>
         <v>132269</v>
       </c>
       <c r="D361" s="9">
-        <f>+[1]Séries_Site!D364</f>
+        <f ca="1">+[1]Séries_Site!D364</f>
         <v>20001</v>
       </c>
     </row>
@@ -11397,15 +11665,15 @@
         <v>41244</v>
       </c>
       <c r="B362" s="8">
-        <f>+[1]Séries_Site!B365</f>
+        <f ca="1">+[1]Séries_Site!B365</f>
         <v>151656</v>
       </c>
       <c r="C362" s="9">
-        <f>+[1]Séries_Site!C365</f>
+        <f ca="1">+[1]Séries_Site!C365</f>
         <v>132096</v>
       </c>
       <c r="D362" s="9">
-        <f>+[1]Séries_Site!D365</f>
+        <f ca="1">+[1]Séries_Site!D365</f>
         <v>19560</v>
       </c>
     </row>
@@ -11414,15 +11682,15 @@
         <v>41275</v>
       </c>
       <c r="B363" s="8">
-        <f>+[1]Séries_Site!B366</f>
+        <f ca="1">+[1]Séries_Site!B366</f>
         <v>153807</v>
       </c>
       <c r="C363" s="9">
-        <f>+[1]Séries_Site!C366</f>
+        <f ca="1">+[1]Séries_Site!C366</f>
         <v>133998</v>
       </c>
       <c r="D363" s="9">
-        <f>+[1]Séries_Site!D366</f>
+        <f ca="1">+[1]Séries_Site!D366</f>
         <v>19809</v>
       </c>
     </row>
@@ -11431,15 +11699,15 @@
         <v>41306</v>
       </c>
       <c r="B364" s="8">
-        <f>+[1]Séries_Site!B367</f>
+        <f ca="1">+[1]Séries_Site!B367</f>
         <v>154927</v>
       </c>
       <c r="C364" s="9">
-        <f>+[1]Séries_Site!C367</f>
+        <f ca="1">+[1]Séries_Site!C367</f>
         <v>134671</v>
       </c>
       <c r="D364" s="9">
-        <f>+[1]Séries_Site!D367</f>
+        <f ca="1">+[1]Séries_Site!D367</f>
         <v>20256</v>
       </c>
     </row>
@@ -11448,15 +11716,15 @@
         <v>41334</v>
       </c>
       <c r="B365" s="8">
-        <f>+[1]Séries_Site!B368</f>
+        <f ca="1">+[1]Séries_Site!B368</f>
         <v>155070</v>
       </c>
       <c r="C365" s="9">
-        <f>+[1]Séries_Site!C368</f>
+        <f ca="1">+[1]Séries_Site!C368</f>
         <v>134557</v>
       </c>
       <c r="D365" s="9">
-        <f>+[1]Séries_Site!D368</f>
+        <f ca="1">+[1]Séries_Site!D368</f>
         <v>20513</v>
       </c>
     </row>
@@ -11465,15 +11733,15 @@
         <v>41365</v>
       </c>
       <c r="B366" s="8">
-        <f>+[1]Séries_Site!B369</f>
+        <f ca="1">+[1]Séries_Site!B369</f>
         <v>155970</v>
       </c>
       <c r="C366" s="9">
-        <f>+[1]Séries_Site!C369</f>
+        <f ca="1">+[1]Séries_Site!C369</f>
         <v>135456</v>
       </c>
       <c r="D366" s="9">
-        <f>+[1]Séries_Site!D369</f>
+        <f ca="1">+[1]Séries_Site!D369</f>
         <v>20514</v>
       </c>
     </row>
@@ -11482,15 +11750,15 @@
         <v>41395</v>
       </c>
       <c r="B367" s="8">
-        <f>+[1]Séries_Site!B370</f>
+        <f ca="1">+[1]Séries_Site!B370</f>
         <v>156667</v>
       </c>
       <c r="C367" s="9">
-        <f>+[1]Séries_Site!C370</f>
+        <f ca="1">+[1]Séries_Site!C370</f>
         <v>135997</v>
       </c>
       <c r="D367" s="9">
-        <f>+[1]Séries_Site!D370</f>
+        <f ca="1">+[1]Séries_Site!D370</f>
         <v>20670</v>
       </c>
     </row>
@@ -11499,15 +11767,15 @@
         <v>41426</v>
       </c>
       <c r="B368" s="8">
-        <f>+[1]Séries_Site!B371</f>
+        <f ca="1">+[1]Séries_Site!B371</f>
         <v>156471</v>
       </c>
       <c r="C368" s="9">
-        <f>+[1]Séries_Site!C371</f>
+        <f ca="1">+[1]Séries_Site!C371</f>
         <v>135715</v>
       </c>
       <c r="D368" s="9">
-        <f>+[1]Séries_Site!D371</f>
+        <f ca="1">+[1]Séries_Site!D371</f>
         <v>20756</v>
       </c>
     </row>
@@ -11516,15 +11784,15 @@
         <v>41456</v>
       </c>
       <c r="B369" s="8">
-        <f>+[1]Séries_Site!B372</f>
+        <f ca="1">+[1]Séries_Site!B372</f>
         <v>156944</v>
       </c>
       <c r="C369" s="9">
-        <f>+[1]Séries_Site!C372</f>
+        <f ca="1">+[1]Séries_Site!C372</f>
         <v>135987</v>
       </c>
       <c r="D369" s="9">
-        <f>+[1]Séries_Site!D372</f>
+        <f ca="1">+[1]Séries_Site!D372</f>
         <v>20957</v>
       </c>
     </row>
@@ -11533,15 +11801,15 @@
         <v>41487</v>
       </c>
       <c r="B370" s="8">
-        <f>+[1]Séries_Site!B373</f>
+        <f ca="1">+[1]Séries_Site!B373</f>
         <v>157641</v>
       </c>
       <c r="C370" s="9">
-        <f>+[1]Séries_Site!C373</f>
+        <f ca="1">+[1]Séries_Site!C373</f>
         <v>136234</v>
       </c>
       <c r="D370" s="9">
-        <f>+[1]Séries_Site!D373</f>
+        <f ca="1">+[1]Séries_Site!D373</f>
         <v>21407</v>
       </c>
     </row>
@@ -11550,15 +11818,15 @@
         <v>41518</v>
       </c>
       <c r="B371" s="8">
-        <f>+[1]Séries_Site!B374</f>
+        <f ca="1">+[1]Séries_Site!B374</f>
         <v>158079</v>
       </c>
       <c r="C371" s="9">
-        <f>+[1]Séries_Site!C374</f>
+        <f ca="1">+[1]Séries_Site!C374</f>
         <v>136466</v>
       </c>
       <c r="D371" s="9">
-        <f>+[1]Séries_Site!D374</f>
+        <f ca="1">+[1]Séries_Site!D374</f>
         <v>21613</v>
       </c>
     </row>
@@ -11567,15 +11835,15 @@
         <v>41548</v>
       </c>
       <c r="B372" s="8">
-        <f>+[1]Séries_Site!B375</f>
+        <f ca="1">+[1]Séries_Site!B375</f>
         <v>159648</v>
       </c>
       <c r="C372" s="9">
-        <f>+[1]Séries_Site!C375</f>
+        <f ca="1">+[1]Séries_Site!C375</f>
         <v>137775</v>
       </c>
       <c r="D372" s="9">
-        <f>+[1]Séries_Site!D375</f>
+        <f ca="1">+[1]Séries_Site!D375</f>
         <v>21873</v>
       </c>
     </row>
@@ -11584,15 +11852,15 @@
         <v>41579</v>
       </c>
       <c r="B373" s="8">
-        <f>+[1]Séries_Site!B376</f>
+        <f ca="1">+[1]Séries_Site!B376</f>
         <v>158733</v>
       </c>
       <c r="C373" s="9">
-        <f>+[1]Séries_Site!C376</f>
+        <f ca="1">+[1]Séries_Site!C376</f>
         <v>136775</v>
       </c>
       <c r="D373" s="9">
-        <f>+[1]Séries_Site!D376</f>
+        <f ca="1">+[1]Séries_Site!D376</f>
         <v>21958</v>
       </c>
     </row>
@@ -11601,15 +11869,15 @@
         <v>41609</v>
       </c>
       <c r="B374" s="8">
-        <f>+[1]Séries_Site!B377</f>
+        <f ca="1">+[1]Séries_Site!B377</f>
         <v>156970</v>
       </c>
       <c r="C374" s="9">
-        <f>+[1]Séries_Site!C377</f>
+        <f ca="1">+[1]Séries_Site!C377</f>
         <v>135343</v>
       </c>
       <c r="D374" s="9">
-        <f>+[1]Séries_Site!D377</f>
+        <f ca="1">+[1]Séries_Site!D377</f>
         <v>21627</v>
       </c>
     </row>
@@ -11618,15 +11886,15 @@
         <v>41640</v>
       </c>
       <c r="B375" s="8">
-        <f>+[1]Séries_Site!B378</f>
+        <f ca="1">+[1]Séries_Site!B378</f>
         <v>156878</v>
       </c>
       <c r="C375" s="9">
-        <f>+[1]Séries_Site!C378</f>
+        <f ca="1">+[1]Séries_Site!C378</f>
         <v>135429</v>
       </c>
       <c r="D375" s="9">
-        <f>+[1]Séries_Site!D378</f>
+        <f ca="1">+[1]Séries_Site!D378</f>
         <v>21449</v>
       </c>
     </row>
@@ -11635,15 +11903,15 @@
         <v>41671</v>
       </c>
       <c r="B376" s="8">
-        <f>+[1]Séries_Site!B379</f>
+        <f ca="1">+[1]Séries_Site!B379</f>
         <v>156133</v>
       </c>
       <c r="C376" s="9">
-        <f>+[1]Séries_Site!C379</f>
+        <f ca="1">+[1]Séries_Site!C379</f>
         <v>134860</v>
       </c>
       <c r="D376" s="9">
-        <f>+[1]Séries_Site!D379</f>
+        <f ca="1">+[1]Séries_Site!D379</f>
         <v>21273</v>
       </c>
     </row>
@@ -11652,15 +11920,15 @@
         <v>41699</v>
       </c>
       <c r="B377" s="8">
-        <f>+[1]Séries_Site!B380</f>
+        <f ca="1">+[1]Séries_Site!B380</f>
         <v>155511</v>
       </c>
       <c r="C377" s="9">
-        <f>+[1]Séries_Site!C380</f>
+        <f ca="1">+[1]Séries_Site!C380</f>
         <v>134289</v>
       </c>
       <c r="D377" s="9">
-        <f>+[1]Séries_Site!D380</f>
+        <f ca="1">+[1]Séries_Site!D380</f>
         <v>21222</v>
       </c>
     </row>
@@ -11669,15 +11937,15 @@
         <v>41730</v>
       </c>
       <c r="B378" s="8">
-        <f>+[1]Séries_Site!B381</f>
+        <f ca="1">+[1]Séries_Site!B381</f>
         <v>154191</v>
       </c>
       <c r="C378" s="9">
-        <f>+[1]Séries_Site!C381</f>
+        <f ca="1">+[1]Séries_Site!C381</f>
         <v>133068</v>
       </c>
       <c r="D378" s="9">
-        <f>+[1]Séries_Site!D381</f>
+        <f ca="1">+[1]Séries_Site!D381</f>
         <v>21123</v>
       </c>
     </row>
@@ -11686,15 +11954,15 @@
         <v>41760</v>
       </c>
       <c r="B379" s="8">
-        <f>+[1]Séries_Site!B382</f>
+        <f ca="1">+[1]Séries_Site!B382</f>
         <v>152284</v>
       </c>
       <c r="C379" s="9">
-        <f>+[1]Séries_Site!C382</f>
+        <f ca="1">+[1]Séries_Site!C382</f>
         <v>131212</v>
       </c>
       <c r="D379" s="9">
-        <f>+[1]Séries_Site!D382</f>
+        <f ca="1">+[1]Séries_Site!D382</f>
         <v>21072</v>
       </c>
     </row>
@@ -11703,15 +11971,15 @@
         <v>41791</v>
       </c>
       <c r="B380" s="8">
-        <f>+[1]Séries_Site!B383</f>
+        <f ca="1">+[1]Séries_Site!B383</f>
         <v>151430</v>
       </c>
       <c r="C380" s="9">
-        <f>+[1]Séries_Site!C383</f>
+        <f ca="1">+[1]Séries_Site!C383</f>
         <v>130561</v>
       </c>
       <c r="D380" s="9">
-        <f>+[1]Séries_Site!D383</f>
+        <f ca="1">+[1]Séries_Site!D383</f>
         <v>20869</v>
       </c>
     </row>
@@ -11720,15 +11988,15 @@
         <v>41821</v>
       </c>
       <c r="B381" s="8">
-        <f>+[1]Séries_Site!B384</f>
+        <f ca="1">+[1]Séries_Site!B384</f>
         <v>150293</v>
       </c>
       <c r="C381" s="9">
-        <f>+[1]Séries_Site!C384</f>
+        <f ca="1">+[1]Séries_Site!C384</f>
         <v>129867</v>
       </c>
       <c r="D381" s="9">
-        <f>+[1]Séries_Site!D384</f>
+        <f ca="1">+[1]Séries_Site!D384</f>
         <v>20426</v>
       </c>
     </row>
@@ -11737,15 +12005,15 @@
         <v>41852</v>
       </c>
       <c r="B382" s="8">
-        <f>+[1]Séries_Site!B385</f>
+        <f ca="1">+[1]Séries_Site!B385</f>
         <v>148910</v>
       </c>
       <c r="C382" s="9">
-        <f>+[1]Séries_Site!C385</f>
+        <f ca="1">+[1]Séries_Site!C385</f>
         <v>128754</v>
       </c>
       <c r="D382" s="9">
-        <f>+[1]Séries_Site!D385</f>
+        <f ca="1">+[1]Séries_Site!D385</f>
         <v>20156</v>
       </c>
     </row>
@@ -11754,15 +12022,15 @@
         <v>41883</v>
       </c>
       <c r="B383" s="8">
-        <f>+[1]Séries_Site!B386</f>
+        <f ca="1">+[1]Séries_Site!B386</f>
         <v>147751</v>
       </c>
       <c r="C383" s="9">
-        <f>+[1]Séries_Site!C386</f>
+        <f ca="1">+[1]Séries_Site!C386</f>
         <v>128273</v>
       </c>
       <c r="D383" s="9">
-        <f>+[1]Séries_Site!D386</f>
+        <f ca="1">+[1]Séries_Site!D386</f>
         <v>19478</v>
       </c>
     </row>
@@ -11771,15 +12039,15 @@
         <v>41913</v>
       </c>
       <c r="B384" s="8">
-        <f>+[1]Séries_Site!B387</f>
+        <f ca="1">+[1]Séries_Site!B387</f>
         <v>147043</v>
       </c>
       <c r="C384" s="9">
-        <f>+[1]Séries_Site!C387</f>
+        <f ca="1">+[1]Séries_Site!C387</f>
         <v>127874</v>
       </c>
       <c r="D384" s="9">
-        <f>+[1]Séries_Site!D387</f>
+        <f ca="1">+[1]Séries_Site!D387</f>
         <v>19169</v>
       </c>
     </row>
@@ -11788,15 +12056,15 @@
         <v>41944</v>
       </c>
       <c r="B385" s="8">
-        <f>+[1]Séries_Site!B388</f>
+        <f ca="1">+[1]Séries_Site!B388</f>
         <v>146161</v>
       </c>
       <c r="C385" s="9">
-        <f>+[1]Séries_Site!C388</f>
+        <f ca="1">+[1]Séries_Site!C388</f>
         <v>127365</v>
       </c>
       <c r="D385" s="9">
-        <f>+[1]Séries_Site!D388</f>
+        <f ca="1">+[1]Séries_Site!D388</f>
         <v>18796</v>
       </c>
     </row>
@@ -11805,15 +12073,15 @@
         <v>41974</v>
       </c>
       <c r="B386" s="8">
-        <f>+[1]Séries_Site!B389</f>
+        <f ca="1">+[1]Séries_Site!B389</f>
         <v>144508</v>
       </c>
       <c r="C386" s="9">
-        <f>+[1]Séries_Site!C389</f>
+        <f ca="1">+[1]Séries_Site!C389</f>
         <v>125977</v>
       </c>
       <c r="D386" s="9">
-        <f>+[1]Séries_Site!D389</f>
+        <f ca="1">+[1]Séries_Site!D389</f>
         <v>18531</v>
       </c>
     </row>
@@ -11822,15 +12090,15 @@
         <v>42005</v>
       </c>
       <c r="B387" s="8">
-        <f>+[1]Séries_Site!B390</f>
+        <f ca="1">+[1]Séries_Site!B390</f>
         <v>145632</v>
       </c>
       <c r="C387" s="9">
-        <f>+[1]Séries_Site!C390</f>
+        <f ca="1">+[1]Séries_Site!C390</f>
         <v>127247</v>
       </c>
       <c r="D387" s="9">
-        <f>+[1]Séries_Site!D390</f>
+        <f ca="1">+[1]Séries_Site!D390</f>
         <v>18385</v>
       </c>
     </row>
@@ -11839,15 +12107,15 @@
         <v>42036</v>
       </c>
       <c r="B388" s="8">
-        <f>+[1]Séries_Site!B391</f>
+        <f ca="1">+[1]Séries_Site!B391</f>
         <v>143945</v>
       </c>
       <c r="C388" s="9">
-        <f>+[1]Séries_Site!C391</f>
+        <f ca="1">+[1]Séries_Site!C391</f>
         <v>125689</v>
       </c>
       <c r="D388" s="9">
-        <f>+[1]Séries_Site!D391</f>
+        <f ca="1">+[1]Séries_Site!D391</f>
         <v>18256</v>
       </c>
     </row>
@@ -11856,15 +12124,15 @@
         <v>42064</v>
       </c>
       <c r="B389" s="8">
-        <f>+[1]Séries_Site!B392</f>
+        <f ca="1">+[1]Séries_Site!B392</f>
         <v>142578</v>
       </c>
       <c r="C389" s="9">
-        <f>+[1]Séries_Site!C392</f>
+        <f ca="1">+[1]Séries_Site!C392</f>
         <v>124744</v>
       </c>
       <c r="D389" s="9">
-        <f>+[1]Séries_Site!D392</f>
+        <f ca="1">+[1]Séries_Site!D392</f>
         <v>17834</v>
       </c>
     </row>
@@ -11873,15 +12141,15 @@
         <v>42095</v>
       </c>
       <c r="B390" s="8">
-        <f>+[1]Séries_Site!B393</f>
+        <f ca="1">+[1]Séries_Site!B393</f>
         <v>141489</v>
       </c>
       <c r="C390" s="9">
-        <f>+[1]Séries_Site!C393</f>
+        <f ca="1">+[1]Séries_Site!C393</f>
         <v>124113</v>
       </c>
       <c r="D390" s="9">
-        <f>+[1]Séries_Site!D393</f>
+        <f ca="1">+[1]Séries_Site!D393</f>
         <v>17376</v>
       </c>
     </row>
@@ -11890,15 +12158,15 @@
         <v>42125</v>
       </c>
       <c r="B391" s="8">
-        <f>+[1]Séries_Site!B394</f>
+        <f ca="1">+[1]Séries_Site!B394</f>
         <v>140335</v>
       </c>
       <c r="C391" s="9">
-        <f>+[1]Séries_Site!C394</f>
+        <f ca="1">+[1]Séries_Site!C394</f>
         <v>123220</v>
       </c>
       <c r="D391" s="9">
-        <f>+[1]Séries_Site!D394</f>
+        <f ca="1">+[1]Séries_Site!D394</f>
         <v>17115</v>
       </c>
     </row>
@@ -11907,15 +12175,15 @@
         <v>42156</v>
       </c>
       <c r="B392" s="8">
-        <f>+[1]Séries_Site!B395</f>
+        <f ca="1">+[1]Séries_Site!B395</f>
         <v>139240</v>
       </c>
       <c r="C392" s="9">
-        <f>+[1]Séries_Site!C395</f>
+        <f ca="1">+[1]Séries_Site!C395</f>
         <v>122471</v>
       </c>
       <c r="D392" s="9">
-        <f>+[1]Séries_Site!D395</f>
+        <f ca="1">+[1]Séries_Site!D395</f>
         <v>16769</v>
       </c>
     </row>
@@ -11924,15 +12192,15 @@
         <v>42186</v>
       </c>
       <c r="B393" s="8">
-        <f>+[1]Séries_Site!B396</f>
+        <f ca="1">+[1]Séries_Site!B396</f>
         <v>138181</v>
       </c>
       <c r="C393" s="9">
-        <f>+[1]Séries_Site!C396</f>
+        <f ca="1">+[1]Séries_Site!C396</f>
         <v>121639</v>
       </c>
       <c r="D393" s="9">
-        <f>+[1]Séries_Site!D396</f>
+        <f ca="1">+[1]Séries_Site!D396</f>
         <v>16542</v>
       </c>
     </row>
@@ -11941,15 +12209,15 @@
         <v>42217</v>
       </c>
       <c r="B394" s="8">
-        <f>+[1]Séries_Site!B397</f>
+        <f ca="1">+[1]Séries_Site!B397</f>
         <v>137178</v>
       </c>
       <c r="C394" s="9">
-        <f>+[1]Séries_Site!C397</f>
+        <f ca="1">+[1]Séries_Site!C397</f>
         <v>121160</v>
       </c>
       <c r="D394" s="9">
-        <f>+[1]Séries_Site!D397</f>
+        <f ca="1">+[1]Séries_Site!D397</f>
         <v>16018</v>
       </c>
     </row>
@@ -11958,15 +12226,15 @@
         <v>42248</v>
       </c>
       <c r="B395" s="8">
-        <f>+[1]Séries_Site!B398</f>
+        <f ca="1">+[1]Séries_Site!B398</f>
         <v>136464</v>
       </c>
       <c r="C395" s="9">
-        <f>+[1]Séries_Site!C398</f>
+        <f ca="1">+[1]Séries_Site!C398</f>
         <v>120524</v>
       </c>
       <c r="D395" s="9">
-        <f>+[1]Séries_Site!D398</f>
+        <f ca="1">+[1]Séries_Site!D398</f>
         <v>15940</v>
       </c>
     </row>
@@ -11975,15 +12243,15 @@
         <v>42278</v>
       </c>
       <c r="B396" s="8">
-        <f>+[1]Séries_Site!B399</f>
+        <f ca="1">+[1]Séries_Site!B399</f>
         <v>135460</v>
       </c>
       <c r="C396" s="9">
-        <f>+[1]Séries_Site!C399</f>
+        <f ca="1">+[1]Séries_Site!C399</f>
         <v>119600</v>
       </c>
       <c r="D396" s="9">
-        <f>+[1]Séries_Site!D399</f>
+        <f ca="1">+[1]Séries_Site!D399</f>
         <v>15860</v>
       </c>
     </row>
@@ -11992,15 +12260,15 @@
         <v>42309</v>
       </c>
       <c r="B397" s="8">
-        <f>+[1]Séries_Site!B400</f>
+        <f ca="1">+[1]Séries_Site!B400</f>
         <v>133975</v>
       </c>
       <c r="C397" s="9">
-        <f>+[1]Séries_Site!C400</f>
+        <f ca="1">+[1]Séries_Site!C400</f>
         <v>118239</v>
       </c>
       <c r="D397" s="9">
-        <f>+[1]Séries_Site!D400</f>
+        <f ca="1">+[1]Séries_Site!D400</f>
         <v>15736</v>
       </c>
     </row>
@@ -12009,15 +12277,15 @@
         <v>42339</v>
       </c>
       <c r="B398" s="8">
-        <f>+[1]Séries_Site!B401</f>
+        <f ca="1">+[1]Séries_Site!B401</f>
         <v>133100</v>
       </c>
       <c r="C398" s="9">
-        <f>+[1]Séries_Site!C401</f>
+        <f ca="1">+[1]Séries_Site!C401</f>
         <v>117660</v>
       </c>
       <c r="D398" s="9">
-        <f>+[1]Séries_Site!D401</f>
+        <f ca="1">+[1]Séries_Site!D401</f>
         <v>15440</v>
       </c>
     </row>
@@ -12026,15 +12294,15 @@
         <v>42370</v>
       </c>
       <c r="B399" s="8">
-        <f>+[1]Séries_Site!B402</f>
+        <f ca="1">+[1]Séries_Site!B402</f>
         <v>133700</v>
       </c>
       <c r="C399" s="9">
-        <f>+[1]Séries_Site!C402</f>
+        <f ca="1">+[1]Séries_Site!C402</f>
         <v>118280</v>
       </c>
       <c r="D399" s="9">
-        <f>+[1]Séries_Site!D402</f>
+        <f ca="1">+[1]Séries_Site!D402</f>
         <v>15420</v>
       </c>
     </row>
@@ -12043,15 +12311,15 @@
         <v>42401</v>
       </c>
       <c r="B400" s="8">
-        <f>+[1]Séries_Site!B403</f>
+        <f ca="1">+[1]Séries_Site!B403</f>
         <v>134652</v>
       </c>
       <c r="C400" s="9">
-        <f>+[1]Séries_Site!C403</f>
+        <f ca="1">+[1]Séries_Site!C403</f>
         <v>119277</v>
       </c>
       <c r="D400" s="9">
-        <f>+[1]Séries_Site!D403</f>
+        <f ca="1">+[1]Séries_Site!D403</f>
         <v>15375</v>
       </c>
     </row>
@@ -12060,15 +12328,15 @@
         <v>42430</v>
       </c>
       <c r="B401" s="8">
-        <f>+[1]Séries_Site!B404</f>
+        <f ca="1">+[1]Séries_Site!B404</f>
         <v>133405</v>
       </c>
       <c r="C401" s="9">
-        <f>+[1]Séries_Site!C404</f>
+        <f ca="1">+[1]Séries_Site!C404</f>
         <v>118163</v>
       </c>
       <c r="D401" s="9">
-        <f>+[1]Séries_Site!D404</f>
+        <f ca="1">+[1]Séries_Site!D404</f>
         <v>15242</v>
       </c>
     </row>
@@ -12077,15 +12345,15 @@
         <v>42461</v>
       </c>
       <c r="B402" s="8">
-        <f>+[1]Séries_Site!B405</f>
+        <f ca="1">+[1]Séries_Site!B405</f>
         <v>134121</v>
       </c>
       <c r="C402" s="9">
-        <f>+[1]Séries_Site!C405</f>
+        <f ca="1">+[1]Séries_Site!C405</f>
         <v>117871</v>
       </c>
       <c r="D402" s="9">
-        <f>+[1]Séries_Site!D405</f>
+        <f ca="1">+[1]Séries_Site!D405</f>
         <v>16250</v>
       </c>
     </row>
@@ -12094,15 +12362,15 @@
         <v>42491</v>
       </c>
       <c r="B403" s="8">
-        <f>+[1]Séries_Site!B406</f>
+        <f ca="1">+[1]Séries_Site!B406</f>
         <v>132767</v>
       </c>
       <c r="C403" s="9">
-        <f>+[1]Séries_Site!C406</f>
+        <f ca="1">+[1]Séries_Site!C406</f>
         <v>116570</v>
       </c>
       <c r="D403" s="9">
-        <f>+[1]Séries_Site!D406</f>
+        <f ca="1">+[1]Séries_Site!D406</f>
         <v>16197</v>
       </c>
     </row>
@@ -12111,15 +12379,15 @@
         <v>42522</v>
       </c>
       <c r="B404" s="8">
-        <f>+[1]Séries_Site!B407</f>
+        <f ca="1">+[1]Séries_Site!B407</f>
         <v>132762</v>
       </c>
       <c r="C404" s="9">
-        <f>+[1]Séries_Site!C407</f>
+        <f ca="1">+[1]Séries_Site!C407</f>
         <v>116585</v>
       </c>
       <c r="D404" s="9">
-        <f>+[1]Séries_Site!D407</f>
+        <f ca="1">+[1]Séries_Site!D407</f>
         <v>16177</v>
       </c>
     </row>
@@ -12128,15 +12396,15 @@
         <v>42552</v>
       </c>
       <c r="B405" s="8">
-        <f>+[1]Séries_Site!B408</f>
+        <f ca="1">+[1]Séries_Site!B408</f>
         <v>131677</v>
       </c>
       <c r="C405" s="9">
-        <f>+[1]Séries_Site!C408</f>
+        <f ca="1">+[1]Séries_Site!C408</f>
         <v>115515</v>
       </c>
       <c r="D405" s="9">
-        <f>+[1]Séries_Site!D408</f>
+        <f ca="1">+[1]Séries_Site!D408</f>
         <v>16162</v>
       </c>
     </row>
@@ -12145,15 +12413,15 @@
         <v>42583</v>
       </c>
       <c r="B406" s="8">
-        <f>+[1]Séries_Site!B409</f>
+        <f ca="1">+[1]Séries_Site!B409</f>
         <v>131055</v>
       </c>
       <c r="C406" s="9">
-        <f>+[1]Séries_Site!C409</f>
+        <f ca="1">+[1]Séries_Site!C409</f>
         <v>114941</v>
       </c>
       <c r="D406" s="9">
-        <f>+[1]Séries_Site!D409</f>
+        <f ca="1">+[1]Séries_Site!D409</f>
         <v>16114</v>
       </c>
     </row>
@@ -12162,15 +12430,15 @@
         <v>42614</v>
       </c>
       <c r="B407" s="8">
-        <f>+[1]Séries_Site!B410</f>
+        <f ca="1">+[1]Séries_Site!B410</f>
         <v>129699</v>
       </c>
       <c r="C407" s="9">
-        <f>+[1]Séries_Site!C410</f>
+        <f ca="1">+[1]Séries_Site!C410</f>
         <v>113206</v>
       </c>
       <c r="D407" s="9">
-        <f>+[1]Séries_Site!D410</f>
+        <f ca="1">+[1]Séries_Site!D410</f>
         <v>16493</v>
       </c>
     </row>
@@ -12179,15 +12447,15 @@
         <v>42644</v>
       </c>
       <c r="B408" s="8">
-        <f>+[1]Séries_Site!B411</f>
+        <f ca="1">+[1]Séries_Site!B411</f>
         <v>128964</v>
       </c>
       <c r="C408" s="9">
-        <f>+[1]Séries_Site!C411</f>
+        <f ca="1">+[1]Séries_Site!C411</f>
         <v>112052</v>
       </c>
       <c r="D408" s="9">
-        <f>+[1]Séries_Site!D411</f>
+        <f ca="1">+[1]Séries_Site!D411</f>
         <v>16912</v>
       </c>
     </row>
@@ -12196,15 +12464,15 @@
         <v>42675</v>
       </c>
       <c r="B409" s="8">
-        <f>+[1]Séries_Site!B412</f>
+        <f ca="1">+[1]Séries_Site!B412</f>
         <v>128394</v>
       </c>
       <c r="C409" s="9">
-        <f>+[1]Séries_Site!C412</f>
+        <f ca="1">+[1]Séries_Site!C412</f>
         <v>111358</v>
       </c>
       <c r="D409" s="9">
-        <f>+[1]Séries_Site!D412</f>
+        <f ca="1">+[1]Séries_Site!D412</f>
         <v>17036</v>
       </c>
     </row>
@@ -12213,15 +12481,15 @@
         <v>42705</v>
       </c>
       <c r="B410" s="8">
-        <f>+[1]Séries_Site!B413</f>
+        <f ca="1">+[1]Séries_Site!B413</f>
         <v>126296</v>
       </c>
       <c r="C410" s="9">
-        <f>+[1]Séries_Site!C413</f>
+        <f ca="1">+[1]Séries_Site!C413</f>
         <v>109530</v>
       </c>
       <c r="D410" s="9">
-        <f>+[1]Séries_Site!D413</f>
+        <f ca="1">+[1]Séries_Site!D413</f>
         <v>16766</v>
       </c>
     </row>
@@ -12230,15 +12498,15 @@
         <v>42736</v>
       </c>
       <c r="B411" s="8">
-        <f>+[1]Séries_Site!B414</f>
+        <f ca="1">+[1]Séries_Site!B414</f>
         <v>126833</v>
       </c>
       <c r="C411" s="9">
-        <f>+[1]Séries_Site!C414</f>
+        <f ca="1">+[1]Séries_Site!C414</f>
         <v>109422</v>
       </c>
       <c r="D411" s="9">
-        <f>+[1]Séries_Site!D414</f>
+        <f ca="1">+[1]Séries_Site!D414</f>
         <v>17411</v>
       </c>
     </row>
@@ -12247,15 +12515,15 @@
         <v>42767</v>
       </c>
       <c r="B412" s="8">
-        <f>+[1]Séries_Site!B415</f>
+        <f ca="1">+[1]Séries_Site!B415</f>
         <v>127257</v>
       </c>
       <c r="C412" s="9">
-        <f>+[1]Séries_Site!C415</f>
+        <f ca="1">+[1]Séries_Site!C415</f>
         <v>109674</v>
       </c>
       <c r="D412" s="9">
-        <f>+[1]Séries_Site!D415</f>
+        <f ca="1">+[1]Séries_Site!D415</f>
         <v>17583</v>
       </c>
     </row>
@@ -12264,15 +12532,15 @@
         <v>42795</v>
       </c>
       <c r="B413" s="8">
-        <f>+[1]Séries_Site!B416</f>
+        <f ca="1">+[1]Séries_Site!B416</f>
         <v>126886</v>
       </c>
       <c r="C413" s="9">
-        <f>+[1]Séries_Site!C416</f>
+        <f ca="1">+[1]Séries_Site!C416</f>
         <v>108754</v>
       </c>
       <c r="D413" s="9">
-        <f>+[1]Séries_Site!D416</f>
+        <f ca="1">+[1]Séries_Site!D416</f>
         <v>18132</v>
       </c>
     </row>
@@ -12281,15 +12549,15 @@
         <v>42826</v>
       </c>
       <c r="B414" s="8">
-        <f>+[1]Séries_Site!B417</f>
+        <f ca="1">+[1]Séries_Site!B417</f>
         <v>126510</v>
       </c>
       <c r="C414" s="9">
-        <f>+[1]Séries_Site!C417</f>
+        <f ca="1">+[1]Séries_Site!C417</f>
         <v>108198</v>
       </c>
       <c r="D414" s="9">
-        <f>+[1]Séries_Site!D417</f>
+        <f ca="1">+[1]Séries_Site!D417</f>
         <v>18312</v>
       </c>
     </row>
@@ -12298,15 +12566,15 @@
         <v>42856</v>
       </c>
       <c r="B415" s="8">
-        <f>+[1]Séries_Site!B418</f>
+        <f ca="1">+[1]Séries_Site!B418</f>
         <v>126993</v>
       </c>
       <c r="C415" s="9">
-        <f>+[1]Séries_Site!C418</f>
+        <f ca="1">+[1]Séries_Site!C418</f>
         <v>108506</v>
       </c>
       <c r="D415" s="9">
-        <f>+[1]Séries_Site!D418</f>
+        <f ca="1">+[1]Séries_Site!D418</f>
         <v>18487</v>
       </c>
     </row>
@@ -12315,15 +12583,15 @@
         <v>42887</v>
       </c>
       <c r="B416" s="8">
-        <f>+[1]Séries_Site!B419</f>
+        <f ca="1">+[1]Séries_Site!B419</f>
         <v>126502</v>
       </c>
       <c r="C416" s="9">
-        <f>+[1]Séries_Site!C419</f>
+        <f ca="1">+[1]Séries_Site!C419</f>
         <v>108158</v>
       </c>
       <c r="D416" s="9">
-        <f>+[1]Séries_Site!D419</f>
+        <f ca="1">+[1]Séries_Site!D419</f>
         <v>18344</v>
       </c>
     </row>
@@ -12332,15 +12600,15 @@
         <v>42917</v>
       </c>
       <c r="B417" s="8">
-        <f>+[1]Séries_Site!B420</f>
+        <f ca="1">+[1]Séries_Site!B420</f>
         <v>126769</v>
       </c>
       <c r="C417" s="9">
-        <f>+[1]Séries_Site!C420</f>
+        <f ca="1">+[1]Séries_Site!C420</f>
         <v>108282</v>
       </c>
       <c r="D417" s="9">
-        <f>+[1]Séries_Site!D420</f>
+        <f ca="1">+[1]Séries_Site!D420</f>
         <v>18487</v>
       </c>
     </row>
@@ -12349,15 +12617,15 @@
         <v>42948</v>
       </c>
       <c r="B418" s="8">
-        <f>+[1]Séries_Site!B421</f>
+        <f ca="1">+[1]Séries_Site!B421</f>
         <v>127856</v>
       </c>
       <c r="C418" s="9">
-        <f>+[1]Séries_Site!C421</f>
+        <f ca="1">+[1]Séries_Site!C421</f>
         <v>109156</v>
       </c>
       <c r="D418" s="9">
-        <f>+[1]Séries_Site!D421</f>
+        <f ca="1">+[1]Séries_Site!D421</f>
         <v>18700</v>
       </c>
     </row>
@@ -12366,15 +12634,15 @@
         <v>42979</v>
       </c>
       <c r="B419" s="8">
-        <f>+[1]Séries_Site!B422</f>
+        <f ca="1">+[1]Séries_Site!B422</f>
         <v>127888</v>
       </c>
       <c r="C419" s="9">
-        <f>+[1]Séries_Site!C422</f>
+        <f ca="1">+[1]Séries_Site!C422</f>
         <v>109225</v>
       </c>
       <c r="D419" s="9">
-        <f>+[1]Séries_Site!D422</f>
+        <f ca="1">+[1]Séries_Site!D422</f>
         <v>18663</v>
       </c>
     </row>
@@ -12383,15 +12651,15 @@
         <v>43009</v>
       </c>
       <c r="B420" s="8">
-        <f>+[1]Séries_Site!B423</f>
+        <f ca="1">+[1]Séries_Site!B423</f>
         <v>128327</v>
       </c>
       <c r="C420" s="9">
-        <f>+[1]Séries_Site!C423</f>
+        <f ca="1">+[1]Séries_Site!C423</f>
         <v>109303</v>
       </c>
       <c r="D420" s="9">
-        <f>+[1]Séries_Site!D423</f>
+        <f ca="1">+[1]Séries_Site!D423</f>
         <v>19024</v>
       </c>
     </row>
@@ -12400,15 +12668,15 @@
         <v>43040</v>
       </c>
       <c r="B421" s="8">
-        <f>+[1]Séries_Site!B424</f>
+        <f ca="1">+[1]Séries_Site!B424</f>
         <v>127994</v>
       </c>
       <c r="C421" s="9">
-        <f>+[1]Séries_Site!C424</f>
+        <f ca="1">+[1]Séries_Site!C424</f>
         <v>109373</v>
       </c>
       <c r="D421" s="9">
-        <f>+[1]Séries_Site!D424</f>
+        <f ca="1">+[1]Séries_Site!D424</f>
         <v>18621</v>
       </c>
     </row>
@@ -12417,15 +12685,15 @@
         <v>43070</v>
       </c>
       <c r="B422" s="8">
-        <f>+[1]Séries_Site!B425</f>
+        <f ca="1">+[1]Séries_Site!B425</f>
         <v>128275</v>
       </c>
       <c r="C422" s="9">
-        <f>+[1]Séries_Site!C425</f>
+        <f ca="1">+[1]Séries_Site!C425</f>
         <v>109910</v>
       </c>
       <c r="D422" s="9">
-        <f>+[1]Séries_Site!D425</f>
+        <f ca="1">+[1]Séries_Site!D425</f>
         <v>18365</v>
       </c>
     </row>
@@ -12434,15 +12702,15 @@
         <v>43101</v>
       </c>
       <c r="B423" s="8">
-        <f>+[1]Séries_Site!B426</f>
+        <f ca="1">+[1]Séries_Site!B426</f>
         <v>128951</v>
       </c>
       <c r="C423" s="9">
-        <f>+[1]Séries_Site!C426</f>
+        <f ca="1">+[1]Séries_Site!C426</f>
         <v>110507</v>
       </c>
       <c r="D423" s="9">
-        <f>+[1]Séries_Site!D426</f>
+        <f ca="1">+[1]Séries_Site!D426</f>
         <v>18444</v>
       </c>
     </row>
@@ -12451,15 +12719,15 @@
         <v>43132</v>
       </c>
       <c r="B424" s="8">
-        <f>+[1]Séries_Site!B427</f>
+        <f ca="1">+[1]Séries_Site!B427</f>
         <v>130421</v>
       </c>
       <c r="C424" s="9">
-        <f>+[1]Séries_Site!C427</f>
+        <f ca="1">+[1]Séries_Site!C427</f>
         <v>111944</v>
       </c>
       <c r="D424" s="9">
-        <f>+[1]Séries_Site!D427</f>
+        <f ca="1">+[1]Séries_Site!D427</f>
         <v>18477</v>
       </c>
     </row>
@@ -12468,15 +12736,15 @@
         <v>43160</v>
       </c>
       <c r="B425" s="8">
-        <f>+[1]Séries_Site!B428</f>
+        <f ca="1">+[1]Séries_Site!B428</f>
         <v>131221</v>
       </c>
       <c r="C425" s="9">
-        <f>+[1]Séries_Site!C428</f>
+        <f ca="1">+[1]Séries_Site!C428</f>
         <v>112433</v>
       </c>
       <c r="D425" s="9">
-        <f>+[1]Séries_Site!D428</f>
+        <f ca="1">+[1]Séries_Site!D428</f>
         <v>18788</v>
       </c>
     </row>
@@ -12485,15 +12753,15 @@
         <v>43191</v>
       </c>
       <c r="B426" s="8">
-        <f>+[1]Séries_Site!B429</f>
+        <f ca="1">+[1]Séries_Site!B429</f>
         <v>131749</v>
       </c>
       <c r="C426" s="9">
-        <f>+[1]Séries_Site!C429</f>
+        <f ca="1">+[1]Séries_Site!C429</f>
         <v>112880</v>
       </c>
       <c r="D426" s="9">
-        <f>+[1]Séries_Site!D429</f>
+        <f ca="1">+[1]Séries_Site!D429</f>
         <v>18869</v>
       </c>
     </row>
@@ -12502,15 +12770,15 @@
         <v>43221</v>
       </c>
       <c r="B427" s="8">
-        <f>+[1]Séries_Site!B430</f>
+        <f ca="1">+[1]Séries_Site!B430</f>
         <v>132365</v>
       </c>
       <c r="C427" s="9">
-        <f>+[1]Séries_Site!C430</f>
+        <f ca="1">+[1]Séries_Site!C430</f>
         <v>113349</v>
       </c>
       <c r="D427" s="9">
-        <f>+[1]Séries_Site!D430</f>
+        <f ca="1">+[1]Séries_Site!D430</f>
         <v>19016</v>
       </c>
     </row>
@@ -12519,15 +12787,15 @@
         <v>43252</v>
       </c>
       <c r="B428" s="8">
-        <f>+[1]Séries_Site!B431</f>
+        <f ca="1">+[1]Séries_Site!B431</f>
         <v>131475</v>
       </c>
       <c r="C428" s="9">
-        <f>+[1]Séries_Site!C431</f>
+        <f ca="1">+[1]Séries_Site!C431</f>
         <v>112406</v>
       </c>
       <c r="D428" s="9">
-        <f>+[1]Séries_Site!D431</f>
+        <f ca="1">+[1]Séries_Site!D431</f>
         <v>19069</v>
       </c>
     </row>
@@ -12536,15 +12804,15 @@
         <v>43282</v>
       </c>
       <c r="B429" s="8">
-        <f>+[1]Séries_Site!B432</f>
+        <f ca="1">+[1]Séries_Site!B432</f>
         <v>132021</v>
       </c>
       <c r="C429" s="9">
-        <f>+[1]Séries_Site!C432</f>
+        <f ca="1">+[1]Séries_Site!C432</f>
         <v>112729</v>
       </c>
       <c r="D429" s="9">
-        <f>+[1]Séries_Site!D432</f>
+        <f ca="1">+[1]Séries_Site!D432</f>
         <v>19292</v>
       </c>
     </row>
@@ -12553,15 +12821,15 @@
         <v>43313</v>
       </c>
       <c r="B430" s="8">
-        <f>+[1]Séries_Site!B433</f>
+        <f ca="1">+[1]Séries_Site!B433</f>
         <v>132519</v>
       </c>
       <c r="C430" s="9">
-        <f>+[1]Séries_Site!C433</f>
+        <f ca="1">+[1]Séries_Site!C433</f>
         <v>112950</v>
       </c>
       <c r="D430" s="9">
-        <f>+[1]Séries_Site!D433</f>
+        <f ca="1">+[1]Séries_Site!D433</f>
         <v>19569</v>
       </c>
     </row>
@@ -12570,15 +12838,15 @@
         <v>43344</v>
       </c>
       <c r="B431" s="8">
-        <f>+[1]Séries_Site!B434</f>
+        <f ca="1">+[1]Séries_Site!B434</f>
         <v>132480</v>
       </c>
       <c r="C431" s="9">
-        <f>+[1]Séries_Site!C434</f>
+        <f ca="1">+[1]Séries_Site!C434</f>
         <v>112883</v>
       </c>
       <c r="D431" s="9">
-        <f>+[1]Séries_Site!D434</f>
+        <f ca="1">+[1]Séries_Site!D434</f>
         <v>19597</v>
       </c>
     </row>
@@ -12587,15 +12855,15 @@
         <v>43374</v>
       </c>
       <c r="B432" s="8">
-        <f>+[1]Séries_Site!B435</f>
+        <f ca="1">+[1]Séries_Site!B435</f>
         <v>131374</v>
       </c>
       <c r="C432" s="9">
-        <f>+[1]Séries_Site!C435</f>
+        <f ca="1">+[1]Séries_Site!C435</f>
         <v>112089</v>
       </c>
       <c r="D432" s="9">
-        <f>+[1]Séries_Site!D435</f>
+        <f ca="1">+[1]Séries_Site!D435</f>
         <v>19285</v>
       </c>
     </row>
@@ -12604,16 +12872,16 @@
         <v>43405</v>
       </c>
       <c r="B433" s="8">
-        <f>+[1]Séries_Site!B436</f>
-        <v>0</v>
+        <f ca="1">+[1]Séries_Site!B436</f>
+        <v>131254</v>
       </c>
       <c r="C433" s="9">
-        <f>+[1]Séries_Site!C436</f>
-        <v>0</v>
+        <f ca="1">+[1]Séries_Site!C436</f>
+        <v>111721</v>
       </c>
       <c r="D433" s="9">
-        <f>+[1]Séries_Site!D436</f>
-        <v>0</v>
+        <f ca="1">+[1]Séries_Site!D436</f>
+        <v>19533</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -12621,15 +12889,423 @@
         <v>43435</v>
       </c>
       <c r="B434" s="8">
-        <f>+[1]Séries_Site!B437</f>
+        <f ca="1">+[1]Séries_Site!B437</f>
+        <v>130451</v>
+      </c>
+      <c r="C434" s="9">
+        <f ca="1">+[1]Séries_Site!C437</f>
+        <v>111043</v>
+      </c>
+      <c r="D434" s="9">
+        <f ca="1">+[1]Séries_Site!D437</f>
+        <v>19408</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" s="6">
+        <v>43466</v>
+      </c>
+      <c r="B435" s="8">
+        <f ca="1">+[1]Séries_Site!B438</f>
+        <v>130453</v>
+      </c>
+      <c r="C435" s="9">
+        <f ca="1">+[1]Séries_Site!C438</f>
+        <v>111086</v>
+      </c>
+      <c r="D435" s="9">
+        <f ca="1">+[1]Séries_Site!D438</f>
+        <v>19367</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436" s="6">
+        <v>43497</v>
+      </c>
+      <c r="B436" s="8">
+        <f ca="1">+[1]Séries_Site!B439</f>
+        <v>130967</v>
+      </c>
+      <c r="C436" s="9">
+        <f ca="1">+[1]Séries_Site!C439</f>
+        <v>111442</v>
+      </c>
+      <c r="D436" s="9">
+        <f ca="1">+[1]Séries_Site!D439</f>
+        <v>19525</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437" s="6">
+        <v>43525</v>
+      </c>
+      <c r="B437" s="8">
+        <f ca="1">+[1]Séries_Site!B440</f>
+        <v>129980</v>
+      </c>
+      <c r="C437" s="9">
+        <f ca="1">+[1]Séries_Site!C440</f>
+        <v>110485</v>
+      </c>
+      <c r="D437" s="9">
+        <f ca="1">+[1]Séries_Site!D440</f>
+        <v>19495</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438" s="6">
+        <v>43556</v>
+      </c>
+      <c r="B438" s="8">
+        <f ca="1">+[1]Séries_Site!B441</f>
+        <v>130154</v>
+      </c>
+      <c r="C438" s="9">
+        <f ca="1">+[1]Séries_Site!C441</f>
+        <v>110454</v>
+      </c>
+      <c r="D438" s="9">
+        <f ca="1">+[1]Séries_Site!D441</f>
+        <v>19700</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439" s="6">
+        <v>43586</v>
+      </c>
+      <c r="B439" s="8">
+        <f ca="1">+[1]Séries_Site!B442</f>
+        <v>130008</v>
+      </c>
+      <c r="C439" s="9">
+        <f ca="1">+[1]Séries_Site!C442</f>
+        <v>110249</v>
+      </c>
+      <c r="D439" s="9">
+        <f ca="1">+[1]Séries_Site!D442</f>
+        <v>19759</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440" s="6">
+        <v>43617</v>
+      </c>
+      <c r="B440" s="8">
+        <f ca="1">+[1]Séries_Site!B443</f>
+        <v>129234</v>
+      </c>
+      <c r="C440" s="9">
+        <f ca="1">+[1]Séries_Site!C443</f>
+        <v>109519</v>
+      </c>
+      <c r="D440" s="9">
+        <f ca="1">+[1]Séries_Site!D443</f>
+        <v>19715</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" s="6">
+        <v>43647</v>
+      </c>
+      <c r="B441" s="8">
+        <f ca="1">+[1]Séries_Site!B444</f>
+        <v>128665</v>
+      </c>
+      <c r="C441" s="9">
+        <f ca="1">+[1]Séries_Site!C444</f>
+        <v>108948</v>
+      </c>
+      <c r="D441" s="9">
+        <f ca="1">+[1]Séries_Site!D444</f>
+        <v>19717</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442" s="6">
+        <v>43678</v>
+      </c>
+      <c r="B442" s="8">
+        <f ca="1">+[1]Séries_Site!B445</f>
+        <v>128153</v>
+      </c>
+      <c r="C442" s="9">
+        <f ca="1">+[1]Séries_Site!C445</f>
+        <v>108451</v>
+      </c>
+      <c r="D442" s="9">
+        <f ca="1">+[1]Séries_Site!D445</f>
+        <v>19702</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443" s="6">
+        <v>43709</v>
+      </c>
+      <c r="B443" s="8">
+        <f ca="1">+[1]Séries_Site!B446</f>
+        <v>127938</v>
+      </c>
+      <c r="C443" s="9">
+        <f ca="1">+[1]Séries_Site!C446</f>
+        <v>108357</v>
+      </c>
+      <c r="D443" s="9">
+        <f ca="1">+[1]Séries_Site!D446</f>
+        <v>19581</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" s="6">
+        <v>43739</v>
+      </c>
+      <c r="B444" s="8">
+        <f ca="1">+[1]Séries_Site!B447</f>
+        <v>127724</v>
+      </c>
+      <c r="C444" s="9">
+        <f ca="1">+[1]Séries_Site!C447</f>
+        <v>108376</v>
+      </c>
+      <c r="D444" s="9">
+        <f ca="1">+[1]Séries_Site!D447</f>
+        <v>19348</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" s="6">
+        <v>43770</v>
+      </c>
+      <c r="B445" s="8">
+        <f ca="1">+[1]Séries_Site!B448</f>
+        <v>126438</v>
+      </c>
+      <c r="C445" s="9">
+        <f ca="1">+[1]Séries_Site!C448</f>
+        <v>107438</v>
+      </c>
+      <c r="D445" s="9">
+        <f ca="1">+[1]Séries_Site!D448</f>
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" s="6">
+        <v>43800</v>
+      </c>
+      <c r="B446" s="8">
+        <f ca="1">+[1]Séries_Site!B449</f>
+        <v>125596</v>
+      </c>
+      <c r="C446" s="9">
+        <f ca="1">+[1]Séries_Site!C449</f>
+        <v>106705</v>
+      </c>
+      <c r="D446" s="9">
+        <f ca="1">+[1]Séries_Site!D449</f>
+        <v>18891</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447" s="6">
+        <v>43831</v>
+      </c>
+      <c r="B447" s="8">
+        <f ca="1">+[1]Séries_Site!B450</f>
+        <v>125905</v>
+      </c>
+      <c r="C447" s="9">
+        <f ca="1">+[1]Séries_Site!C450</f>
+        <v>107169</v>
+      </c>
+      <c r="D447" s="9">
+        <f ca="1">+[1]Séries_Site!D450</f>
+        <v>18736</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" s="6">
+        <v>43862</v>
+      </c>
+      <c r="B448" s="8">
+        <f ca="1">+[1]Séries_Site!B451</f>
+        <v>125989</v>
+      </c>
+      <c r="C448" s="9">
+        <f ca="1">+[1]Séries_Site!C451</f>
+        <v>107270</v>
+      </c>
+      <c r="D448" s="9">
+        <f ca="1">+[1]Séries_Site!D451</f>
+        <v>18719</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449" s="6">
+        <v>43891</v>
+      </c>
+      <c r="B449" s="8">
+        <f ca="1">+[1]Séries_Site!B452</f>
+        <v>125675</v>
+      </c>
+      <c r="C449" s="9">
+        <f ca="1">+[1]Séries_Site!C452</f>
+        <v>106996</v>
+      </c>
+      <c r="D449" s="9">
+        <f ca="1">+[1]Séries_Site!D452</f>
+        <v>18679</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450" s="6">
+        <v>43922</v>
+      </c>
+      <c r="B450" s="8">
+        <f ca="1">+[1]Séries_Site!B453</f>
         <v>0</v>
       </c>
-      <c r="C434" s="9">
-        <f>+[1]Séries_Site!C437</f>
+      <c r="C450" s="9">
+        <f ca="1">+[1]Séries_Site!C453</f>
         <v>0</v>
       </c>
-      <c r="D434" s="9">
-        <f>+[1]Séries_Site!D437</f>
+      <c r="D450" s="9">
+        <f ca="1">+[1]Séries_Site!D453</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451" s="6">
+        <v>43952</v>
+      </c>
+      <c r="B451" s="8">
+        <f ca="1">+[1]Séries_Site!B454</f>
+        <v>0</v>
+      </c>
+      <c r="C451" s="9">
+        <f ca="1">+[1]Séries_Site!C454</f>
+        <v>0</v>
+      </c>
+      <c r="D451" s="9">
+        <f ca="1">+[1]Séries_Site!D454</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452" s="6">
+        <v>43983</v>
+      </c>
+      <c r="B452" s="8">
+        <f ca="1">+[1]Séries_Site!B455</f>
+        <v>0</v>
+      </c>
+      <c r="C452" s="9">
+        <f ca="1">+[1]Séries_Site!C455</f>
+        <v>0</v>
+      </c>
+      <c r="D452" s="9">
+        <f ca="1">+[1]Séries_Site!D455</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453" s="6">
+        <v>44013</v>
+      </c>
+      <c r="B453" s="8">
+        <f ca="1">+[1]Séries_Site!B456</f>
+        <v>0</v>
+      </c>
+      <c r="C453" s="9">
+        <f ca="1">+[1]Séries_Site!C456</f>
+        <v>0</v>
+      </c>
+      <c r="D453" s="9">
+        <f ca="1">+[1]Séries_Site!D456</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454" s="6">
+        <v>44044</v>
+      </c>
+      <c r="B454" s="8">
+        <f ca="1">+[1]Séries_Site!B457</f>
+        <v>0</v>
+      </c>
+      <c r="C454" s="9">
+        <f ca="1">+[1]Séries_Site!C457</f>
+        <v>0</v>
+      </c>
+      <c r="D454" s="9">
+        <f ca="1">+[1]Séries_Site!D457</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455" s="6">
+        <v>44075</v>
+      </c>
+      <c r="B455" s="8">
+        <f ca="1">+[1]Séries_Site!B458</f>
+        <v>0</v>
+      </c>
+      <c r="C455" s="9">
+        <f ca="1">+[1]Séries_Site!C458</f>
+        <v>0</v>
+      </c>
+      <c r="D455" s="9">
+        <f ca="1">+[1]Séries_Site!D458</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456" s="6">
+        <v>44105</v>
+      </c>
+      <c r="B456" s="8">
+        <f ca="1">+[1]Séries_Site!B459</f>
+        <v>0</v>
+      </c>
+      <c r="C456" s="9">
+        <f ca="1">+[1]Séries_Site!C459</f>
+        <v>0</v>
+      </c>
+      <c r="D456" s="9">
+        <f ca="1">+[1]Séries_Site!D459</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457" s="6">
+        <v>44136</v>
+      </c>
+      <c r="B457" s="8">
+        <f ca="1">+[1]Séries_Site!B460</f>
+        <v>0</v>
+      </c>
+      <c r="C457" s="9">
+        <f ca="1">+[1]Séries_Site!C460</f>
+        <v>0</v>
+      </c>
+      <c r="D457" s="9">
+        <f ca="1">+[1]Séries_Site!D460</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458" s="6">
+        <v>44166</v>
+      </c>
+      <c r="B458" s="8">
+        <f ca="1">+[1]Séries_Site!B461</f>
+        <v>0</v>
+      </c>
+      <c r="C458" s="9">
+        <f ca="1">+[1]Séries_Site!C461</f>
+        <v>0</v>
+      </c>
+      <c r="D458" s="9">
+        <f ca="1">+[1]Séries_Site!D461</f>
         <v>0</v>
       </c>
     </row>
